--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC906F64-8320-3F4C-9CB1-DA14A86BD493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADC63E-07D2-0D41-A45F-1B27FBC787DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="194">
   <si>
     <t>Buildings</t>
   </si>
@@ -3175,224 +3175,6 @@
   </si>
   <si>
     <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>g</t>
     </r>
     <r>
@@ -4622,241 +4404,6 @@
   </si>
   <si>
     <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_hat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> *  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_hat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_hat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">+ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_hat</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -4959,132 +4506,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_hat + B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> * </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f_hat</t>
     </r>
   </si>
   <si>
@@ -5945,6 +5366,632 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_hat_inv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_hat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_hat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_hat + K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_hat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_hat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f_hat</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6809,7 +6856,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6818,28 +6865,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30590,11 +30637,11 @@
     </row>
     <row r="26" spans="1:93">
       <c r="B26" s="10"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -30863,11 +30910,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18">
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -31085,7 +31132,7 @@
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>58</v>
@@ -31193,7 +31240,7 @@
         <v>18</v>
       </c>
       <c r="CJ41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="CK41" s="2" t="s">
         <v>58</v>
@@ -33001,14 +33048,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20">
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
     </row>
     <row r="55" spans="1:93">
       <c r="L55" s="6">
@@ -33048,11 +33095,11 @@
     </row>
     <row r="60" spans="1:93">
       <c r="B60" s="1"/>
-      <c r="Z60" s="75" t="s">
+      <c r="Z60" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="75"/>
-      <c r="AB60" s="75"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="69"/>
       <c r="AI60" s="68" t="s">
         <v>3</v>
       </c>
@@ -34188,11 +34235,11 @@
       <c r="J68" s="68"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="73" t="s">
+      <c r="Z68" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="73"/>
-      <c r="AB68" s="73"/>
+      <c r="AA68" s="72"/>
+      <c r="AB68" s="72"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -34398,17 +34445,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="75" t="s">
+      <c r="Z73" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="75"/>
-      <c r="AI73" s="76" t="s">
+      <c r="AA73" s="69"/>
+      <c r="AI73" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="76"/>
+      <c r="AJ73" s="73"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="76"/>
-      <c r="AM73" s="76"/>
+      <c r="AL73" s="73"/>
+      <c r="AM73" s="73"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -34732,29 +34779,29 @@
       <c r="AC77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="72" t="s">
+      <c r="AI77" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="72"/>
+      <c r="AJ77" s="75"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="72"/>
-      <c r="AM77" s="72"/>
+      <c r="AL77" s="75"/>
+      <c r="AM77" s="75"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="72" t="s">
+      <c r="AT77" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="72"/>
-      <c r="AV77" s="72"/>
-      <c r="AW77" s="72"/>
-      <c r="AX77" s="72"/>
-      <c r="AY77" s="72"/>
-      <c r="AZ77" s="72"/>
-      <c r="BA77" s="72"/>
+      <c r="AU77" s="75"/>
+      <c r="AV77" s="75"/>
+      <c r="AW77" s="75"/>
+      <c r="AX77" s="75"/>
+      <c r="AY77" s="75"/>
+      <c r="AZ77" s="75"/>
+      <c r="BA77" s="75"/>
     </row>
     <row r="78" spans="1:78">
       <c r="B78" s="1"/>
@@ -34854,16 +34901,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1">
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="69"/>
-      <c r="I81" s="69"/>
-      <c r="J81" s="69"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
       <c r="AI81" s="68" t="s">
         <v>4</v>
       </c>
@@ -36279,14 +36326,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19">
-      <c r="L91" s="69" t="s">
+      <c r="L91" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="69"/>
-      <c r="Q91" s="69"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="76"/>
+      <c r="O91" s="76"/>
+      <c r="P91" s="76"/>
+      <c r="Q91" s="76"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -36439,14 +36486,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20">
-      <c r="L95" s="69" t="s">
+      <c r="L95" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="69"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="69"/>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="69"/>
+      <c r="M95" s="76"/>
+      <c r="N95" s="76"/>
+      <c r="O95" s="76"/>
+      <c r="P95" s="76"/>
+      <c r="Q95" s="76"/>
     </row>
     <row r="98" spans="1:40" ht="47">
       <c r="A98" s="27" t="s">
@@ -37067,16 +37114,16 @@
       </c>
       <c r="D120" s="68"/>
       <c r="E120" s="68"/>
-      <c r="G120" s="69" t="s">
+      <c r="G120" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="69"/>
-      <c r="I120" s="69"/>
-      <c r="K120" s="69" t="s">
+      <c r="H120" s="76"/>
+      <c r="I120" s="76"/>
+      <c r="K120" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="69"/>
-      <c r="M120" s="69"/>
+      <c r="L120" s="76"/>
+      <c r="M120" s="76"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -37500,6 +37547,65 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -37512,65 +37618,6 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -37583,8 +37630,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842438A8-D71C-B444-A99F-665ABEA366D5}">
   <dimension ref="A1:LO126"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CI41" sqref="CI41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A40" sqref="A40"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="EI55" sqref="EI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37603,7 +37654,7 @@
   <sheetData>
     <row r="1" spans="6:276">
       <c r="AI1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="6:276">
@@ -37611,7 +37662,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CW2" s="33">
         <f ca="1">EE44</f>
@@ -38158,46 +38209,46 @@
         <v>106</v>
       </c>
       <c r="IU23" s="61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:278">
       <c r="W24" s="21"/>
       <c r="CQ24" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="FS24" t="s">
         <v>108</v>
       </c>
       <c r="IU24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:278">
       <c r="CQ25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="FS25" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="IU25" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:278">
       <c r="B26" s="10"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="CQ26" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="FS26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:278" ht="35" customHeight="1">
@@ -38449,11 +38500,11 @@
       <c r="CJ35" s="31"/>
     </row>
     <row r="36" spans="1:302" ht="18">
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="BL36" s="31"/>
@@ -38508,31 +38559,31 @@
       <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:302">
-      <c r="BL38" s="72"/>
-      <c r="BM38" s="72"/>
-      <c r="BN38" s="72"/>
-      <c r="BO38" s="72"/>
-      <c r="BP38" s="72"/>
-      <c r="BQ38" s="72"/>
-      <c r="BR38" s="72"/>
-      <c r="BS38" s="72"/>
-      <c r="BT38" s="72"/>
-      <c r="BU38" s="72"/>
-      <c r="BV38" s="72"/>
-      <c r="BW38" s="72"/>
-      <c r="BX38" s="72"/>
-      <c r="BY38" s="72"/>
-      <c r="BZ38" s="72"/>
-      <c r="CA38" s="72"/>
-      <c r="CB38" s="72"/>
-      <c r="CC38" s="72"/>
-      <c r="CD38" s="72"/>
-      <c r="CE38" s="72"/>
-      <c r="CF38" s="72"/>
-      <c r="CG38" s="72"/>
-      <c r="CH38" s="72"/>
-      <c r="CI38" s="72"/>
-      <c r="CJ38" s="72"/>
+      <c r="BL38" s="75"/>
+      <c r="BM38" s="75"/>
+      <c r="BN38" s="75"/>
+      <c r="BO38" s="75"/>
+      <c r="BP38" s="75"/>
+      <c r="BQ38" s="75"/>
+      <c r="BR38" s="75"/>
+      <c r="BS38" s="75"/>
+      <c r="BT38" s="75"/>
+      <c r="BU38" s="75"/>
+      <c r="BV38" s="75"/>
+      <c r="BW38" s="75"/>
+      <c r="BX38" s="75"/>
+      <c r="BY38" s="75"/>
+      <c r="BZ38" s="75"/>
+      <c r="CA38" s="75"/>
+      <c r="CB38" s="75"/>
+      <c r="CC38" s="75"/>
+      <c r="CD38" s="75"/>
+      <c r="CE38" s="75"/>
+      <c r="CF38" s="75"/>
+      <c r="CG38" s="75"/>
+      <c r="CH38" s="75"/>
+      <c r="CI38" s="75"/>
+      <c r="CJ38" s="75"/>
     </row>
     <row r="40" spans="1:302">
       <c r="C40" s="68" t="s">
@@ -38678,8 +38729,8 @@
       <c r="JC40" s="68"/>
       <c r="JD40" s="68"/>
       <c r="JE40" s="68"/>
-      <c r="JL40" s="72"/>
-      <c r="JM40" s="72"/>
+      <c r="JL40" s="75"/>
+      <c r="JM40" s="75"/>
       <c r="KI40" s="68" t="s">
         <v>3</v>
       </c>
@@ -38734,7 +38785,7 @@
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>58</v>
@@ -38842,7 +38893,7 @@
         <v>18</v>
       </c>
       <c r="CI41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="CJ41" s="2" t="s">
         <v>58</v>
@@ -38851,7 +38902,7 @@
       <c r="CL41" s="2"/>
       <c r="CR41" s="28"/>
       <c r="CS41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="CT41" s="2" t="s">
         <v>58</v>
@@ -38912,7 +38963,7 @@
       </c>
       <c r="FT41" s="28"/>
       <c r="FU41" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="FV41" s="2" t="s">
         <v>58</v>
@@ -42307,7 +42358,7 @@
       <c r="BH50" s="68"/>
       <c r="BI50" s="68"/>
       <c r="BS50" s="71" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="BT50" s="71"/>
       <c r="BU50" s="71"/>
@@ -42339,7 +42390,7 @@
       </c>
       <c r="CT50" s="68"/>
       <c r="CV50" s="71" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="CW50" s="71"/>
       <c r="CX50" s="71"/>
@@ -42347,11 +42398,11 @@
       <c r="CZ50" s="71"/>
       <c r="DA50" s="71"/>
       <c r="DC50" s="52" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="DF50" s="31"/>
       <c r="DH50" s="68" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="DI50" s="68"/>
       <c r="DJ50" s="68"/>
@@ -42363,14 +42414,14 @@
       <c r="EB50" s="58"/>
       <c r="EC50" s="58"/>
       <c r="ED50" s="58"/>
-      <c r="EE50" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="EF50" s="79"/>
-      <c r="EG50" s="79"/>
-      <c r="EH50" s="79"/>
-      <c r="EI50" s="79"/>
-      <c r="EJ50" s="79"/>
+      <c r="EE50" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="EF50" s="78"/>
+      <c r="EG50" s="78"/>
+      <c r="EH50" s="78"/>
+      <c r="EI50" s="78"/>
+      <c r="EJ50" s="78"/>
       <c r="EK50" s="58"/>
       <c r="EL50" s="58"/>
       <c r="EM50" s="58"/>
@@ -42387,7 +42438,7 @@
       </c>
       <c r="FV50" s="68"/>
       <c r="FX50" s="71" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="FY50" s="71"/>
       <c r="FZ50" s="71"/>
@@ -42395,12 +42446,12 @@
       <c r="GB50" s="71"/>
       <c r="GC50" s="71"/>
       <c r="GE50" s="52" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="GH50" s="29"/>
       <c r="GI50" s="29"/>
       <c r="GJ50" s="68" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="GK50" s="68"/>
       <c r="GL50" s="68"/>
@@ -42412,14 +42463,14 @@
       <c r="HD50" s="58"/>
       <c r="HE50" s="58"/>
       <c r="HF50" s="58"/>
-      <c r="HG50" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="HH50" s="79"/>
-      <c r="HI50" s="79"/>
-      <c r="HJ50" s="79"/>
-      <c r="HK50" s="79"/>
-      <c r="HL50" s="79"/>
+      <c r="HG50" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="HH50" s="78"/>
+      <c r="HI50" s="78"/>
+      <c r="HJ50" s="78"/>
+      <c r="HK50" s="78"/>
+      <c r="HL50" s="78"/>
       <c r="HM50" s="58"/>
       <c r="HN50" s="58"/>
       <c r="HO50" s="58"/>
@@ -42432,15 +42483,15 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
       <c r="IV50" s="31"/>
-      <c r="IW50" s="72"/>
-      <c r="IX50" s="72"/>
+      <c r="IW50" s="75"/>
+      <c r="IX50" s="75"/>
       <c r="IY50" s="31"/>
-      <c r="IZ50" s="79"/>
-      <c r="JA50" s="79"/>
-      <c r="JB50" s="79"/>
-      <c r="JC50" s="79"/>
-      <c r="JD50" s="79"/>
-      <c r="JE50" s="79"/>
+      <c r="IZ50" s="78"/>
+      <c r="JA50" s="78"/>
+      <c r="JB50" s="78"/>
+      <c r="JC50" s="78"/>
+      <c r="JD50" s="78"/>
+      <c r="JE50" s="78"/>
       <c r="JF50" s="31"/>
       <c r="JG50" s="55"/>
       <c r="JH50" s="31"/>
@@ -42454,14 +42505,14 @@
       <c r="KF50" s="58"/>
       <c r="KG50" s="58"/>
       <c r="KH50" s="58"/>
-      <c r="KI50" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="KJ50" s="79"/>
-      <c r="KK50" s="79"/>
-      <c r="KL50" s="79"/>
-      <c r="KM50" s="79"/>
-      <c r="KN50" s="79"/>
+      <c r="KI50" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="KJ50" s="78"/>
+      <c r="KK50" s="78"/>
+      <c r="KL50" s="78"/>
+      <c r="KM50" s="78"/>
+      <c r="KN50" s="78"/>
       <c r="KO50" s="58"/>
       <c r="KP50" s="59" t="s">
         <v>12</v>
@@ -42776,14 +42827,14 @@
     </row>
     <row r="54" spans="1:319" ht="20">
       <c r="B54" s="1"/>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -42811,14 +42862,14 @@
       <c r="JJ54" s="31"/>
       <c r="JK54" s="31"/>
       <c r="JL54" s="31"/>
-      <c r="KI54" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="KJ54" s="73"/>
-      <c r="KK54" s="73"/>
-      <c r="KL54" s="73"/>
-      <c r="KM54" s="73"/>
-      <c r="KN54" s="73"/>
+      <c r="KI54" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="KJ54" s="72"/>
+      <c r="KK54" s="72"/>
+      <c r="KL54" s="72"/>
+      <c r="KM54" s="72"/>
+      <c r="KN54" s="72"/>
     </row>
     <row r="55" spans="1:319">
       <c r="B55" s="1"/>
@@ -42919,7 +42970,7 @@
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
       <c r="KI56" s="68" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="KJ56" s="68"/>
       <c r="KK56" s="68"/>
@@ -42962,18 +43013,18 @@
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
-      <c r="Z58" s="75" t="s">
+      <c r="Z58" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AH58" s="76" t="s">
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="69"/>
+      <c r="AH58" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="AI58" s="76"/>
+      <c r="AI58" s="73"/>
       <c r="AJ58" s="31"/>
-      <c r="AK58" s="76"/>
-      <c r="AL58" s="76"/>
+      <c r="AK58" s="73"/>
+      <c r="AL58" s="73"/>
       <c r="AM58" s="31"/>
       <c r="AN58" s="31"/>
       <c r="AO58" s="31"/>
@@ -43299,37 +43350,37 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
-      <c r="Z62" s="72" t="s">
+      <c r="Z62" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AA62" s="72"/>
-      <c r="AB62" s="72"/>
+      <c r="AA62" s="75"/>
+      <c r="AB62" s="75"/>
       <c r="AD62" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AH62" s="72" t="s">
+      <c r="AH62" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="AI62" s="72"/>
+      <c r="AI62" s="75"/>
       <c r="AJ62" s="29"/>
-      <c r="AK62" s="72"/>
-      <c r="AL62" s="72"/>
+      <c r="AK62" s="75"/>
+      <c r="AL62" s="75"/>
       <c r="AM62" s="29"/>
       <c r="AN62" s="31"/>
       <c r="AO62" s="31"/>
       <c r="AP62" s="31"/>
       <c r="AQ62" s="31"/>
       <c r="AR62" s="31"/>
-      <c r="AS62" s="72" t="s">
+      <c r="AS62" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="AT62" s="72"/>
-      <c r="AU62" s="72"/>
-      <c r="AV62" s="72"/>
-      <c r="AW62" s="72"/>
-      <c r="AX62" s="72"/>
-      <c r="AY62" s="72"/>
-      <c r="AZ62" s="72"/>
+      <c r="AT62" s="75"/>
+      <c r="AU62" s="75"/>
+      <c r="AV62" s="75"/>
+      <c r="AW62" s="75"/>
+      <c r="AX62" s="75"/>
+      <c r="AY62" s="75"/>
+      <c r="AZ62" s="75"/>
       <c r="ES62" s="31"/>
       <c r="ET62" s="31"/>
       <c r="EU62" s="31"/>
@@ -43472,11 +43523,11 @@
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
       <c r="J64" s="68"/>
-      <c r="Z64" s="75" t="s">
+      <c r="Z64" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AA64" s="75"/>
-      <c r="AB64" s="75"/>
+      <c r="AA64" s="69"/>
+      <c r="AB64" s="69"/>
       <c r="AH64" s="68" t="s">
         <v>3</v>
       </c>
@@ -43535,14 +43586,14 @@
       <c r="EC64" s="45"/>
       <c r="ES64" s="31"/>
       <c r="ET64" s="31"/>
-      <c r="EU64" s="72"/>
-      <c r="EV64" s="72"/>
-      <c r="EW64" s="72"/>
-      <c r="EX64" s="72"/>
-      <c r="EY64" s="72"/>
-      <c r="EZ64" s="72"/>
-      <c r="FA64" s="72"/>
-      <c r="FB64" s="72"/>
+      <c r="EU64" s="75"/>
+      <c r="EV64" s="75"/>
+      <c r="EW64" s="75"/>
+      <c r="EX64" s="75"/>
+      <c r="EY64" s="75"/>
+      <c r="EZ64" s="75"/>
+      <c r="FA64" s="75"/>
+      <c r="FB64" s="75"/>
       <c r="FC64" s="31"/>
       <c r="GM64" s="68" t="s">
         <v>3</v>
@@ -43566,26 +43617,26 @@
       <c r="HE64" s="52"/>
       <c r="HU64" s="31"/>
       <c r="HV64" s="31"/>
-      <c r="HW64" s="72"/>
-      <c r="HX64" s="72"/>
-      <c r="HY64" s="72"/>
-      <c r="HZ64" s="72"/>
-      <c r="IA64" s="72"/>
-      <c r="IB64" s="72"/>
-      <c r="IC64" s="72"/>
-      <c r="ID64" s="72"/>
+      <c r="HW64" s="75"/>
+      <c r="HX64" s="75"/>
+      <c r="HY64" s="75"/>
+      <c r="HZ64" s="75"/>
+      <c r="IA64" s="75"/>
+      <c r="IB64" s="75"/>
+      <c r="IC64" s="75"/>
+      <c r="ID64" s="75"/>
       <c r="IE64" s="31"/>
       <c r="JJ64" s="31"/>
       <c r="JK64" s="31"/>
       <c r="JL64" s="31"/>
       <c r="JM64" s="31"/>
       <c r="JN64" s="31"/>
-      <c r="JO64" s="72"/>
-      <c r="JP64" s="72"/>
-      <c r="JQ64" s="72"/>
-      <c r="JR64" s="72"/>
-      <c r="JS64" s="72"/>
-      <c r="JT64" s="72"/>
+      <c r="JO64" s="75"/>
+      <c r="JP64" s="75"/>
+      <c r="JQ64" s="75"/>
+      <c r="JR64" s="75"/>
+      <c r="JS64" s="75"/>
+      <c r="JT64" s="75"/>
       <c r="JU64" s="31"/>
       <c r="JX64" s="68" t="s">
         <v>4</v>
@@ -43599,21 +43650,21 @@
       <c r="KE64" s="68"/>
       <c r="KF64" s="52"/>
       <c r="KG64" s="52"/>
-      <c r="KP64" s="75" t="s">
+      <c r="KP64" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="KQ64" s="75"/>
-      <c r="KR64" s="75"/>
+      <c r="KQ64" s="69"/>
+      <c r="KR64" s="69"/>
       <c r="KW64" s="31"/>
       <c r="KX64" s="31"/>
-      <c r="KY64" s="72"/>
-      <c r="KZ64" s="72"/>
-      <c r="LA64" s="72"/>
-      <c r="LB64" s="72"/>
-      <c r="LC64" s="72"/>
-      <c r="LD64" s="72"/>
-      <c r="LE64" s="72"/>
-      <c r="LF64" s="72"/>
+      <c r="KY64" s="75"/>
+      <c r="KZ64" s="75"/>
+      <c r="LA64" s="75"/>
+      <c r="LB64" s="75"/>
+      <c r="LC64" s="75"/>
+      <c r="LD64" s="75"/>
+      <c r="LE64" s="75"/>
+      <c r="LF64" s="75"/>
       <c r="LG64" s="31"/>
     </row>
     <row r="65" spans="1:327" ht="51" customHeight="1">
@@ -44517,14 +44568,14 @@
       <c r="EC67" s="50"/>
       <c r="ES67" s="31"/>
       <c r="ET67" s="31"/>
-      <c r="EU67" s="73"/>
-      <c r="EV67" s="73"/>
-      <c r="EW67" s="73"/>
-      <c r="EX67" s="73"/>
-      <c r="EY67" s="73"/>
-      <c r="EZ67" s="73"/>
-      <c r="FA67" s="73"/>
-      <c r="FB67" s="73"/>
+      <c r="EU67" s="72"/>
+      <c r="EV67" s="72"/>
+      <c r="EW67" s="72"/>
+      <c r="EX67" s="72"/>
+      <c r="EY67" s="72"/>
+      <c r="EZ67" s="72"/>
+      <c r="FA67" s="72"/>
+      <c r="FB67" s="72"/>
       <c r="FC67" s="31"/>
       <c r="GH67" s="70"/>
       <c r="GI67" s="1" t="s">
@@ -44594,14 +44645,14 @@
       <c r="HE67" s="51"/>
       <c r="HU67" s="31"/>
       <c r="HV67" s="31"/>
-      <c r="HW67" s="73"/>
-      <c r="HX67" s="73"/>
-      <c r="HY67" s="73"/>
-      <c r="HZ67" s="73"/>
-      <c r="IA67" s="73"/>
-      <c r="IB67" s="73"/>
-      <c r="IC67" s="73"/>
-      <c r="ID67" s="73"/>
+      <c r="HW67" s="72"/>
+      <c r="HX67" s="72"/>
+      <c r="HY67" s="72"/>
+      <c r="HZ67" s="72"/>
+      <c r="IA67" s="72"/>
+      <c r="IB67" s="72"/>
+      <c r="IC67" s="72"/>
+      <c r="ID67" s="72"/>
       <c r="IE67" s="31"/>
       <c r="JJ67" s="77"/>
       <c r="JK67" s="63"/>
@@ -44671,14 +44722,14 @@
       </c>
       <c r="KW67" s="31"/>
       <c r="KX67" s="31"/>
-      <c r="KY67" s="73"/>
-      <c r="KZ67" s="73"/>
-      <c r="LA67" s="73"/>
-      <c r="LB67" s="73"/>
-      <c r="LC67" s="73"/>
-      <c r="LD67" s="73"/>
-      <c r="LE67" s="73"/>
-      <c r="LF67" s="73"/>
+      <c r="KY67" s="72"/>
+      <c r="KZ67" s="72"/>
+      <c r="LA67" s="72"/>
+      <c r="LB67" s="72"/>
+      <c r="LC67" s="72"/>
+      <c r="LD67" s="72"/>
+      <c r="LE67" s="72"/>
+      <c r="LF67" s="72"/>
       <c r="LG67" s="31"/>
     </row>
     <row r="68" spans="1:327">
@@ -46275,11 +46326,11 @@
       <c r="J72" s="68"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
-      <c r="Z72" s="73" t="s">
+      <c r="Z72" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="AA72" s="73"/>
-      <c r="AB72" s="73"/>
+      <c r="AA72" s="72"/>
+      <c r="AB72" s="72"/>
       <c r="AD72" s="45" t="s">
         <v>34</v>
       </c>
@@ -46423,10 +46474,10 @@
       <c r="GF72" s="26"/>
       <c r="GG72" s="26"/>
       <c r="GJ72" s="52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="GM72" s="68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="GN72" s="68"/>
       <c r="GO72" s="68"/>
@@ -46434,7 +46485,7 @@
       <c r="GQ72" s="68"/>
       <c r="GR72" s="68"/>
       <c r="GV72" s="71" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="GW72" s="71"/>
       <c r="GX72" s="71"/>
@@ -46494,23 +46545,23 @@
       <c r="JL72" s="55"/>
       <c r="JM72" s="31"/>
       <c r="JN72" s="31"/>
-      <c r="JO72" s="72"/>
-      <c r="JP72" s="72"/>
-      <c r="JQ72" s="72"/>
-      <c r="JR72" s="72"/>
-      <c r="JS72" s="72"/>
-      <c r="JT72" s="72"/>
+      <c r="JO72" s="75"/>
+      <c r="JP72" s="75"/>
+      <c r="JQ72" s="75"/>
+      <c r="JR72" s="75"/>
+      <c r="JS72" s="75"/>
+      <c r="JT72" s="75"/>
       <c r="JU72" s="31"/>
-      <c r="JX72" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="JY72" s="78"/>
-      <c r="JZ72" s="78"/>
-      <c r="KA72" s="78"/>
-      <c r="KB72" s="78"/>
-      <c r="KC72" s="78"/>
-      <c r="KD72" s="78"/>
-      <c r="KE72" s="78"/>
+      <c r="JX72" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="JY72" s="79"/>
+      <c r="JZ72" s="79"/>
+      <c r="KA72" s="79"/>
+      <c r="KB72" s="79"/>
+      <c r="KC72" s="79"/>
+      <c r="KD72" s="79"/>
+      <c r="KE72" s="79"/>
       <c r="KF72" s="54"/>
       <c r="KG72" s="54"/>
       <c r="KH72" s="26"/>
@@ -46521,14 +46572,14 @@
       <c r="KM72" s="26"/>
       <c r="KN72" s="26"/>
       <c r="KO72" s="26"/>
-      <c r="KP72" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="KQ72" s="73"/>
-      <c r="KR72" s="73"/>
+      <c r="KP72" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="KQ72" s="72"/>
+      <c r="KR72" s="72"/>
       <c r="KS72" s="26"/>
       <c r="KT72" s="52" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="KU72" s="26"/>
       <c r="KW72" s="31"/>
@@ -48619,16 +48670,16 @@
       <c r="FA80" s="29"/>
       <c r="FB80" s="29"/>
       <c r="FC80" s="31"/>
-      <c r="FD80" s="69" t="s">
+      <c r="FD80" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="FE80" s="69"/>
-      <c r="FF80" s="69"/>
-      <c r="FG80" s="69"/>
-      <c r="FH80" s="69"/>
-      <c r="FI80" s="69"/>
-      <c r="FJ80" s="69"/>
-      <c r="FK80" s="69"/>
+      <c r="FE80" s="76"/>
+      <c r="FF80" s="76"/>
+      <c r="FG80" s="76"/>
+      <c r="FH80" s="76"/>
+      <c r="FI80" s="76"/>
+      <c r="FJ80" s="76"/>
+      <c r="FK80" s="76"/>
       <c r="GH80" s="70"/>
       <c r="GI80" s="1" t="s">
         <v>27</v>
@@ -48740,16 +48791,16 @@
       <c r="IC80" s="29"/>
       <c r="ID80" s="29"/>
       <c r="IE80" s="31"/>
-      <c r="IF80" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="IG80" s="69"/>
-      <c r="IH80" s="69"/>
-      <c r="II80" s="69"/>
-      <c r="IJ80" s="69"/>
-      <c r="IK80" s="69"/>
-      <c r="IL80" s="69"/>
-      <c r="IM80" s="69"/>
+      <c r="IF80" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="IG80" s="76"/>
+      <c r="IH80" s="76"/>
+      <c r="II80" s="76"/>
+      <c r="IJ80" s="76"/>
+      <c r="IK80" s="76"/>
+      <c r="IL80" s="76"/>
+      <c r="IM80" s="76"/>
       <c r="JJ80" s="77"/>
       <c r="JK80" s="63"/>
       <c r="JL80" s="51"/>
@@ -48836,16 +48887,16 @@
       <c r="LE80" s="29"/>
       <c r="LF80" s="29"/>
       <c r="LG80" s="31"/>
-      <c r="LH80" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="LI80" s="69"/>
-      <c r="LJ80" s="69"/>
-      <c r="LK80" s="69"/>
-      <c r="LL80" s="69"/>
-      <c r="LM80" s="69"/>
-      <c r="LN80" s="69"/>
-      <c r="LO80" s="69"/>
+      <c r="LH80" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="LI80" s="76"/>
+      <c r="LJ80" s="76"/>
+      <c r="LK80" s="76"/>
+      <c r="LL80" s="76"/>
+      <c r="LM80" s="76"/>
+      <c r="LN80" s="76"/>
+      <c r="LO80" s="76"/>
     </row>
     <row r="81" spans="1:327">
       <c r="A81" s="70"/>
@@ -49814,16 +49865,16 @@
       <c r="LE82" s="31"/>
       <c r="LF82" s="31"/>
       <c r="LG82" s="31"/>
-      <c r="LH82" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="LI82" s="69"/>
-      <c r="LJ82" s="69"/>
-      <c r="LK82" s="69"/>
-      <c r="LL82" s="69"/>
-      <c r="LM82" s="69"/>
-      <c r="LN82" s="69"/>
-      <c r="LO82" s="69"/>
+      <c r="LH82" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="LI82" s="76"/>
+      <c r="LJ82" s="76"/>
+      <c r="LK82" s="76"/>
+      <c r="LL82" s="76"/>
+      <c r="LM82" s="76"/>
+      <c r="LN82" s="76"/>
+      <c r="LO82" s="76"/>
     </row>
     <row r="83" spans="1:327">
       <c r="A83" s="70"/>
@@ -51230,14 +51281,14 @@
       <c r="LG85" s="31"/>
     </row>
     <row r="86" spans="1:327" ht="20">
-      <c r="L86" s="69" t="s">
+      <c r="L86" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M86" s="69"/>
-      <c r="N86" s="69"/>
-      <c r="O86" s="69"/>
-      <c r="P86" s="69"/>
-      <c r="Q86" s="69"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="76"/>
+      <c r="O86" s="76"/>
+      <c r="P86" s="76"/>
+      <c r="Q86" s="76"/>
       <c r="Z86" s="45" t="s">
         <v>11</v>
       </c>
@@ -51343,30 +51394,30 @@
       <c r="EB86" s="8"/>
       <c r="EC86" s="8"/>
       <c r="ED86" s="8"/>
-      <c r="EE86" s="69" t="s">
+      <c r="EE86" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="EF86" s="69"/>
-      <c r="EG86" s="69"/>
-      <c r="EH86" s="69"/>
-      <c r="EI86" s="69"/>
-      <c r="EJ86" s="69"/>
+      <c r="EF86" s="76"/>
+      <c r="EG86" s="76"/>
+      <c r="EH86" s="76"/>
+      <c r="EI86" s="76"/>
+      <c r="EJ86" s="76"/>
       <c r="EM86" s="45" t="s">
         <v>116</v>
       </c>
       <c r="EO86" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="ER86" s="69" t="s">
+      <c r="ER86" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="ES86" s="69"/>
-      <c r="ET86" s="69"/>
-      <c r="EU86" s="69"/>
-      <c r="EV86" s="69"/>
-      <c r="EW86" s="69"/>
-      <c r="EX86" s="69"/>
-      <c r="EY86" s="69"/>
+      <c r="ES86" s="76"/>
+      <c r="ET86" s="76"/>
+      <c r="EU86" s="76"/>
+      <c r="EV86" s="76"/>
+      <c r="EW86" s="76"/>
+      <c r="EX86" s="76"/>
+      <c r="EY86" s="76"/>
       <c r="FO86" s="57"/>
       <c r="FP86" s="8"/>
       <c r="FQ86" s="8"/>
@@ -51387,10 +51438,10 @@
       <c r="GF86" s="8"/>
       <c r="GG86" s="8"/>
       <c r="GJ86" s="52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="GM86" s="68" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="GN86" s="68"/>
       <c r="GO86" s="68"/>
@@ -51411,30 +51462,30 @@
       <c r="HD86" s="8"/>
       <c r="HE86" s="8"/>
       <c r="HF86" s="8"/>
-      <c r="HG86" s="69" t="s">
+      <c r="HG86" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="HH86" s="76"/>
+      <c r="HI86" s="76"/>
+      <c r="HJ86" s="76"/>
+      <c r="HK86" s="76"/>
+      <c r="HL86" s="76"/>
+      <c r="HO86" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="HQ86" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="HT86" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="HH86" s="69"/>
-      <c r="HI86" s="69"/>
-      <c r="HJ86" s="69"/>
-      <c r="HK86" s="69"/>
-      <c r="HL86" s="69"/>
-      <c r="HO86" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="HQ86" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="HT86" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="HU86" s="69"/>
-      <c r="HV86" s="69"/>
-      <c r="HW86" s="69"/>
-      <c r="HX86" s="69"/>
-      <c r="HY86" s="69"/>
-      <c r="HZ86" s="69"/>
-      <c r="IA86" s="69"/>
+      <c r="HU86" s="76"/>
+      <c r="HV86" s="76"/>
+      <c r="HW86" s="76"/>
+      <c r="HX86" s="76"/>
+      <c r="HY86" s="76"/>
+      <c r="HZ86" s="76"/>
+      <c r="IA86" s="76"/>
       <c r="IQ86" s="57"/>
       <c r="IR86" s="8"/>
       <c r="IS86" s="8"/>
@@ -51459,14 +51510,14 @@
       <c r="JL86" s="55"/>
       <c r="JM86" s="31"/>
       <c r="JN86" s="31"/>
-      <c r="JO86" s="72"/>
-      <c r="JP86" s="72"/>
-      <c r="JQ86" s="72"/>
-      <c r="JR86" s="72"/>
-      <c r="JS86" s="72"/>
-      <c r="JT86" s="72"/>
-      <c r="JU86" s="72"/>
-      <c r="JV86" s="72"/>
+      <c r="JO86" s="75"/>
+      <c r="JP86" s="75"/>
+      <c r="JQ86" s="75"/>
+      <c r="JR86" s="75"/>
+      <c r="JS86" s="75"/>
+      <c r="JT86" s="75"/>
+      <c r="JU86" s="75"/>
+      <c r="JV86" s="75"/>
       <c r="JW86" s="29"/>
       <c r="JX86" s="29"/>
       <c r="JY86" s="8"/>
@@ -51479,30 +51530,30 @@
       <c r="KF86" s="8"/>
       <c r="KG86" s="8"/>
       <c r="KH86" s="8"/>
-      <c r="KI86" s="69" t="s">
+      <c r="KI86" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="KJ86" s="69"/>
-      <c r="KK86" s="69"/>
-      <c r="KL86" s="69"/>
-      <c r="KM86" s="69"/>
-      <c r="KN86" s="69"/>
+      <c r="KJ86" s="76"/>
+      <c r="KK86" s="76"/>
+      <c r="KL86" s="76"/>
+      <c r="KM86" s="76"/>
+      <c r="KN86" s="76"/>
       <c r="KQ86" s="52" t="s">
         <v>98</v>
       </c>
       <c r="KS86" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="KV86" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="KW86" s="69"/>
-      <c r="KX86" s="69"/>
-      <c r="KY86" s="69"/>
-      <c r="KZ86" s="69"/>
-      <c r="LA86" s="69"/>
-      <c r="LB86" s="69"/>
-      <c r="LC86" s="69"/>
+        <v>135</v>
+      </c>
+      <c r="KV86" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="KW86" s="76"/>
+      <c r="KX86" s="76"/>
+      <c r="KY86" s="76"/>
+      <c r="KZ86" s="76"/>
+      <c r="LA86" s="76"/>
+      <c r="LB86" s="76"/>
+      <c r="LC86" s="76"/>
     </row>
     <row r="87" spans="1:327" ht="16" customHeight="1">
       <c r="J87" s="70" t="s">
@@ -51872,49 +51923,49 @@
       </c>
     </row>
     <row r="90" spans="1:327" ht="20">
-      <c r="L90" s="69" t="s">
+      <c r="L90" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="M90" s="69"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="69"/>
-      <c r="Q90" s="69"/>
-      <c r="EE90" s="69" t="s">
+      <c r="M90" s="76"/>
+      <c r="N90" s="76"/>
+      <c r="O90" s="76"/>
+      <c r="P90" s="76"/>
+      <c r="Q90" s="76"/>
+      <c r="EE90" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="EF90" s="69"/>
-      <c r="EG90" s="69"/>
-      <c r="EH90" s="69"/>
-      <c r="EI90" s="69"/>
-      <c r="EJ90" s="69"/>
+      <c r="EF90" s="76"/>
+      <c r="EG90" s="76"/>
+      <c r="EH90" s="76"/>
+      <c r="EI90" s="76"/>
+      <c r="EJ90" s="76"/>
       <c r="EM90" s="53" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="EN90" s="53"/>
       <c r="EO90" s="53"/>
       <c r="EP90" s="53"/>
       <c r="EQ90" s="53"/>
       <c r="ER90" s="53"/>
-      <c r="HG90" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="HH90" s="69"/>
-      <c r="HI90" s="69"/>
-      <c r="HJ90" s="69"/>
-      <c r="HK90" s="69"/>
-      <c r="HL90" s="69"/>
+      <c r="HG90" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="HH90" s="76"/>
+      <c r="HI90" s="76"/>
+      <c r="HJ90" s="76"/>
+      <c r="HK90" s="76"/>
+      <c r="HL90" s="76"/>
       <c r="HO90" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="KI90" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="KI90" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="KJ90" s="69"/>
-      <c r="KK90" s="69"/>
-      <c r="KL90" s="69"/>
-      <c r="KM90" s="69"/>
-      <c r="KN90" s="69"/>
+      <c r="KJ90" s="76"/>
+      <c r="KK90" s="76"/>
+      <c r="KL90" s="76"/>
+      <c r="KM90" s="76"/>
+      <c r="KN90" s="76"/>
     </row>
     <row r="93" spans="1:327" ht="47">
       <c r="A93" s="27" t="s">
@@ -52365,7 +52416,7 @@
         <v>57</v>
       </c>
       <c r="JY105" s="53" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="KA105" s="52" t="s">
         <v>98</v>
@@ -53130,17 +53181,17 @@
       </c>
       <c r="D115" s="68"/>
       <c r="E115" s="68"/>
-      <c r="G115" s="69" t="s">
+      <c r="G115" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
       <c r="J115" s="17"/>
-      <c r="K115" s="69" t="s">
+      <c r="K115" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="L115" s="69"/>
-      <c r="M115" s="69"/>
+      <c r="L115" s="76"/>
+      <c r="M115" s="76"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17" t="s">
         <v>41</v>
@@ -53151,24 +53202,24 @@
       <c r="AN115" s="18"/>
       <c r="AO115" s="18"/>
       <c r="JY115" s="68" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="JZ115" s="68"/>
       <c r="KA115" s="68"/>
-      <c r="KC115" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="KD115" s="69"/>
-      <c r="KE115" s="69"/>
+      <c r="KC115" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="KD115" s="76"/>
+      <c r="KE115" s="76"/>
       <c r="KF115" s="17"/>
-      <c r="KG115" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="KH115" s="69"/>
-      <c r="KI115" s="69"/>
+      <c r="KG115" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="KH115" s="76"/>
+      <c r="KI115" s="76"/>
       <c r="KJ115" s="17"/>
       <c r="KK115" s="17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="KL115" s="17"/>
     </row>
@@ -53424,67 +53475,134 @@
         <v>34</v>
       </c>
       <c r="D126" s="52" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>67</v>
       </c>
       <c r="JY126" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="JZ126" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="KB126" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="KD126" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="JZ126" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="KB126" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="KD126" s="32" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="GH78:GH85"/>
-    <mergeCell ref="HE78:HE85"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="ER86:EY86"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="EC87:EC89"/>
-    <mergeCell ref="L90:Q90"/>
-    <mergeCell ref="EE90:EJ90"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="AH86:AO86"/>
-    <mergeCell ref="AS86:AZ86"/>
-    <mergeCell ref="BD86:BK86"/>
-    <mergeCell ref="DK86:DR86"/>
-    <mergeCell ref="EE86:EJ86"/>
-    <mergeCell ref="BS86:BX86"/>
-    <mergeCell ref="BS72:BX72"/>
-    <mergeCell ref="EE76:EJ76"/>
-    <mergeCell ref="ER76:EY76"/>
-    <mergeCell ref="FD76:FK76"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="DF78:DF85"/>
-    <mergeCell ref="EC78:EC85"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="AH76:AO76"/>
-    <mergeCell ref="AS76:AZ76"/>
-    <mergeCell ref="BD76:BK76"/>
-    <mergeCell ref="DK76:DR76"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AS72:AZ72"/>
-    <mergeCell ref="BD72:BK72"/>
-    <mergeCell ref="BS76:BX76"/>
+    <mergeCell ref="JW95:KE95"/>
+    <mergeCell ref="JW97:JW104"/>
+    <mergeCell ref="JW107:KE107"/>
+    <mergeCell ref="JW109:JW114"/>
+    <mergeCell ref="JY115:KA115"/>
+    <mergeCell ref="KC115:KE115"/>
+    <mergeCell ref="KG115:KI115"/>
+    <mergeCell ref="JW120:JW125"/>
+    <mergeCell ref="JJ78:JJ85"/>
+    <mergeCell ref="KG78:KG85"/>
+    <mergeCell ref="LF78:LF79"/>
+    <mergeCell ref="LH80:LO80"/>
+    <mergeCell ref="JO86:JV86"/>
+    <mergeCell ref="KI86:KN86"/>
+    <mergeCell ref="KV86:LC86"/>
+    <mergeCell ref="KG87:KG89"/>
+    <mergeCell ref="KI90:KN90"/>
+    <mergeCell ref="LH82:LO82"/>
+    <mergeCell ref="KY64:LF64"/>
+    <mergeCell ref="KP64:KR64"/>
+    <mergeCell ref="JJ66:JJ71"/>
+    <mergeCell ref="KY67:LF67"/>
+    <mergeCell ref="JO72:JT72"/>
+    <mergeCell ref="JX72:KE72"/>
+    <mergeCell ref="JO76:JV76"/>
+    <mergeCell ref="KI76:KN76"/>
+    <mergeCell ref="KV76:LC76"/>
+    <mergeCell ref="LH76:LO76"/>
+    <mergeCell ref="JV66:JV71"/>
+    <mergeCell ref="KP72:KR72"/>
+    <mergeCell ref="JL40:JM40"/>
+    <mergeCell ref="KI40:KN40"/>
+    <mergeCell ref="IU42:IU49"/>
+    <mergeCell ref="JJ42:JJ49"/>
+    <mergeCell ref="IW50:IX50"/>
+    <mergeCell ref="IZ50:JE50"/>
+    <mergeCell ref="KI50:KN50"/>
+    <mergeCell ref="JO64:JT64"/>
+    <mergeCell ref="JX64:KE64"/>
+    <mergeCell ref="KG42:KG49"/>
+    <mergeCell ref="KG51:KG53"/>
+    <mergeCell ref="KI54:KN54"/>
+    <mergeCell ref="KI56:KN56"/>
+    <mergeCell ref="ID78:ID79"/>
+    <mergeCell ref="IF80:IM80"/>
+    <mergeCell ref="GM86:GT86"/>
+    <mergeCell ref="HG86:HL86"/>
+    <mergeCell ref="HT86:IA86"/>
+    <mergeCell ref="HE87:HE89"/>
+    <mergeCell ref="HG90:HL90"/>
+    <mergeCell ref="IW40:IX40"/>
+    <mergeCell ref="IZ40:JE40"/>
+    <mergeCell ref="GJ40:GO40"/>
+    <mergeCell ref="GJ50:GO50"/>
+    <mergeCell ref="HW64:ID64"/>
+    <mergeCell ref="GM76:GT76"/>
+    <mergeCell ref="HG76:HL76"/>
+    <mergeCell ref="HT76:IA76"/>
+    <mergeCell ref="IF76:IM76"/>
+    <mergeCell ref="CV40:DA40"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="FU40:FV40"/>
+    <mergeCell ref="FX40:GC40"/>
+    <mergeCell ref="HG40:HL40"/>
+    <mergeCell ref="FS42:FS49"/>
+    <mergeCell ref="FU50:FV50"/>
+    <mergeCell ref="FX50:GC50"/>
+    <mergeCell ref="HG50:HL50"/>
+    <mergeCell ref="DH40:DM40"/>
+    <mergeCell ref="DH50:DM50"/>
+    <mergeCell ref="DK72:DP72"/>
+    <mergeCell ref="DT72:EA72"/>
+    <mergeCell ref="GM64:GR64"/>
+    <mergeCell ref="GV64:HC64"/>
+    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="AS58:AZ58"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="GH66:GH71"/>
+    <mergeCell ref="HW67:ID67"/>
+    <mergeCell ref="GM72:GR72"/>
+    <mergeCell ref="GV72:HC72"/>
+    <mergeCell ref="CQ42:CQ49"/>
+    <mergeCell ref="DF42:DF49"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AS62:AZ62"/>
+    <mergeCell ref="DT64:EA64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AH64:AM64"/>
+    <mergeCell ref="AS64:AZ64"/>
+    <mergeCell ref="BD64:BK64"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AS50:AX50"/>
+    <mergeCell ref="BD50:BI50"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="BS50:BX50"/>
+    <mergeCell ref="BZ50:CG50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AK58:AL58"/>
     <mergeCell ref="EU64:FB64"/>
     <mergeCell ref="A66:A71"/>
     <mergeCell ref="DF66:DF71"/>
@@ -53509,114 +53627,47 @@
     <mergeCell ref="CS40:CT40"/>
     <mergeCell ref="EE40:EJ40"/>
     <mergeCell ref="C64:J64"/>
-    <mergeCell ref="CQ42:CQ49"/>
-    <mergeCell ref="DF42:DF49"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AS62:AZ62"/>
-    <mergeCell ref="DT64:EA64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AH64:AM64"/>
-    <mergeCell ref="AS64:AZ64"/>
-    <mergeCell ref="BD64:BK64"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AS50:AX50"/>
-    <mergeCell ref="BD50:BI50"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="BS50:BX50"/>
-    <mergeCell ref="BZ50:CG50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AS58:AZ58"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="GH66:GH71"/>
-    <mergeCell ref="HW67:ID67"/>
-    <mergeCell ref="GM72:GR72"/>
-    <mergeCell ref="GV72:HC72"/>
-    <mergeCell ref="GM76:GT76"/>
-    <mergeCell ref="HG76:HL76"/>
-    <mergeCell ref="HT76:IA76"/>
-    <mergeCell ref="IF76:IM76"/>
-    <mergeCell ref="CV40:DA40"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="FU40:FV40"/>
-    <mergeCell ref="FX40:GC40"/>
-    <mergeCell ref="HG40:HL40"/>
-    <mergeCell ref="FS42:FS49"/>
-    <mergeCell ref="FU50:FV50"/>
-    <mergeCell ref="FX50:GC50"/>
-    <mergeCell ref="HG50:HL50"/>
-    <mergeCell ref="DH40:DM40"/>
-    <mergeCell ref="DH50:DM50"/>
-    <mergeCell ref="DK72:DP72"/>
-    <mergeCell ref="DT72:EA72"/>
-    <mergeCell ref="GM64:GR64"/>
-    <mergeCell ref="GV64:HC64"/>
-    <mergeCell ref="EE50:EJ50"/>
-    <mergeCell ref="ID78:ID79"/>
-    <mergeCell ref="IF80:IM80"/>
-    <mergeCell ref="GM86:GT86"/>
-    <mergeCell ref="HG86:HL86"/>
-    <mergeCell ref="HT86:IA86"/>
-    <mergeCell ref="HE87:HE89"/>
-    <mergeCell ref="HG90:HL90"/>
-    <mergeCell ref="IW40:IX40"/>
-    <mergeCell ref="IZ40:JE40"/>
-    <mergeCell ref="GJ40:GO40"/>
-    <mergeCell ref="GJ50:GO50"/>
-    <mergeCell ref="HW64:ID64"/>
-    <mergeCell ref="JL40:JM40"/>
-    <mergeCell ref="KI40:KN40"/>
-    <mergeCell ref="IU42:IU49"/>
-    <mergeCell ref="JJ42:JJ49"/>
-    <mergeCell ref="IW50:IX50"/>
-    <mergeCell ref="IZ50:JE50"/>
-    <mergeCell ref="KI50:KN50"/>
-    <mergeCell ref="JO64:JT64"/>
-    <mergeCell ref="JX64:KE64"/>
-    <mergeCell ref="KG42:KG49"/>
-    <mergeCell ref="KG51:KG53"/>
-    <mergeCell ref="KI54:KN54"/>
-    <mergeCell ref="KI56:KN56"/>
-    <mergeCell ref="JJ66:JJ71"/>
-    <mergeCell ref="KY67:LF67"/>
-    <mergeCell ref="JO72:JT72"/>
-    <mergeCell ref="JX72:KE72"/>
-    <mergeCell ref="JO76:JV76"/>
-    <mergeCell ref="KI76:KN76"/>
-    <mergeCell ref="KV76:LC76"/>
-    <mergeCell ref="LH76:LO76"/>
-    <mergeCell ref="JV66:JV71"/>
-    <mergeCell ref="KP72:KR72"/>
-    <mergeCell ref="LF78:LF79"/>
-    <mergeCell ref="LH80:LO80"/>
-    <mergeCell ref="JO86:JV86"/>
-    <mergeCell ref="KI86:KN86"/>
-    <mergeCell ref="KV86:LC86"/>
-    <mergeCell ref="KG87:KG89"/>
-    <mergeCell ref="KI90:KN90"/>
-    <mergeCell ref="LH82:LO82"/>
-    <mergeCell ref="KY64:LF64"/>
-    <mergeCell ref="KP64:KR64"/>
-    <mergeCell ref="JW95:KE95"/>
-    <mergeCell ref="JW97:JW104"/>
-    <mergeCell ref="JW107:KE107"/>
-    <mergeCell ref="JW109:JW114"/>
-    <mergeCell ref="JY115:KA115"/>
-    <mergeCell ref="KC115:KE115"/>
-    <mergeCell ref="KG115:KI115"/>
-    <mergeCell ref="JW120:JW125"/>
-    <mergeCell ref="JJ78:JJ85"/>
-    <mergeCell ref="KG78:KG85"/>
+    <mergeCell ref="BS72:BX72"/>
+    <mergeCell ref="EE76:EJ76"/>
+    <mergeCell ref="ER76:EY76"/>
+    <mergeCell ref="FD76:FK76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="DF78:DF85"/>
+    <mergeCell ref="EC78:EC85"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="AH76:AO76"/>
+    <mergeCell ref="AS76:AZ76"/>
+    <mergeCell ref="BD76:BK76"/>
+    <mergeCell ref="DK76:DR76"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AS72:AZ72"/>
+    <mergeCell ref="BD72:BK72"/>
+    <mergeCell ref="BS76:BX76"/>
+    <mergeCell ref="GH78:GH85"/>
+    <mergeCell ref="HE78:HE85"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="ER86:EY86"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="EC87:EC89"/>
+    <mergeCell ref="L90:Q90"/>
+    <mergeCell ref="EE90:EJ90"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="AH86:AO86"/>
+    <mergeCell ref="AS86:AZ86"/>
+    <mergeCell ref="BD86:BK86"/>
+    <mergeCell ref="DK86:DR86"/>
+    <mergeCell ref="EE86:EJ86"/>
+    <mergeCell ref="BS86:BX86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53629,7 +53680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB1CE6-E3EC-7B4E-8832-2A8872C682BA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
@@ -53640,57 +53691,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
-      </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" t="s">
         <v>181</v>
       </c>
-      <c r="E2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" t="s">
-        <v>189</v>
-      </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -53700,27 +53751,27 @@
         <v>22.4</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
         <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -53733,27 +53784,27 @@
         <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -53766,27 +53817,27 @@
         <v>-22.4</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -53799,27 +53850,27 @@
         <v>-3</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>2000</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -53832,27 +53883,27 @@
         <v>22.4</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -53865,27 +53916,27 @@
         <v>-87</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -53898,27 +53949,27 @@
         <v>78.2</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B9">
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -53931,27 +53982,27 @@
         <v>-17.8</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10">
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -53964,27 +54015,27 @@
         <v>12.6</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B11">
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -53997,27 +54048,27 @@
         <v>-28.1</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B12">
         <v>2000</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -54035,22 +54086,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>2000</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -54063,27 +54114,27 @@
         <v>-19.399999999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -54096,27 +54147,27 @@
         <v>-0.5</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B15">
         <v>2000</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -54134,22 +54185,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
@@ -54162,27 +54213,27 @@
         <v>-12.1</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B17">
         <v>2000</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -54195,27 +54246,27 @@
         <v>-32.299999999999997</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>2000</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
@@ -54228,30 +54279,30 @@
         <v>25.2</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B19">
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -54266,25 +54317,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -54299,25 +54350,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
         <v>182</v>
-      </c>
-      <c r="F21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" t="s">
-        <v>190</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
@@ -54327,7 +54378,7 @@
         <v>25.2</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEADC63E-07D2-0D41-A45F-1B27FBC787DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713B2AD8-BCA6-7C4D-B8F1-4D6EB19E176A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25000" yWindow="440" windowWidth="26200" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Perfect substitution" sheetId="9" r:id="rId3"/>
     <sheet name="PerfectSubstitutionRaw" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -6856,7 +6856,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6865,28 +6865,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30637,11 +30637,11 @@
     </row>
     <row r="26" spans="1:93">
       <c r="B26" s="10"/>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -30910,11 +30910,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18">
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -33048,14 +33048,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20">
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
     </row>
     <row r="55" spans="1:93">
       <c r="L55" s="6">
@@ -33095,11 +33095,11 @@
     </row>
     <row r="60" spans="1:93">
       <c r="B60" s="1"/>
-      <c r="Z60" s="69" t="s">
+      <c r="Z60" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="69"/>
+      <c r="AA60" s="75"/>
+      <c r="AB60" s="75"/>
       <c r="AI60" s="68" t="s">
         <v>3</v>
       </c>
@@ -34235,11 +34235,11 @@
       <c r="J68" s="68"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="72" t="s">
+      <c r="Z68" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="72"/>
-      <c r="AB68" s="72"/>
+      <c r="AA68" s="73"/>
+      <c r="AB68" s="73"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -34445,17 +34445,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="69" t="s">
+      <c r="Z73" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="69"/>
-      <c r="AI73" s="73" t="s">
+      <c r="AA73" s="75"/>
+      <c r="AI73" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="73"/>
+      <c r="AJ73" s="76"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="73"/>
-      <c r="AM73" s="73"/>
+      <c r="AL73" s="76"/>
+      <c r="AM73" s="76"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -34779,29 +34779,29 @@
       <c r="AC77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="75" t="s">
+      <c r="AI77" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="75"/>
+      <c r="AJ77" s="72"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="75"/>
-      <c r="AM77" s="75"/>
+      <c r="AL77" s="72"/>
+      <c r="AM77" s="72"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="75" t="s">
+      <c r="AT77" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="75"/>
-      <c r="AV77" s="75"/>
-      <c r="AW77" s="75"/>
-      <c r="AX77" s="75"/>
-      <c r="AY77" s="75"/>
-      <c r="AZ77" s="75"/>
-      <c r="BA77" s="75"/>
+      <c r="AU77" s="72"/>
+      <c r="AV77" s="72"/>
+      <c r="AW77" s="72"/>
+      <c r="AX77" s="72"/>
+      <c r="AY77" s="72"/>
+      <c r="AZ77" s="72"/>
+      <c r="BA77" s="72"/>
     </row>
     <row r="78" spans="1:78">
       <c r="B78" s="1"/>
@@ -34901,16 +34901,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1">
-      <c r="C81" s="76" t="s">
+      <c r="C81" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="76"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
       <c r="AI81" s="68" t="s">
         <v>4</v>
       </c>
@@ -36326,14 +36326,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19">
-      <c r="L91" s="76" t="s">
+      <c r="L91" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="76"/>
-      <c r="N91" s="76"/>
-      <c r="O91" s="76"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="76"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="69"/>
+      <c r="O91" s="69"/>
+      <c r="P91" s="69"/>
+      <c r="Q91" s="69"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -36486,14 +36486,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20">
-      <c r="L95" s="76" t="s">
+      <c r="L95" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="76"/>
-      <c r="N95" s="76"/>
-      <c r="O95" s="76"/>
-      <c r="P95" s="76"/>
-      <c r="Q95" s="76"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
+      <c r="Q95" s="69"/>
     </row>
     <row r="98" spans="1:40" ht="47">
       <c r="A98" s="27" t="s">
@@ -37114,16 +37114,16 @@
       </c>
       <c r="D120" s="68"/>
       <c r="E120" s="68"/>
-      <c r="G120" s="76" t="s">
+      <c r="G120" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="76"/>
-      <c r="I120" s="76"/>
-      <c r="K120" s="76" t="s">
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
+      <c r="K120" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="76"/>
-      <c r="M120" s="76"/>
+      <c r="L120" s="69"/>
+      <c r="M120" s="69"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -37547,65 +37547,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -37618,6 +37559,65 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -37631,11 +37631,11 @@
   <dimension ref="A1:LO126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BI42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A40" sqref="A40"/>
       <selection pane="topRight" activeCell="C40" sqref="C40"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="EI55" sqref="EI55"/>
+      <selection pane="bottomRight" activeCell="DX68" sqref="DX68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38237,11 +38237,11 @@
     </row>
     <row r="26" spans="1:278">
       <c r="B26" s="10"/>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="CQ26" t="s">
@@ -38500,11 +38500,11 @@
       <c r="CJ35" s="31"/>
     </row>
     <row r="36" spans="1:302" ht="18">
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="BL36" s="31"/>
@@ -38559,31 +38559,31 @@
       <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:302">
-      <c r="BL38" s="75"/>
-      <c r="BM38" s="75"/>
-      <c r="BN38" s="75"/>
-      <c r="BO38" s="75"/>
-      <c r="BP38" s="75"/>
-      <c r="BQ38" s="75"/>
-      <c r="BR38" s="75"/>
-      <c r="BS38" s="75"/>
-      <c r="BT38" s="75"/>
-      <c r="BU38" s="75"/>
-      <c r="BV38" s="75"/>
-      <c r="BW38" s="75"/>
-      <c r="BX38" s="75"/>
-      <c r="BY38" s="75"/>
-      <c r="BZ38" s="75"/>
-      <c r="CA38" s="75"/>
-      <c r="CB38" s="75"/>
-      <c r="CC38" s="75"/>
-      <c r="CD38" s="75"/>
-      <c r="CE38" s="75"/>
-      <c r="CF38" s="75"/>
-      <c r="CG38" s="75"/>
-      <c r="CH38" s="75"/>
-      <c r="CI38" s="75"/>
-      <c r="CJ38" s="75"/>
+      <c r="BL38" s="72"/>
+      <c r="BM38" s="72"/>
+      <c r="BN38" s="72"/>
+      <c r="BO38" s="72"/>
+      <c r="BP38" s="72"/>
+      <c r="BQ38" s="72"/>
+      <c r="BR38" s="72"/>
+      <c r="BS38" s="72"/>
+      <c r="BT38" s="72"/>
+      <c r="BU38" s="72"/>
+      <c r="BV38" s="72"/>
+      <c r="BW38" s="72"/>
+      <c r="BX38" s="72"/>
+      <c r="BY38" s="72"/>
+      <c r="BZ38" s="72"/>
+      <c r="CA38" s="72"/>
+      <c r="CB38" s="72"/>
+      <c r="CC38" s="72"/>
+      <c r="CD38" s="72"/>
+      <c r="CE38" s="72"/>
+      <c r="CF38" s="72"/>
+      <c r="CG38" s="72"/>
+      <c r="CH38" s="72"/>
+      <c r="CI38" s="72"/>
+      <c r="CJ38" s="72"/>
     </row>
     <row r="40" spans="1:302">
       <c r="C40" s="68" t="s">
@@ -38729,8 +38729,8 @@
       <c r="JC40" s="68"/>
       <c r="JD40" s="68"/>
       <c r="JE40" s="68"/>
-      <c r="JL40" s="75"/>
-      <c r="JM40" s="75"/>
+      <c r="JL40" s="72"/>
+      <c r="JM40" s="72"/>
       <c r="KI40" s="68" t="s">
         <v>3</v>
       </c>
@@ -42414,14 +42414,14 @@
       <c r="EB50" s="58"/>
       <c r="EC50" s="58"/>
       <c r="ED50" s="58"/>
-      <c r="EE50" s="78" t="s">
+      <c r="EE50" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="EF50" s="78"/>
-      <c r="EG50" s="78"/>
-      <c r="EH50" s="78"/>
-      <c r="EI50" s="78"/>
-      <c r="EJ50" s="78"/>
+      <c r="EF50" s="79"/>
+      <c r="EG50" s="79"/>
+      <c r="EH50" s="79"/>
+      <c r="EI50" s="79"/>
+      <c r="EJ50" s="79"/>
       <c r="EK50" s="58"/>
       <c r="EL50" s="58"/>
       <c r="EM50" s="58"/>
@@ -42463,14 +42463,14 @@
       <c r="HD50" s="58"/>
       <c r="HE50" s="58"/>
       <c r="HF50" s="58"/>
-      <c r="HG50" s="78" t="s">
+      <c r="HG50" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="HH50" s="78"/>
-      <c r="HI50" s="78"/>
-      <c r="HJ50" s="78"/>
-      <c r="HK50" s="78"/>
-      <c r="HL50" s="78"/>
+      <c r="HH50" s="79"/>
+      <c r="HI50" s="79"/>
+      <c r="HJ50" s="79"/>
+      <c r="HK50" s="79"/>
+      <c r="HL50" s="79"/>
       <c r="HM50" s="58"/>
       <c r="HN50" s="58"/>
       <c r="HO50" s="58"/>
@@ -42483,15 +42483,15 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
       <c r="IV50" s="31"/>
-      <c r="IW50" s="75"/>
-      <c r="IX50" s="75"/>
+      <c r="IW50" s="72"/>
+      <c r="IX50" s="72"/>
       <c r="IY50" s="31"/>
-      <c r="IZ50" s="78"/>
-      <c r="JA50" s="78"/>
-      <c r="JB50" s="78"/>
-      <c r="JC50" s="78"/>
-      <c r="JD50" s="78"/>
-      <c r="JE50" s="78"/>
+      <c r="IZ50" s="79"/>
+      <c r="JA50" s="79"/>
+      <c r="JB50" s="79"/>
+      <c r="JC50" s="79"/>
+      <c r="JD50" s="79"/>
+      <c r="JE50" s="79"/>
       <c r="JF50" s="31"/>
       <c r="JG50" s="55"/>
       <c r="JH50" s="31"/>
@@ -42505,14 +42505,14 @@
       <c r="KF50" s="58"/>
       <c r="KG50" s="58"/>
       <c r="KH50" s="58"/>
-      <c r="KI50" s="78" t="s">
+      <c r="KI50" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="KJ50" s="78"/>
-      <c r="KK50" s="78"/>
-      <c r="KL50" s="78"/>
-      <c r="KM50" s="78"/>
-      <c r="KN50" s="78"/>
+      <c r="KJ50" s="79"/>
+      <c r="KK50" s="79"/>
+      <c r="KL50" s="79"/>
+      <c r="KM50" s="79"/>
+      <c r="KN50" s="79"/>
       <c r="KO50" s="58"/>
       <c r="KP50" s="59" t="s">
         <v>12</v>
@@ -42827,14 +42827,14 @@
     </row>
     <row r="54" spans="1:319" ht="20">
       <c r="B54" s="1"/>
-      <c r="L54" s="72" t="s">
+      <c r="L54" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -42862,14 +42862,14 @@
       <c r="JJ54" s="31"/>
       <c r="JK54" s="31"/>
       <c r="JL54" s="31"/>
-      <c r="KI54" s="72" t="s">
+      <c r="KI54" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="KJ54" s="72"/>
-      <c r="KK54" s="72"/>
-      <c r="KL54" s="72"/>
-      <c r="KM54" s="72"/>
-      <c r="KN54" s="72"/>
+      <c r="KJ54" s="73"/>
+      <c r="KK54" s="73"/>
+      <c r="KL54" s="73"/>
+      <c r="KM54" s="73"/>
+      <c r="KN54" s="73"/>
     </row>
     <row r="55" spans="1:319">
       <c r="B55" s="1"/>
@@ -43013,18 +43013,18 @@
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
-      <c r="Z58" s="69" t="s">
+      <c r="Z58" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AA58" s="69"/>
-      <c r="AB58" s="69"/>
-      <c r="AH58" s="73" t="s">
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AH58" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AI58" s="73"/>
+      <c r="AI58" s="76"/>
       <c r="AJ58" s="31"/>
-      <c r="AK58" s="73"/>
-      <c r="AL58" s="73"/>
+      <c r="AK58" s="76"/>
+      <c r="AL58" s="76"/>
       <c r="AM58" s="31"/>
       <c r="AN58" s="31"/>
       <c r="AO58" s="31"/>
@@ -43350,37 +43350,37 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
-      <c r="Z62" s="75" t="s">
+      <c r="Z62" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="AA62" s="75"/>
-      <c r="AB62" s="75"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="72"/>
       <c r="AD62" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AH62" s="75" t="s">
+      <c r="AH62" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="AI62" s="75"/>
+      <c r="AI62" s="72"/>
       <c r="AJ62" s="29"/>
-      <c r="AK62" s="75"/>
-      <c r="AL62" s="75"/>
+      <c r="AK62" s="72"/>
+      <c r="AL62" s="72"/>
       <c r="AM62" s="29"/>
       <c r="AN62" s="31"/>
       <c r="AO62" s="31"/>
       <c r="AP62" s="31"/>
       <c r="AQ62" s="31"/>
       <c r="AR62" s="31"/>
-      <c r="AS62" s="75" t="s">
+      <c r="AS62" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AT62" s="75"/>
-      <c r="AU62" s="75"/>
-      <c r="AV62" s="75"/>
-      <c r="AW62" s="75"/>
-      <c r="AX62" s="75"/>
-      <c r="AY62" s="75"/>
-      <c r="AZ62" s="75"/>
+      <c r="AT62" s="72"/>
+      <c r="AU62" s="72"/>
+      <c r="AV62" s="72"/>
+      <c r="AW62" s="72"/>
+      <c r="AX62" s="72"/>
+      <c r="AY62" s="72"/>
+      <c r="AZ62" s="72"/>
       <c r="ES62" s="31"/>
       <c r="ET62" s="31"/>
       <c r="EU62" s="31"/>
@@ -43523,11 +43523,11 @@
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
       <c r="J64" s="68"/>
-      <c r="Z64" s="69" t="s">
+      <c r="Z64" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AA64" s="69"/>
-      <c r="AB64" s="69"/>
+      <c r="AA64" s="75"/>
+      <c r="AB64" s="75"/>
       <c r="AH64" s="68" t="s">
         <v>3</v>
       </c>
@@ -43586,14 +43586,14 @@
       <c r="EC64" s="45"/>
       <c r="ES64" s="31"/>
       <c r="ET64" s="31"/>
-      <c r="EU64" s="75"/>
-      <c r="EV64" s="75"/>
-      <c r="EW64" s="75"/>
-      <c r="EX64" s="75"/>
-      <c r="EY64" s="75"/>
-      <c r="EZ64" s="75"/>
-      <c r="FA64" s="75"/>
-      <c r="FB64" s="75"/>
+      <c r="EU64" s="72"/>
+      <c r="EV64" s="72"/>
+      <c r="EW64" s="72"/>
+      <c r="EX64" s="72"/>
+      <c r="EY64" s="72"/>
+      <c r="EZ64" s="72"/>
+      <c r="FA64" s="72"/>
+      <c r="FB64" s="72"/>
       <c r="FC64" s="31"/>
       <c r="GM64" s="68" t="s">
         <v>3</v>
@@ -43617,26 +43617,26 @@
       <c r="HE64" s="52"/>
       <c r="HU64" s="31"/>
       <c r="HV64" s="31"/>
-      <c r="HW64" s="75"/>
-      <c r="HX64" s="75"/>
-      <c r="HY64" s="75"/>
-      <c r="HZ64" s="75"/>
-      <c r="IA64" s="75"/>
-      <c r="IB64" s="75"/>
-      <c r="IC64" s="75"/>
-      <c r="ID64" s="75"/>
+      <c r="HW64" s="72"/>
+      <c r="HX64" s="72"/>
+      <c r="HY64" s="72"/>
+      <c r="HZ64" s="72"/>
+      <c r="IA64" s="72"/>
+      <c r="IB64" s="72"/>
+      <c r="IC64" s="72"/>
+      <c r="ID64" s="72"/>
       <c r="IE64" s="31"/>
       <c r="JJ64" s="31"/>
       <c r="JK64" s="31"/>
       <c r="JL64" s="31"/>
       <c r="JM64" s="31"/>
       <c r="JN64" s="31"/>
-      <c r="JO64" s="75"/>
-      <c r="JP64" s="75"/>
-      <c r="JQ64" s="75"/>
-      <c r="JR64" s="75"/>
-      <c r="JS64" s="75"/>
-      <c r="JT64" s="75"/>
+      <c r="JO64" s="72"/>
+      <c r="JP64" s="72"/>
+      <c r="JQ64" s="72"/>
+      <c r="JR64" s="72"/>
+      <c r="JS64" s="72"/>
+      <c r="JT64" s="72"/>
       <c r="JU64" s="31"/>
       <c r="JX64" s="68" t="s">
         <v>4</v>
@@ -43650,21 +43650,21 @@
       <c r="KE64" s="68"/>
       <c r="KF64" s="52"/>
       <c r="KG64" s="52"/>
-      <c r="KP64" s="69" t="s">
+      <c r="KP64" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="KQ64" s="69"/>
-      <c r="KR64" s="69"/>
+      <c r="KQ64" s="75"/>
+      <c r="KR64" s="75"/>
       <c r="KW64" s="31"/>
       <c r="KX64" s="31"/>
-      <c r="KY64" s="75"/>
-      <c r="KZ64" s="75"/>
-      <c r="LA64" s="75"/>
-      <c r="LB64" s="75"/>
-      <c r="LC64" s="75"/>
-      <c r="LD64" s="75"/>
-      <c r="LE64" s="75"/>
-      <c r="LF64" s="75"/>
+      <c r="KY64" s="72"/>
+      <c r="KZ64" s="72"/>
+      <c r="LA64" s="72"/>
+      <c r="LB64" s="72"/>
+      <c r="LC64" s="72"/>
+      <c r="LD64" s="72"/>
+      <c r="LE64" s="72"/>
+      <c r="LF64" s="72"/>
       <c r="LG64" s="31"/>
     </row>
     <row r="65" spans="1:327" ht="51" customHeight="1">
@@ -44568,14 +44568,14 @@
       <c r="EC67" s="50"/>
       <c r="ES67" s="31"/>
       <c r="ET67" s="31"/>
-      <c r="EU67" s="72"/>
-      <c r="EV67" s="72"/>
-      <c r="EW67" s="72"/>
-      <c r="EX67" s="72"/>
-      <c r="EY67" s="72"/>
-      <c r="EZ67" s="72"/>
-      <c r="FA67" s="72"/>
-      <c r="FB67" s="72"/>
+      <c r="EU67" s="73"/>
+      <c r="EV67" s="73"/>
+      <c r="EW67" s="73"/>
+      <c r="EX67" s="73"/>
+      <c r="EY67" s="73"/>
+      <c r="EZ67" s="73"/>
+      <c r="FA67" s="73"/>
+      <c r="FB67" s="73"/>
       <c r="FC67" s="31"/>
       <c r="GH67" s="70"/>
       <c r="GI67" s="1" t="s">
@@ -44645,14 +44645,14 @@
       <c r="HE67" s="51"/>
       <c r="HU67" s="31"/>
       <c r="HV67" s="31"/>
-      <c r="HW67" s="72"/>
-      <c r="HX67" s="72"/>
-      <c r="HY67" s="72"/>
-      <c r="HZ67" s="72"/>
-      <c r="IA67" s="72"/>
-      <c r="IB67" s="72"/>
-      <c r="IC67" s="72"/>
-      <c r="ID67" s="72"/>
+      <c r="HW67" s="73"/>
+      <c r="HX67" s="73"/>
+      <c r="HY67" s="73"/>
+      <c r="HZ67" s="73"/>
+      <c r="IA67" s="73"/>
+      <c r="IB67" s="73"/>
+      <c r="IC67" s="73"/>
+      <c r="ID67" s="73"/>
       <c r="IE67" s="31"/>
       <c r="JJ67" s="77"/>
       <c r="JK67" s="63"/>
@@ -44722,14 +44722,14 @@
       </c>
       <c r="KW67" s="31"/>
       <c r="KX67" s="31"/>
-      <c r="KY67" s="72"/>
-      <c r="KZ67" s="72"/>
-      <c r="LA67" s="72"/>
-      <c r="LB67" s="72"/>
-      <c r="LC67" s="72"/>
-      <c r="LD67" s="72"/>
-      <c r="LE67" s="72"/>
-      <c r="LF67" s="72"/>
+      <c r="KY67" s="73"/>
+      <c r="KZ67" s="73"/>
+      <c r="LA67" s="73"/>
+      <c r="LB67" s="73"/>
+      <c r="LC67" s="73"/>
+      <c r="LD67" s="73"/>
+      <c r="LE67" s="73"/>
+      <c r="LF67" s="73"/>
       <c r="LG67" s="31"/>
     </row>
     <row r="68" spans="1:327">
@@ -46326,11 +46326,11 @@
       <c r="J72" s="68"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
-      <c r="Z72" s="72" t="s">
+      <c r="Z72" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="AA72" s="72"/>
-      <c r="AB72" s="72"/>
+      <c r="AA72" s="73"/>
+      <c r="AB72" s="73"/>
       <c r="AD72" s="45" t="s">
         <v>34</v>
       </c>
@@ -46545,23 +46545,23 @@
       <c r="JL72" s="55"/>
       <c r="JM72" s="31"/>
       <c r="JN72" s="31"/>
-      <c r="JO72" s="75"/>
-      <c r="JP72" s="75"/>
-      <c r="JQ72" s="75"/>
-      <c r="JR72" s="75"/>
-      <c r="JS72" s="75"/>
-      <c r="JT72" s="75"/>
+      <c r="JO72" s="72"/>
+      <c r="JP72" s="72"/>
+      <c r="JQ72" s="72"/>
+      <c r="JR72" s="72"/>
+      <c r="JS72" s="72"/>
+      <c r="JT72" s="72"/>
       <c r="JU72" s="31"/>
-      <c r="JX72" s="79" t="s">
+      <c r="JX72" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="JY72" s="79"/>
-      <c r="JZ72" s="79"/>
-      <c r="KA72" s="79"/>
-      <c r="KB72" s="79"/>
-      <c r="KC72" s="79"/>
-      <c r="KD72" s="79"/>
-      <c r="KE72" s="79"/>
+      <c r="JY72" s="78"/>
+      <c r="JZ72" s="78"/>
+      <c r="KA72" s="78"/>
+      <c r="KB72" s="78"/>
+      <c r="KC72" s="78"/>
+      <c r="KD72" s="78"/>
+      <c r="KE72" s="78"/>
       <c r="KF72" s="54"/>
       <c r="KG72" s="54"/>
       <c r="KH72" s="26"/>
@@ -46572,11 +46572,11 @@
       <c r="KM72" s="26"/>
       <c r="KN72" s="26"/>
       <c r="KO72" s="26"/>
-      <c r="KP72" s="72" t="s">
+      <c r="KP72" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="KQ72" s="72"/>
-      <c r="KR72" s="72"/>
+      <c r="KQ72" s="73"/>
+      <c r="KR72" s="73"/>
       <c r="KS72" s="26"/>
       <c r="KT72" s="52" t="s">
         <v>145</v>
@@ -48670,16 +48670,16 @@
       <c r="FA80" s="29"/>
       <c r="FB80" s="29"/>
       <c r="FC80" s="31"/>
-      <c r="FD80" s="76" t="s">
+      <c r="FD80" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="FE80" s="76"/>
-      <c r="FF80" s="76"/>
-      <c r="FG80" s="76"/>
-      <c r="FH80" s="76"/>
-      <c r="FI80" s="76"/>
-      <c r="FJ80" s="76"/>
-      <c r="FK80" s="76"/>
+      <c r="FE80" s="69"/>
+      <c r="FF80" s="69"/>
+      <c r="FG80" s="69"/>
+      <c r="FH80" s="69"/>
+      <c r="FI80" s="69"/>
+      <c r="FJ80" s="69"/>
+      <c r="FK80" s="69"/>
       <c r="GH80" s="70"/>
       <c r="GI80" s="1" t="s">
         <v>27</v>
@@ -48791,16 +48791,16 @@
       <c r="IC80" s="29"/>
       <c r="ID80" s="29"/>
       <c r="IE80" s="31"/>
-      <c r="IF80" s="76" t="s">
+      <c r="IF80" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="IG80" s="76"/>
-      <c r="IH80" s="76"/>
-      <c r="II80" s="76"/>
-      <c r="IJ80" s="76"/>
-      <c r="IK80" s="76"/>
-      <c r="IL80" s="76"/>
-      <c r="IM80" s="76"/>
+      <c r="IG80" s="69"/>
+      <c r="IH80" s="69"/>
+      <c r="II80" s="69"/>
+      <c r="IJ80" s="69"/>
+      <c r="IK80" s="69"/>
+      <c r="IL80" s="69"/>
+      <c r="IM80" s="69"/>
       <c r="JJ80" s="77"/>
       <c r="JK80" s="63"/>
       <c r="JL80" s="51"/>
@@ -48887,16 +48887,16 @@
       <c r="LE80" s="29"/>
       <c r="LF80" s="29"/>
       <c r="LG80" s="31"/>
-      <c r="LH80" s="76" t="s">
+      <c r="LH80" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="LI80" s="76"/>
-      <c r="LJ80" s="76"/>
-      <c r="LK80" s="76"/>
-      <c r="LL80" s="76"/>
-      <c r="LM80" s="76"/>
-      <c r="LN80" s="76"/>
-      <c r="LO80" s="76"/>
+      <c r="LI80" s="69"/>
+      <c r="LJ80" s="69"/>
+      <c r="LK80" s="69"/>
+      <c r="LL80" s="69"/>
+      <c r="LM80" s="69"/>
+      <c r="LN80" s="69"/>
+      <c r="LO80" s="69"/>
     </row>
     <row r="81" spans="1:327">
       <c r="A81" s="70"/>
@@ -49865,16 +49865,16 @@
       <c r="LE82" s="31"/>
       <c r="LF82" s="31"/>
       <c r="LG82" s="31"/>
-      <c r="LH82" s="76" t="s">
+      <c r="LH82" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="LI82" s="76"/>
-      <c r="LJ82" s="76"/>
-      <c r="LK82" s="76"/>
-      <c r="LL82" s="76"/>
-      <c r="LM82" s="76"/>
-      <c r="LN82" s="76"/>
-      <c r="LO82" s="76"/>
+      <c r="LI82" s="69"/>
+      <c r="LJ82" s="69"/>
+      <c r="LK82" s="69"/>
+      <c r="LL82" s="69"/>
+      <c r="LM82" s="69"/>
+      <c r="LN82" s="69"/>
+      <c r="LO82" s="69"/>
     </row>
     <row r="83" spans="1:327">
       <c r="A83" s="70"/>
@@ -51281,14 +51281,14 @@
       <c r="LG85" s="31"/>
     </row>
     <row r="86" spans="1:327" ht="20">
-      <c r="L86" s="76" t="s">
+      <c r="L86" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="M86" s="76"/>
-      <c r="N86" s="76"/>
-      <c r="O86" s="76"/>
-      <c r="P86" s="76"/>
-      <c r="Q86" s="76"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
       <c r="Z86" s="45" t="s">
         <v>11</v>
       </c>
@@ -51394,30 +51394,30 @@
       <c r="EB86" s="8"/>
       <c r="EC86" s="8"/>
       <c r="ED86" s="8"/>
-      <c r="EE86" s="76" t="s">
+      <c r="EE86" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="EF86" s="76"/>
-      <c r="EG86" s="76"/>
-      <c r="EH86" s="76"/>
-      <c r="EI86" s="76"/>
-      <c r="EJ86" s="76"/>
+      <c r="EF86" s="69"/>
+      <c r="EG86" s="69"/>
+      <c r="EH86" s="69"/>
+      <c r="EI86" s="69"/>
+      <c r="EJ86" s="69"/>
       <c r="EM86" s="45" t="s">
         <v>116</v>
       </c>
       <c r="EO86" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="ER86" s="76" t="s">
+      <c r="ER86" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="ES86" s="76"/>
-      <c r="ET86" s="76"/>
-      <c r="EU86" s="76"/>
-      <c r="EV86" s="76"/>
-      <c r="EW86" s="76"/>
-      <c r="EX86" s="76"/>
-      <c r="EY86" s="76"/>
+      <c r="ES86" s="69"/>
+      <c r="ET86" s="69"/>
+      <c r="EU86" s="69"/>
+      <c r="EV86" s="69"/>
+      <c r="EW86" s="69"/>
+      <c r="EX86" s="69"/>
+      <c r="EY86" s="69"/>
       <c r="FO86" s="57"/>
       <c r="FP86" s="8"/>
       <c r="FQ86" s="8"/>
@@ -51462,30 +51462,30 @@
       <c r="HD86" s="8"/>
       <c r="HE86" s="8"/>
       <c r="HF86" s="8"/>
-      <c r="HG86" s="76" t="s">
+      <c r="HG86" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="HH86" s="76"/>
-      <c r="HI86" s="76"/>
-      <c r="HJ86" s="76"/>
-      <c r="HK86" s="76"/>
-      <c r="HL86" s="76"/>
+      <c r="HH86" s="69"/>
+      <c r="HI86" s="69"/>
+      <c r="HJ86" s="69"/>
+      <c r="HK86" s="69"/>
+      <c r="HL86" s="69"/>
       <c r="HO86" s="52" t="s">
         <v>127</v>
       </c>
       <c r="HQ86" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="HT86" s="76" t="s">
+      <c r="HT86" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="HU86" s="76"/>
-      <c r="HV86" s="76"/>
-      <c r="HW86" s="76"/>
-      <c r="HX86" s="76"/>
-      <c r="HY86" s="76"/>
-      <c r="HZ86" s="76"/>
-      <c r="IA86" s="76"/>
+      <c r="HU86" s="69"/>
+      <c r="HV86" s="69"/>
+      <c r="HW86" s="69"/>
+      <c r="HX86" s="69"/>
+      <c r="HY86" s="69"/>
+      <c r="HZ86" s="69"/>
+      <c r="IA86" s="69"/>
       <c r="IQ86" s="57"/>
       <c r="IR86" s="8"/>
       <c r="IS86" s="8"/>
@@ -51510,14 +51510,14 @@
       <c r="JL86" s="55"/>
       <c r="JM86" s="31"/>
       <c r="JN86" s="31"/>
-      <c r="JO86" s="75"/>
-      <c r="JP86" s="75"/>
-      <c r="JQ86" s="75"/>
-      <c r="JR86" s="75"/>
-      <c r="JS86" s="75"/>
-      <c r="JT86" s="75"/>
-      <c r="JU86" s="75"/>
-      <c r="JV86" s="75"/>
+      <c r="JO86" s="72"/>
+      <c r="JP86" s="72"/>
+      <c r="JQ86" s="72"/>
+      <c r="JR86" s="72"/>
+      <c r="JS86" s="72"/>
+      <c r="JT86" s="72"/>
+      <c r="JU86" s="72"/>
+      <c r="JV86" s="72"/>
       <c r="JW86" s="29"/>
       <c r="JX86" s="29"/>
       <c r="JY86" s="8"/>
@@ -51530,30 +51530,30 @@
       <c r="KF86" s="8"/>
       <c r="KG86" s="8"/>
       <c r="KH86" s="8"/>
-      <c r="KI86" s="76" t="s">
+      <c r="KI86" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="KJ86" s="76"/>
-      <c r="KK86" s="76"/>
-      <c r="KL86" s="76"/>
-      <c r="KM86" s="76"/>
-      <c r="KN86" s="76"/>
+      <c r="KJ86" s="69"/>
+      <c r="KK86" s="69"/>
+      <c r="KL86" s="69"/>
+      <c r="KM86" s="69"/>
+      <c r="KN86" s="69"/>
       <c r="KQ86" s="52" t="s">
         <v>98</v>
       </c>
       <c r="KS86" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="KV86" s="76" t="s">
+      <c r="KV86" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="KW86" s="76"/>
-      <c r="KX86" s="76"/>
-      <c r="KY86" s="76"/>
-      <c r="KZ86" s="76"/>
-      <c r="LA86" s="76"/>
-      <c r="LB86" s="76"/>
-      <c r="LC86" s="76"/>
+      <c r="KW86" s="69"/>
+      <c r="KX86" s="69"/>
+      <c r="KY86" s="69"/>
+      <c r="KZ86" s="69"/>
+      <c r="LA86" s="69"/>
+      <c r="LB86" s="69"/>
+      <c r="LC86" s="69"/>
     </row>
     <row r="87" spans="1:327" ht="16" customHeight="1">
       <c r="J87" s="70" t="s">
@@ -51923,22 +51923,22 @@
       </c>
     </row>
     <row r="90" spans="1:327" ht="20">
-      <c r="L90" s="76" t="s">
+      <c r="L90" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="M90" s="76"/>
-      <c r="N90" s="76"/>
-      <c r="O90" s="76"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="76"/>
-      <c r="EE90" s="76" t="s">
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
+      <c r="Q90" s="69"/>
+      <c r="EE90" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="EF90" s="76"/>
-      <c r="EG90" s="76"/>
-      <c r="EH90" s="76"/>
-      <c r="EI90" s="76"/>
-      <c r="EJ90" s="76"/>
+      <c r="EF90" s="69"/>
+      <c r="EG90" s="69"/>
+      <c r="EH90" s="69"/>
+      <c r="EI90" s="69"/>
+      <c r="EJ90" s="69"/>
       <c r="EM90" s="53" t="s">
         <v>137</v>
       </c>
@@ -51947,25 +51947,25 @@
       <c r="EP90" s="53"/>
       <c r="EQ90" s="53"/>
       <c r="ER90" s="53"/>
-      <c r="HG90" s="76" t="s">
+      <c r="HG90" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="HH90" s="76"/>
-      <c r="HI90" s="76"/>
-      <c r="HJ90" s="76"/>
-      <c r="HK90" s="76"/>
-      <c r="HL90" s="76"/>
+      <c r="HH90" s="69"/>
+      <c r="HI90" s="69"/>
+      <c r="HJ90" s="69"/>
+      <c r="HK90" s="69"/>
+      <c r="HL90" s="69"/>
       <c r="HO90" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="KI90" s="76" t="s">
+      <c r="KI90" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="KJ90" s="76"/>
-      <c r="KK90" s="76"/>
-      <c r="KL90" s="76"/>
-      <c r="KM90" s="76"/>
-      <c r="KN90" s="76"/>
+      <c r="KJ90" s="69"/>
+      <c r="KK90" s="69"/>
+      <c r="KL90" s="69"/>
+      <c r="KM90" s="69"/>
+      <c r="KN90" s="69"/>
     </row>
     <row r="93" spans="1:327" ht="47">
       <c r="A93" s="27" t="s">
@@ -53181,17 +53181,17 @@
       </c>
       <c r="D115" s="68"/>
       <c r="E115" s="68"/>
-      <c r="G115" s="76" t="s">
+      <c r="G115" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
       <c r="J115" s="17"/>
-      <c r="K115" s="76" t="s">
+      <c r="K115" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="L115" s="76"/>
-      <c r="M115" s="76"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="69"/>
       <c r="N115" s="17"/>
       <c r="O115" s="17" t="s">
         <v>41</v>
@@ -53206,17 +53206,17 @@
       </c>
       <c r="JZ115" s="68"/>
       <c r="KA115" s="68"/>
-      <c r="KC115" s="76" t="s">
+      <c r="KC115" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="KD115" s="76"/>
-      <c r="KE115" s="76"/>
+      <c r="KD115" s="69"/>
+      <c r="KE115" s="69"/>
       <c r="KF115" s="17"/>
-      <c r="KG115" s="76" t="s">
+      <c r="KG115" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="KH115" s="76"/>
-      <c r="KI115" s="76"/>
+      <c r="KH115" s="69"/>
+      <c r="KI115" s="69"/>
       <c r="KJ115" s="17"/>
       <c r="KK115" s="17" t="s">
         <v>150</v>
@@ -53495,114 +53495,47 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="JW95:KE95"/>
-    <mergeCell ref="JW97:JW104"/>
-    <mergeCell ref="JW107:KE107"/>
-    <mergeCell ref="JW109:JW114"/>
-    <mergeCell ref="JY115:KA115"/>
-    <mergeCell ref="KC115:KE115"/>
-    <mergeCell ref="KG115:KI115"/>
-    <mergeCell ref="JW120:JW125"/>
-    <mergeCell ref="JJ78:JJ85"/>
-    <mergeCell ref="KG78:KG85"/>
-    <mergeCell ref="LF78:LF79"/>
-    <mergeCell ref="LH80:LO80"/>
-    <mergeCell ref="JO86:JV86"/>
-    <mergeCell ref="KI86:KN86"/>
-    <mergeCell ref="KV86:LC86"/>
-    <mergeCell ref="KG87:KG89"/>
-    <mergeCell ref="KI90:KN90"/>
-    <mergeCell ref="LH82:LO82"/>
-    <mergeCell ref="KY64:LF64"/>
-    <mergeCell ref="KP64:KR64"/>
-    <mergeCell ref="JJ66:JJ71"/>
-    <mergeCell ref="KY67:LF67"/>
-    <mergeCell ref="JO72:JT72"/>
-    <mergeCell ref="JX72:KE72"/>
-    <mergeCell ref="JO76:JV76"/>
-    <mergeCell ref="KI76:KN76"/>
-    <mergeCell ref="KV76:LC76"/>
-    <mergeCell ref="LH76:LO76"/>
-    <mergeCell ref="JV66:JV71"/>
-    <mergeCell ref="KP72:KR72"/>
-    <mergeCell ref="JL40:JM40"/>
-    <mergeCell ref="KI40:KN40"/>
-    <mergeCell ref="IU42:IU49"/>
-    <mergeCell ref="JJ42:JJ49"/>
-    <mergeCell ref="IW50:IX50"/>
-    <mergeCell ref="IZ50:JE50"/>
-    <mergeCell ref="KI50:KN50"/>
-    <mergeCell ref="JO64:JT64"/>
-    <mergeCell ref="JX64:KE64"/>
-    <mergeCell ref="KG42:KG49"/>
-    <mergeCell ref="KG51:KG53"/>
-    <mergeCell ref="KI54:KN54"/>
-    <mergeCell ref="KI56:KN56"/>
-    <mergeCell ref="ID78:ID79"/>
-    <mergeCell ref="IF80:IM80"/>
-    <mergeCell ref="GM86:GT86"/>
-    <mergeCell ref="HG86:HL86"/>
-    <mergeCell ref="HT86:IA86"/>
-    <mergeCell ref="HE87:HE89"/>
-    <mergeCell ref="HG90:HL90"/>
-    <mergeCell ref="IW40:IX40"/>
-    <mergeCell ref="IZ40:JE40"/>
-    <mergeCell ref="GJ40:GO40"/>
-    <mergeCell ref="GJ50:GO50"/>
-    <mergeCell ref="HW64:ID64"/>
-    <mergeCell ref="GM76:GT76"/>
-    <mergeCell ref="HG76:HL76"/>
-    <mergeCell ref="HT76:IA76"/>
-    <mergeCell ref="IF76:IM76"/>
-    <mergeCell ref="CV40:DA40"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="FU40:FV40"/>
-    <mergeCell ref="FX40:GC40"/>
-    <mergeCell ref="HG40:HL40"/>
-    <mergeCell ref="FS42:FS49"/>
-    <mergeCell ref="FU50:FV50"/>
-    <mergeCell ref="FX50:GC50"/>
-    <mergeCell ref="HG50:HL50"/>
-    <mergeCell ref="DH40:DM40"/>
-    <mergeCell ref="DH50:DM50"/>
-    <mergeCell ref="DK72:DP72"/>
-    <mergeCell ref="DT72:EA72"/>
-    <mergeCell ref="GM64:GR64"/>
-    <mergeCell ref="GV64:HC64"/>
-    <mergeCell ref="EE50:EJ50"/>
-    <mergeCell ref="AS58:AZ58"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="GH66:GH71"/>
-    <mergeCell ref="HW67:ID67"/>
-    <mergeCell ref="GM72:GR72"/>
-    <mergeCell ref="GV72:HC72"/>
-    <mergeCell ref="CQ42:CQ49"/>
-    <mergeCell ref="DF42:DF49"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AH62:AI62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AS62:AZ62"/>
-    <mergeCell ref="DT64:EA64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AH64:AM64"/>
-    <mergeCell ref="AS64:AZ64"/>
-    <mergeCell ref="BD64:BK64"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AS50:AX50"/>
-    <mergeCell ref="BD50:BI50"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="BS50:BX50"/>
-    <mergeCell ref="BZ50:CG50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="GH78:GH85"/>
+    <mergeCell ref="HE78:HE85"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:M115"/>
+    <mergeCell ref="ER86:EY86"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="EC87:EC89"/>
+    <mergeCell ref="L90:Q90"/>
+    <mergeCell ref="EE90:EJ90"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="L86:Q86"/>
+    <mergeCell ref="AH86:AO86"/>
+    <mergeCell ref="AS86:AZ86"/>
+    <mergeCell ref="BD86:BK86"/>
+    <mergeCell ref="DK86:DR86"/>
+    <mergeCell ref="EE86:EJ86"/>
+    <mergeCell ref="BS86:BX86"/>
+    <mergeCell ref="BS72:BX72"/>
+    <mergeCell ref="EE76:EJ76"/>
+    <mergeCell ref="ER76:EY76"/>
+    <mergeCell ref="FD76:FK76"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="DF78:DF85"/>
+    <mergeCell ref="EC78:EC85"/>
+    <mergeCell ref="FB78:FB79"/>
+    <mergeCell ref="FD80:FK80"/>
+    <mergeCell ref="AH76:AO76"/>
+    <mergeCell ref="AS76:AZ76"/>
+    <mergeCell ref="BD76:BK76"/>
+    <mergeCell ref="DK76:DR76"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AS72:AZ72"/>
+    <mergeCell ref="BD72:BK72"/>
+    <mergeCell ref="BS76:BX76"/>
     <mergeCell ref="EU64:FB64"/>
     <mergeCell ref="A66:A71"/>
     <mergeCell ref="DF66:DF71"/>
@@ -53627,47 +53560,114 @@
     <mergeCell ref="CS40:CT40"/>
     <mergeCell ref="EE40:EJ40"/>
     <mergeCell ref="C64:J64"/>
-    <mergeCell ref="BS72:BX72"/>
-    <mergeCell ref="EE76:EJ76"/>
-    <mergeCell ref="ER76:EY76"/>
-    <mergeCell ref="FD76:FK76"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="DF78:DF85"/>
-    <mergeCell ref="EC78:EC85"/>
-    <mergeCell ref="FB78:FB79"/>
-    <mergeCell ref="FD80:FK80"/>
-    <mergeCell ref="AH76:AO76"/>
-    <mergeCell ref="AS76:AZ76"/>
-    <mergeCell ref="BD76:BK76"/>
-    <mergeCell ref="DK76:DR76"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AS72:AZ72"/>
-    <mergeCell ref="BD72:BK72"/>
-    <mergeCell ref="BS76:BX76"/>
-    <mergeCell ref="GH78:GH85"/>
-    <mergeCell ref="HE78:HE85"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:M115"/>
-    <mergeCell ref="ER86:EY86"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="EC87:EC89"/>
-    <mergeCell ref="L90:Q90"/>
-    <mergeCell ref="EE90:EJ90"/>
-    <mergeCell ref="A95:I95"/>
-    <mergeCell ref="L86:Q86"/>
-    <mergeCell ref="AH86:AO86"/>
-    <mergeCell ref="AS86:AZ86"/>
-    <mergeCell ref="BD86:BK86"/>
-    <mergeCell ref="DK86:DR86"/>
-    <mergeCell ref="EE86:EJ86"/>
-    <mergeCell ref="BS86:BX86"/>
+    <mergeCell ref="AS64:AZ64"/>
+    <mergeCell ref="BD64:BK64"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AS50:AX50"/>
+    <mergeCell ref="BD50:BI50"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="BS50:BX50"/>
+    <mergeCell ref="BZ50:CG50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="DK72:DP72"/>
+    <mergeCell ref="DT72:EA72"/>
+    <mergeCell ref="GM64:GR64"/>
+    <mergeCell ref="GV64:HC64"/>
+    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="AS58:AZ58"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="GH66:GH71"/>
+    <mergeCell ref="GM72:GR72"/>
+    <mergeCell ref="GV72:HC72"/>
+    <mergeCell ref="CQ42:CQ49"/>
+    <mergeCell ref="DF42:DF49"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AH62:AI62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AS62:AZ62"/>
+    <mergeCell ref="DT64:EA64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AH64:AM64"/>
+    <mergeCell ref="CV40:DA40"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="FU40:FV40"/>
+    <mergeCell ref="FX40:GC40"/>
+    <mergeCell ref="HG40:HL40"/>
+    <mergeCell ref="FS42:FS49"/>
+    <mergeCell ref="FU50:FV50"/>
+    <mergeCell ref="FX50:GC50"/>
+    <mergeCell ref="HG50:HL50"/>
+    <mergeCell ref="DH40:DM40"/>
+    <mergeCell ref="DH50:DM50"/>
+    <mergeCell ref="ID78:ID79"/>
+    <mergeCell ref="IF80:IM80"/>
+    <mergeCell ref="GM86:GT86"/>
+    <mergeCell ref="HG86:HL86"/>
+    <mergeCell ref="HT86:IA86"/>
+    <mergeCell ref="HE87:HE89"/>
+    <mergeCell ref="HG90:HL90"/>
+    <mergeCell ref="IW40:IX40"/>
+    <mergeCell ref="IZ40:JE40"/>
+    <mergeCell ref="GJ40:GO40"/>
+    <mergeCell ref="GJ50:GO50"/>
+    <mergeCell ref="HW64:ID64"/>
+    <mergeCell ref="GM76:GT76"/>
+    <mergeCell ref="HG76:HL76"/>
+    <mergeCell ref="HT76:IA76"/>
+    <mergeCell ref="IF76:IM76"/>
+    <mergeCell ref="HW67:ID67"/>
+    <mergeCell ref="JL40:JM40"/>
+    <mergeCell ref="KI40:KN40"/>
+    <mergeCell ref="IU42:IU49"/>
+    <mergeCell ref="JJ42:JJ49"/>
+    <mergeCell ref="IW50:IX50"/>
+    <mergeCell ref="IZ50:JE50"/>
+    <mergeCell ref="KI50:KN50"/>
+    <mergeCell ref="JO64:JT64"/>
+    <mergeCell ref="JX64:KE64"/>
+    <mergeCell ref="KG42:KG49"/>
+    <mergeCell ref="KG51:KG53"/>
+    <mergeCell ref="KI54:KN54"/>
+    <mergeCell ref="KI56:KN56"/>
+    <mergeCell ref="JJ66:JJ71"/>
+    <mergeCell ref="KY67:LF67"/>
+    <mergeCell ref="JO72:JT72"/>
+    <mergeCell ref="JX72:KE72"/>
+    <mergeCell ref="JO76:JV76"/>
+    <mergeCell ref="KI76:KN76"/>
+    <mergeCell ref="KV76:LC76"/>
+    <mergeCell ref="LH76:LO76"/>
+    <mergeCell ref="JV66:JV71"/>
+    <mergeCell ref="KP72:KR72"/>
+    <mergeCell ref="LF78:LF79"/>
+    <mergeCell ref="LH80:LO80"/>
+    <mergeCell ref="JO86:JV86"/>
+    <mergeCell ref="KI86:KN86"/>
+    <mergeCell ref="KV86:LC86"/>
+    <mergeCell ref="KG87:KG89"/>
+    <mergeCell ref="KI90:KN90"/>
+    <mergeCell ref="LH82:LO82"/>
+    <mergeCell ref="KY64:LF64"/>
+    <mergeCell ref="KP64:KR64"/>
+    <mergeCell ref="JW95:KE95"/>
+    <mergeCell ref="JW97:JW104"/>
+    <mergeCell ref="JW107:KE107"/>
+    <mergeCell ref="JW109:JW114"/>
+    <mergeCell ref="JY115:KA115"/>
+    <mergeCell ref="KC115:KE115"/>
+    <mergeCell ref="KG115:KI115"/>
+    <mergeCell ref="JW120:JW125"/>
+    <mergeCell ref="JJ78:JJ85"/>
+    <mergeCell ref="KG78:KG85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386DAC91-4A8A-C349-A07F-63D9231C127A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8A3E8-598D-834E-BAC9-A087FDB82C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="440" windowWidth="26200" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30459,7 +30459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338BDA73-949D-6141-997A-6445BD9150B1}">
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
@@ -37633,12 +37633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842438A8-D71C-B444-A99F-665ABEA366D5}">
   <dimension ref="A1:LO129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A40" sqref="A40"/>
-      <selection pane="topRight" activeCell="C40" sqref="C40"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B8A3E8-598D-834E-BAC9-A087FDB82C51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233B7BC-7BFF-9344-B83F-C45E11F3D6BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="440" windowWidth="26200" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="6640" windowWidth="26200" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Perfect substitution" sheetId="9" r:id="rId3"/>
     <sheet name="PerfectSubstitutionRaw" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -6859,7 +6859,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6868,28 +6868,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30459,7 +30459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338BDA73-949D-6141-997A-6445BD9150B1}">
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
@@ -30640,11 +30640,11 @@
     </row>
     <row r="26" spans="1:93">
       <c r="B26" s="10"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -30913,11 +30913,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18">
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -33051,14 +33051,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20">
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
     </row>
     <row r="55" spans="1:93">
       <c r="L55" s="6">
@@ -33098,11 +33098,11 @@
     </row>
     <row r="60" spans="1:93">
       <c r="B60" s="1"/>
-      <c r="Z60" s="70" t="s">
+      <c r="Z60" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
       <c r="AI60" s="69" t="s">
         <v>3</v>
       </c>
@@ -34238,11 +34238,11 @@
       <c r="J68" s="69"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="73" t="s">
+      <c r="Z68" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="73"/>
-      <c r="AB68" s="73"/>
+      <c r="AA68" s="74"/>
+      <c r="AB68" s="74"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -34448,17 +34448,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="70" t="s">
+      <c r="Z73" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="70"/>
-      <c r="AI73" s="74" t="s">
+      <c r="AA73" s="76"/>
+      <c r="AI73" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="74"/>
+      <c r="AJ73" s="77"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="74"/>
-      <c r="AM73" s="74"/>
+      <c r="AL73" s="77"/>
+      <c r="AM73" s="77"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -34782,29 +34782,29 @@
       <c r="AC77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="76" t="s">
+      <c r="AI77" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="76"/>
+      <c r="AJ77" s="73"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="76"/>
-      <c r="AM77" s="76"/>
+      <c r="AL77" s="73"/>
+      <c r="AM77" s="73"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="76" t="s">
+      <c r="AT77" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="76"/>
-      <c r="AV77" s="76"/>
-      <c r="AW77" s="76"/>
-      <c r="AX77" s="76"/>
-      <c r="AY77" s="76"/>
-      <c r="AZ77" s="76"/>
-      <c r="BA77" s="76"/>
+      <c r="AU77" s="73"/>
+      <c r="AV77" s="73"/>
+      <c r="AW77" s="73"/>
+      <c r="AX77" s="73"/>
+      <c r="AY77" s="73"/>
+      <c r="AZ77" s="73"/>
+      <c r="BA77" s="73"/>
     </row>
     <row r="78" spans="1:78">
       <c r="B78" s="1"/>
@@ -34904,16 +34904,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1">
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
       <c r="AI81" s="69" t="s">
         <v>4</v>
       </c>
@@ -36329,14 +36329,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19">
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -36489,14 +36489,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20">
-      <c r="L95" s="77" t="s">
+      <c r="L95" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
     </row>
     <row r="98" spans="1:40" ht="47">
       <c r="A98" s="27" t="s">
@@ -37117,16 +37117,16 @@
       </c>
       <c r="D120" s="69"/>
       <c r="E120" s="69"/>
-      <c r="G120" s="77" t="s">
+      <c r="G120" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="K120" s="77" t="s">
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="K120" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -37550,65 +37550,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -37621,6 +37562,65 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -37633,8 +37633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842438A8-D71C-B444-A99F-665ABEA366D5}">
   <dimension ref="A1:LO129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37772,7 +37772,7 @@
     </row>
     <row r="5" spans="6:276">
       <c r="F5" s="64">
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="K5" s="31">
         <f>J2+N5</f>
@@ -37783,7 +37783,7 @@
       </c>
       <c r="CS5">
         <f ca="1">FD81</f>
-        <v>22.399999999999995</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="CX5">
         <f ca="1">DV61</f>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="FU5">
         <f ca="1">IF81</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="FZ5">
         <f ca="1">GX61</f>
@@ -37807,7 +37807,7 @@
       </c>
       <c r="IW5">
         <f ca="1">LH81</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="JB5">
         <f ca="1">JZ61</f>
@@ -37839,19 +37839,19 @@
     <row r="7" spans="6:276">
       <c r="I7" s="24">
         <f>-L90</f>
-        <v>3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="CV7" s="24">
         <f ca="1">-EE90</f>
-        <v>3</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="FX7" s="24">
         <f ca="1">-HG90</f>
-        <v>1.538659793814432</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="IZ7" s="24">
         <f ca="1">-KI90</f>
-        <v>1.5386597938144337</v>
+        <v>39.800000000000011</v>
       </c>
     </row>
     <row r="9" spans="6:276">
@@ -38175,22 +38175,22 @@
       <c r="W21" s="21"/>
       <c r="AA21" s="22">
         <f>I7+J13+P13+U6+V12+W18</f>
-        <v>109.4</v>
+        <v>184</v>
       </c>
       <c r="DJ21" s="21"/>
       <c r="DN21" s="22">
         <f ca="1">-EM90</f>
-        <v>23.185836073559859</v>
+        <v>97.785836073559835</v>
       </c>
       <c r="GL21" s="21"/>
       <c r="GP21" s="22">
         <f ca="1">-HO90</f>
-        <v>27.126797657655619</v>
+        <v>65.388137863841195</v>
       </c>
       <c r="JN21" s="21"/>
       <c r="JR21" s="22">
         <f ca="1">IZ7+JA13+JG13+JL6+JM12+JN18</f>
-        <v>113.34096158409577</v>
+        <v>151.60230179028133</v>
       </c>
     </row>
     <row r="22" spans="1:278">
@@ -38236,11 +38236,11 @@
     </row>
     <row r="26" spans="1:278">
       <c r="B26" s="10"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="CQ26" t="s">
@@ -38499,11 +38499,11 @@
       <c r="CJ35" s="31"/>
     </row>
     <row r="36" spans="1:302" ht="18">
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="BL36" s="31"/>
@@ -38558,31 +38558,31 @@
       <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:302">
-      <c r="BL38" s="76"/>
-      <c r="BM38" s="76"/>
-      <c r="BN38" s="76"/>
-      <c r="BO38" s="76"/>
-      <c r="BP38" s="76"/>
-      <c r="BQ38" s="76"/>
-      <c r="BR38" s="76"/>
-      <c r="BS38" s="76"/>
-      <c r="BT38" s="76"/>
-      <c r="BU38" s="76"/>
-      <c r="BV38" s="76"/>
-      <c r="BW38" s="76"/>
-      <c r="BX38" s="76"/>
-      <c r="BY38" s="76"/>
-      <c r="BZ38" s="76"/>
-      <c r="CA38" s="76"/>
-      <c r="CB38" s="76"/>
-      <c r="CC38" s="76"/>
-      <c r="CD38" s="76"/>
-      <c r="CE38" s="76"/>
-      <c r="CF38" s="76"/>
-      <c r="CG38" s="76"/>
-      <c r="CH38" s="76"/>
-      <c r="CI38" s="76"/>
-      <c r="CJ38" s="76"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+      <c r="BN38" s="73"/>
+      <c r="BO38" s="73"/>
+      <c r="BP38" s="73"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="73"/>
+      <c r="BS38" s="73"/>
+      <c r="BT38" s="73"/>
+      <c r="BU38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="BW38" s="73"/>
+      <c r="BX38" s="73"/>
+      <c r="BY38" s="73"/>
+      <c r="BZ38" s="73"/>
+      <c r="CA38" s="73"/>
+      <c r="CB38" s="73"/>
+      <c r="CC38" s="73"/>
+      <c r="CD38" s="73"/>
+      <c r="CE38" s="73"/>
+      <c r="CF38" s="73"/>
+      <c r="CG38" s="73"/>
+      <c r="CH38" s="73"/>
+      <c r="CI38" s="73"/>
+      <c r="CJ38" s="73"/>
     </row>
     <row r="40" spans="1:302">
       <c r="C40" s="69" t="s">
@@ -38728,8 +38728,8 @@
       <c r="JC40" s="69"/>
       <c r="JD40" s="69"/>
       <c r="JE40" s="69"/>
-      <c r="JL40" s="76"/>
-      <c r="JM40" s="76"/>
+      <c r="JL40" s="73"/>
+      <c r="JM40" s="73"/>
       <c r="KI40" s="69" t="s">
         <v>3</v>
       </c>
@@ -39069,7 +39069,7 @@
       </c>
       <c r="L42" s="3">
         <f>F5</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -39104,11 +39104,11 @@
       </c>
       <c r="AB42" s="6">
         <f t="shared" ref="AB42:AB49" si="1">SUM(L42:Q42) + Z42</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="AH42" s="6">
         <f ca="1">IF((ROW()-ROW($AH$42))=(COLUMN()-COLUMN($AH$42)),INDIRECT(ADDRESS(ROW($AB42),COLUMN($AB42))),0)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="AI42" s="6">
         <f t="shared" ref="AI42:AO49" ca="1" si="2">IF((ROW()-ROW($AH$42))=(COLUMN()-COLUMN($AH$42)),INDIRECT(ADDRESS(ROW($AB42),COLUMN($AB42))),0)</f>
@@ -39140,7 +39140,7 @@
       </c>
       <c r="AS42" s="6">
         <f t="array" aca="1" ref="AS42:AX49" ca="1">MMULT(L42:Q49, MINVERSE(AH61:AM66))</f>
-        <v>1</v>
+        <v>4.3303571428571432</v>
       </c>
       <c r="AT42" s="6">
         <f ca="1"/>
@@ -39188,7 +39188,7 @@
       </c>
       <c r="BS42" s="6">
         <f t="array" aca="1" ref="BS42:BX49" ca="1">MMULT(L42:Q49,MINVERSE(BS61:BX66))</f>
-        <v>0.88188976377952744</v>
+        <v>0.97</v>
       </c>
       <c r="BT42" s="6">
         <f ca="1"/>
@@ -39288,7 +39288,7 @@
         <f t="array" aca="1" ref="DC42:DC49" ca="1">MMULT(CV42:DA49, TRANSPOSE($L$55:$Q$55))</f>
         <v>0</v>
       </c>
-      <c r="DF42" s="79"/>
+      <c r="DF42" s="78"/>
       <c r="DH42" s="65">
         <f t="array" aca="1" ref="DH42:DM49" ca="1">MMULT(CV42:DA49, $BS$61:$BX$66)</f>
         <v>0</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="EE42" s="6">
         <f t="array" aca="1" ref="EE42:EJ49" ca="1">MMULT($AS$42:$AX$49,DK61:DP66)+DH42:DM49</f>
-        <v>22.399999999999995</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="EF42" s="6">
         <f ca="1"/>
@@ -39401,7 +39401,7 @@
       </c>
       <c r="HG42" s="6">
         <f t="array" aca="1" ref="HG42:HL49" ca="1">MMULT($AS$42:$AX$49, GM61:GR66) + GJ42:GO49</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="HH42" s="6">
         <f ca="1"/>
@@ -39438,7 +39438,7 @@
       <c r="JG42" s="51"/>
       <c r="JH42" s="31"/>
       <c r="JI42" s="31"/>
-      <c r="JJ42" s="79"/>
+      <c r="JJ42" s="78"/>
       <c r="JK42" s="63"/>
       <c r="JL42" s="51"/>
       <c r="JM42" s="51"/>
@@ -39450,7 +39450,7 @@
       </c>
       <c r="KI42" s="6">
         <f t="array" aca="1" ref="KI42:KN49" ca="1">L42:Q49 - EE42:EJ49 + HG42:HL49</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="KJ42" s="6">
         <f ca="1"/>
@@ -39698,7 +39698,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DF43" s="79"/>
+      <c r="DF43" s="78"/>
       <c r="DH43" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -39844,7 +39844,7 @@
       <c r="JG43" s="51"/>
       <c r="JH43" s="31"/>
       <c r="JI43" s="31"/>
-      <c r="JJ43" s="79"/>
+      <c r="JJ43" s="78"/>
       <c r="JK43" s="63"/>
       <c r="JL43" s="51"/>
       <c r="JM43" s="51"/>
@@ -40006,7 +40006,7 @@
       </c>
       <c r="BS44" s="6">
         <f ca="1"/>
-        <v>0.11811023622047244</v>
+        <v>0.03</v>
       </c>
       <c r="BT44" s="6">
         <f ca="1"/>
@@ -40103,7 +40103,7 @@
         <f ca="1"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="DF44" s="79"/>
+      <c r="DF44" s="78"/>
       <c r="DH44" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -40248,7 +40248,7 @@
       <c r="JG44" s="51"/>
       <c r="JH44" s="31"/>
       <c r="JI44" s="31"/>
-      <c r="JJ44" s="79"/>
+      <c r="JJ44" s="78"/>
       <c r="JK44" s="63"/>
       <c r="JL44" s="51"/>
       <c r="JM44" s="51"/>
@@ -40508,7 +40508,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DF45" s="79"/>
+      <c r="DF45" s="78"/>
       <c r="DH45" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -40654,7 +40654,7 @@
       <c r="JG45" s="51"/>
       <c r="JH45" s="31"/>
       <c r="JI45" s="31"/>
-      <c r="JJ45" s="79"/>
+      <c r="JJ45" s="78"/>
       <c r="JK45" s="63"/>
       <c r="JL45" s="51"/>
       <c r="JM45" s="51"/>
@@ -40913,7 +40913,7 @@
         <f ca="1"/>
         <v>0.5</v>
       </c>
-      <c r="DF46" s="79"/>
+      <c r="DF46" s="78"/>
       <c r="DH46" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -41058,7 +41058,7 @@
       <c r="JG46" s="51"/>
       <c r="JH46" s="31"/>
       <c r="JI46" s="31"/>
-      <c r="JJ46" s="79"/>
+      <c r="JJ46" s="78"/>
       <c r="JK46" s="63"/>
       <c r="JL46" s="51"/>
       <c r="JM46" s="51"/>
@@ -41316,7 +41316,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DF47" s="79"/>
+      <c r="DF47" s="78"/>
       <c r="DH47" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -41462,7 +41462,7 @@
       <c r="JG47" s="51"/>
       <c r="JH47" s="31"/>
       <c r="JI47" s="31"/>
-      <c r="JJ47" s="79"/>
+      <c r="JJ47" s="78"/>
       <c r="JK47" s="63"/>
       <c r="JL47" s="51"/>
       <c r="JM47" s="51"/>
@@ -41720,7 +41720,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DF48" s="79"/>
+      <c r="DF48" s="78"/>
       <c r="DH48" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -41866,7 +41866,7 @@
       <c r="JG48" s="51"/>
       <c r="JH48" s="31"/>
       <c r="JI48" s="31"/>
-      <c r="JJ48" s="79"/>
+      <c r="JJ48" s="78"/>
       <c r="JK48" s="63"/>
       <c r="JL48" s="51"/>
       <c r="JM48" s="51"/>
@@ -42124,7 +42124,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="DF49" s="79"/>
+      <c r="DF49" s="78"/>
       <c r="DH49" s="65">
         <f ca="1"/>
         <v>0</v>
@@ -42270,7 +42270,7 @@
       <c r="JG49" s="51"/>
       <c r="JH49" s="31"/>
       <c r="JI49" s="31"/>
-      <c r="JJ49" s="79"/>
+      <c r="JJ49" s="78"/>
       <c r="JK49" s="63"/>
       <c r="JL49" s="51"/>
       <c r="JM49" s="51"/>
@@ -42413,14 +42413,14 @@
       <c r="EB50" s="58"/>
       <c r="EC50" s="58"/>
       <c r="ED50" s="58"/>
-      <c r="EE50" s="78" t="s">
+      <c r="EE50" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="EF50" s="78"/>
-      <c r="EG50" s="78"/>
-      <c r="EH50" s="78"/>
-      <c r="EI50" s="78"/>
-      <c r="EJ50" s="78"/>
+      <c r="EF50" s="80"/>
+      <c r="EG50" s="80"/>
+      <c r="EH50" s="80"/>
+      <c r="EI50" s="80"/>
+      <c r="EJ50" s="80"/>
       <c r="EK50" s="58"/>
       <c r="EL50" s="58"/>
       <c r="EM50" s="58"/>
@@ -42462,14 +42462,14 @@
       <c r="HD50" s="58"/>
       <c r="HE50" s="58"/>
       <c r="HF50" s="58"/>
-      <c r="HG50" s="78" t="s">
+      <c r="HG50" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="HH50" s="78"/>
-      <c r="HI50" s="78"/>
-      <c r="HJ50" s="78"/>
-      <c r="HK50" s="78"/>
-      <c r="HL50" s="78"/>
+      <c r="HH50" s="80"/>
+      <c r="HI50" s="80"/>
+      <c r="HJ50" s="80"/>
+      <c r="HK50" s="80"/>
+      <c r="HL50" s="80"/>
       <c r="HM50" s="58"/>
       <c r="HN50" s="58"/>
       <c r="HO50" s="58"/>
@@ -42482,15 +42482,15 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
       <c r="IV50" s="31"/>
-      <c r="IW50" s="76"/>
-      <c r="IX50" s="76"/>
+      <c r="IW50" s="73"/>
+      <c r="IX50" s="73"/>
       <c r="IY50" s="31"/>
-      <c r="IZ50" s="78"/>
-      <c r="JA50" s="78"/>
-      <c r="JB50" s="78"/>
-      <c r="JC50" s="78"/>
-      <c r="JD50" s="78"/>
-      <c r="JE50" s="78"/>
+      <c r="IZ50" s="80"/>
+      <c r="JA50" s="80"/>
+      <c r="JB50" s="80"/>
+      <c r="JC50" s="80"/>
+      <c r="JD50" s="80"/>
+      <c r="JE50" s="80"/>
       <c r="JF50" s="31"/>
       <c r="JG50" s="55"/>
       <c r="JH50" s="31"/>
@@ -42504,14 +42504,14 @@
       <c r="KF50" s="58"/>
       <c r="KG50" s="58"/>
       <c r="KH50" s="58"/>
-      <c r="KI50" s="78" t="s">
+      <c r="KI50" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="KJ50" s="78"/>
-      <c r="KK50" s="78"/>
-      <c r="KL50" s="78"/>
-      <c r="KM50" s="78"/>
-      <c r="KN50" s="78"/>
+      <c r="KJ50" s="80"/>
+      <c r="KK50" s="80"/>
+      <c r="KL50" s="80"/>
+      <c r="KM50" s="80"/>
+      <c r="KN50" s="80"/>
       <c r="KO50" s="58"/>
       <c r="KP50" s="59" t="s">
         <v>12</v>
@@ -42532,7 +42532,7 @@
       </c>
       <c r="L51" s="20">
         <f t="array" ref="L51:Q53">MMULT(TRANSPOSE(C28:E35), L42:Q49)</f>
-        <v>25.4</v>
+        <v>100</v>
       </c>
       <c r="M51" s="20">
         <v>87</v>
@@ -42556,7 +42556,7 @@
       <c r="AB51" s="45"/>
       <c r="BS51" s="7">
         <f t="shared" ref="BS51:BX51" ca="1" si="10">SUM(BS42:BS49)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BT51" s="7">
         <f t="shared" ca="1" si="10"/>
@@ -42651,7 +42651,7 @@
       </c>
       <c r="KI51" s="20">
         <f t="array" aca="1" ref="KI51:KN53" ca="1">MMULT(TRANSPOSE($C$28:$E$35), KI42:KN49)</f>
-        <v>13.027319587628869</v>
+        <v>51.288659793814446</v>
       </c>
       <c r="KJ51" s="20">
         <f ca="1"/>
@@ -42826,14 +42826,14 @@
     </row>
     <row r="54" spans="1:319" ht="20">
       <c r="B54" s="1"/>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -42861,20 +42861,20 @@
       <c r="JJ54" s="31"/>
       <c r="JK54" s="31"/>
       <c r="JL54" s="31"/>
-      <c r="KI54" s="73" t="s">
+      <c r="KI54" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="KJ54" s="73"/>
-      <c r="KK54" s="73"/>
-      <c r="KL54" s="73"/>
-      <c r="KM54" s="73"/>
-      <c r="KN54" s="73"/>
+      <c r="KJ54" s="74"/>
+      <c r="KK54" s="74"/>
+      <c r="KL54" s="74"/>
+      <c r="KM54" s="74"/>
+      <c r="KN54" s="74"/>
     </row>
     <row r="55" spans="1:319">
       <c r="B55" s="1"/>
       <c r="L55" s="6">
         <f t="shared" ref="L55:Q55" si="13">SUM(L51:L53)</f>
-        <v>25.4</v>
+        <v>100</v>
       </c>
       <c r="M55" s="6">
         <f t="shared" si="13"/>
@@ -42925,7 +42925,7 @@
       <c r="JL55" s="31"/>
       <c r="KI55" s="6">
         <f t="shared" ref="KI55:KN55" ca="1" si="14">SUM(KI51:KI53)</f>
-        <v>13.027319587628869</v>
+        <v>51.288659793814446</v>
       </c>
       <c r="KJ55" s="6">
         <f t="shared" ca="1" si="14"/>
@@ -42998,11 +42998,11 @@
     </row>
     <row r="59" spans="1:319">
       <c r="B59" s="1"/>
-      <c r="Z59" s="70" t="s">
+      <c r="Z59" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="76"/>
       <c r="AH59" s="69" t="s">
         <v>3</v>
       </c>
@@ -43061,14 +43061,14 @@
       <c r="EC59" s="45"/>
       <c r="ES59" s="31"/>
       <c r="ET59" s="31"/>
-      <c r="EU59" s="76"/>
-      <c r="EV59" s="76"/>
-      <c r="EW59" s="76"/>
-      <c r="EX59" s="76"/>
-      <c r="EY59" s="76"/>
-      <c r="EZ59" s="76"/>
-      <c r="FA59" s="76"/>
-      <c r="FB59" s="76"/>
+      <c r="EU59" s="73"/>
+      <c r="EV59" s="73"/>
+      <c r="EW59" s="73"/>
+      <c r="EX59" s="73"/>
+      <c r="EY59" s="73"/>
+      <c r="EZ59" s="73"/>
+      <c r="FA59" s="73"/>
+      <c r="FB59" s="73"/>
       <c r="FC59" s="31"/>
       <c r="GM59" s="69" t="s">
         <v>3</v>
@@ -43092,26 +43092,26 @@
       <c r="HE59" s="52"/>
       <c r="HU59" s="31"/>
       <c r="HV59" s="31"/>
-      <c r="HW59" s="76"/>
-      <c r="HX59" s="76"/>
-      <c r="HY59" s="76"/>
-      <c r="HZ59" s="76"/>
-      <c r="IA59" s="76"/>
-      <c r="IB59" s="76"/>
-      <c r="IC59" s="76"/>
-      <c r="ID59" s="76"/>
+      <c r="HW59" s="73"/>
+      <c r="HX59" s="73"/>
+      <c r="HY59" s="73"/>
+      <c r="HZ59" s="73"/>
+      <c r="IA59" s="73"/>
+      <c r="IB59" s="73"/>
+      <c r="IC59" s="73"/>
+      <c r="ID59" s="73"/>
       <c r="IE59" s="31"/>
       <c r="JJ59" s="31"/>
       <c r="JK59" s="31"/>
       <c r="JL59" s="31"/>
       <c r="JM59" s="31"/>
       <c r="JN59" s="31"/>
-      <c r="JO59" s="76"/>
-      <c r="JP59" s="76"/>
-      <c r="JQ59" s="76"/>
-      <c r="JR59" s="76"/>
-      <c r="JS59" s="76"/>
-      <c r="JT59" s="76"/>
+      <c r="JO59" s="73"/>
+      <c r="JP59" s="73"/>
+      <c r="JQ59" s="73"/>
+      <c r="JR59" s="73"/>
+      <c r="JS59" s="73"/>
+      <c r="JT59" s="73"/>
       <c r="JU59" s="31"/>
       <c r="JX59" s="69" t="s">
         <v>4</v>
@@ -43125,21 +43125,21 @@
       <c r="KE59" s="69"/>
       <c r="KF59" s="52"/>
       <c r="KG59" s="52"/>
-      <c r="KP59" s="70" t="s">
+      <c r="KP59" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="KQ59" s="70"/>
-      <c r="KR59" s="70"/>
+      <c r="KQ59" s="76"/>
+      <c r="KR59" s="76"/>
       <c r="KW59" s="31"/>
       <c r="KX59" s="31"/>
-      <c r="KY59" s="76"/>
-      <c r="KZ59" s="76"/>
-      <c r="LA59" s="76"/>
-      <c r="LB59" s="76"/>
-      <c r="LC59" s="76"/>
-      <c r="LD59" s="76"/>
-      <c r="LE59" s="76"/>
-      <c r="LF59" s="76"/>
+      <c r="KY59" s="73"/>
+      <c r="KZ59" s="73"/>
+      <c r="LA59" s="73"/>
+      <c r="LB59" s="73"/>
+      <c r="LC59" s="73"/>
+      <c r="LD59" s="73"/>
+      <c r="LE59" s="73"/>
+      <c r="LF59" s="73"/>
       <c r="LG59" s="31"/>
     </row>
     <row r="60" spans="1:319" ht="51" customHeight="1">
@@ -43551,27 +43551,27 @@
         <v>0</v>
       </c>
       <c r="BS61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
-        <v>25.4</v>
+        <f t="shared" ref="BS61:BX66" ca="1" si="18">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <v>100</v>
       </c>
       <c r="BT61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BU61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BV61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BW61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BX61" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="DF61" s="71" t="s">
@@ -43585,27 +43585,27 @@
         <v>22.399999999999995</v>
       </c>
       <c r="DK61" s="6">
-        <f t="shared" ref="DK61:DP66" ca="1" si="18">IF((ROW()-ROW($DK$61))=(COLUMN()-COLUMN($DK$61)),INDIRECT(ADDRESS(ROW($DH61),COLUMN($DH61))),0)</f>
+        <f t="shared" ref="DK61:DP66" ca="1" si="19">IF((ROW()-ROW($DK$61))=(COLUMN()-COLUMN($DK$61)),INDIRECT(ADDRESS(ROW($DH61),COLUMN($DH61))),0)</f>
         <v>22.399999999999995</v>
       </c>
       <c r="DL61" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DM61" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DN61" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO61" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP61" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT61" s="6">
@@ -43668,23 +43668,23 @@
         <v>11.488659793814431</v>
       </c>
       <c r="GN61" s="6">
-        <f t="shared" ref="GN61:GR66" ca="1" si="19">IF((ROW()-ROW($GM$61))=(COLUMN()-COLUMN($GM$61)),INDIRECT(ADDRESS(ROW($GJ61),COLUMN($GJ61))),0)</f>
+        <f t="shared" ref="GN61:GR66" ca="1" si="20">IF((ROW()-ROW($GM$61))=(COLUMN()-COLUMN($GM$61)),INDIRECT(ADDRESS(ROW($GJ61),COLUMN($GJ61))),0)</f>
         <v>0</v>
       </c>
       <c r="GO61" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GP61" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ61" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR61" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV61" s="6">
@@ -43732,7 +43732,7 @@
       <c r="IC61" s="51"/>
       <c r="ID61" s="51"/>
       <c r="IE61" s="31"/>
-      <c r="JJ61" s="79"/>
+      <c r="JJ61" s="78"/>
       <c r="JK61" s="63"/>
       <c r="JL61" s="51"/>
       <c r="JM61" s="31"/>
@@ -43797,7 +43797,7 @@
         <v>0</v>
       </c>
       <c r="KT61" s="6">
-        <f t="shared" ref="KT61:KT66" ca="1" si="20">SUM(KP61:KR61)</f>
+        <f t="shared" ref="KT61:KT66" ca="1" si="21">SUM(KP61:KR61)</f>
         <v>11.488659793814435</v>
       </c>
       <c r="KW61" s="31"/>
@@ -43952,27 +43952,27 @@
         <v>0</v>
       </c>
       <c r="BS62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BT62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>87</v>
       </c>
       <c r="BU62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BV62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BW62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BX62" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="DF62" s="71"/>
@@ -43984,27 +43984,27 @@
         <v>0.70634920634920639</v>
       </c>
       <c r="DK62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DL62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.70634920634920639</v>
       </c>
       <c r="DM62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DN62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP62" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT62" s="6">
@@ -44043,14 +44043,14 @@
       <c r="EC62" s="50"/>
       <c r="ES62" s="31"/>
       <c r="ET62" s="31"/>
-      <c r="EU62" s="73"/>
-      <c r="EV62" s="73"/>
-      <c r="EW62" s="73"/>
-      <c r="EX62" s="73"/>
-      <c r="EY62" s="73"/>
-      <c r="EZ62" s="73"/>
-      <c r="FA62" s="73"/>
-      <c r="FB62" s="73"/>
+      <c r="EU62" s="74"/>
+      <c r="EV62" s="74"/>
+      <c r="EW62" s="74"/>
+      <c r="EX62" s="74"/>
+      <c r="EY62" s="74"/>
+      <c r="EZ62" s="74"/>
+      <c r="FA62" s="74"/>
+      <c r="FB62" s="74"/>
       <c r="FC62" s="31"/>
       <c r="GH62" s="71"/>
       <c r="GI62" s="1" t="s">
@@ -44061,27 +44061,27 @@
         <v>14.056349206349207</v>
       </c>
       <c r="GM62" s="6">
-        <f t="shared" ref="GM62:GM66" ca="1" si="21">IF((ROW()-ROW($GM$61))=(COLUMN()-COLUMN($GM$61)),INDIRECT(ADDRESS(ROW($GJ62),COLUMN($GJ62))),0)</f>
+        <f t="shared" ref="GM62:GM66" ca="1" si="22">IF((ROW()-ROW($GM$61))=(COLUMN()-COLUMN($GM$61)),INDIRECT(ADDRESS(ROW($GJ62),COLUMN($GJ62))),0)</f>
         <v>0</v>
       </c>
       <c r="GN62" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>14.056349206349207</v>
       </c>
       <c r="GO62" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GP62" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ62" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR62" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV62" s="6">
@@ -44120,16 +44120,16 @@
       <c r="HE62" s="51"/>
       <c r="HU62" s="31"/>
       <c r="HV62" s="31"/>
-      <c r="HW62" s="73"/>
-      <c r="HX62" s="73"/>
-      <c r="HY62" s="73"/>
-      <c r="HZ62" s="73"/>
-      <c r="IA62" s="73"/>
-      <c r="IB62" s="73"/>
-      <c r="IC62" s="73"/>
-      <c r="ID62" s="73"/>
+      <c r="HW62" s="74"/>
+      <c r="HX62" s="74"/>
+      <c r="HY62" s="74"/>
+      <c r="HZ62" s="74"/>
+      <c r="IA62" s="74"/>
+      <c r="IB62" s="74"/>
+      <c r="IC62" s="74"/>
+      <c r="ID62" s="74"/>
       <c r="IE62" s="31"/>
-      <c r="JJ62" s="79"/>
+      <c r="JJ62" s="78"/>
       <c r="JK62" s="63"/>
       <c r="JL62" s="51"/>
       <c r="JM62" s="31"/>
@@ -44192,19 +44192,19 @@
         <v>0</v>
       </c>
       <c r="KT62" s="6">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>91.550000000000011</v>
       </c>
       <c r="KW62" s="31"/>
       <c r="KX62" s="31"/>
-      <c r="KY62" s="73"/>
-      <c r="KZ62" s="73"/>
-      <c r="LA62" s="73"/>
-      <c r="LB62" s="73"/>
-      <c r="LC62" s="73"/>
-      <c r="LD62" s="73"/>
-      <c r="LE62" s="73"/>
-      <c r="LF62" s="73"/>
+      <c r="KY62" s="74"/>
+      <c r="KZ62" s="74"/>
+      <c r="LA62" s="74"/>
+      <c r="LB62" s="74"/>
+      <c r="LC62" s="74"/>
+      <c r="LD62" s="74"/>
+      <c r="LE62" s="74"/>
+      <c r="LF62" s="74"/>
       <c r="LG62" s="31"/>
     </row>
     <row r="63" spans="1:319">
@@ -44347,27 +44347,27 @@
         <v>0</v>
       </c>
       <c r="BS63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BT63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BU63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>17.8</v>
       </c>
       <c r="BV63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BW63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BX63" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="DF63" s="71"/>
@@ -44379,27 +44379,27 @@
         <v>0.49999999999999994</v>
       </c>
       <c r="DK63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DL63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DM63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="DN63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP63" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT63" s="6">
@@ -44456,27 +44456,27 @@
         <v>9.9499999999999975</v>
       </c>
       <c r="GM63" s="6">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="GN63" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GO63" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>9.9499999999999975</v>
       </c>
       <c r="GP63" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ63" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR63" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV63" s="6">
@@ -44524,7 +44524,7 @@
       <c r="IC63" s="31"/>
       <c r="ID63" s="31"/>
       <c r="IE63" s="31"/>
-      <c r="JJ63" s="79"/>
+      <c r="JJ63" s="78"/>
       <c r="JK63" s="63"/>
       <c r="JL63" s="51"/>
       <c r="JM63" s="31"/>
@@ -44587,7 +44587,7 @@
         <v>0</v>
       </c>
       <c r="KT63" s="6">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>22.049999999999997</v>
       </c>
       <c r="KW63" s="31"/>
@@ -44742,27 +44742,27 @@
         <v>0</v>
       </c>
       <c r="BS64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BT64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BU64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BV64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>44.4</v>
       </c>
       <c r="BW64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BX64" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="DF64" s="71"/>
@@ -44774,27 +44774,27 @@
         <v>0</v>
       </c>
       <c r="DK64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DL64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DM64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DN64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP64" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT64" s="6">
@@ -44851,27 +44851,27 @@
         <v>0</v>
       </c>
       <c r="GM64" s="6">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="GN64" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GO64" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GP64" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ64" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR64" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV64" s="6">
@@ -44919,7 +44919,7 @@
       <c r="IC64" s="31"/>
       <c r="ID64" s="31"/>
       <c r="IE64" s="31"/>
-      <c r="JJ64" s="79"/>
+      <c r="JJ64" s="78"/>
       <c r="JK64" s="63"/>
       <c r="JL64" s="51"/>
       <c r="JM64" s="31"/>
@@ -44982,7 +44982,7 @@
         <v>0</v>
       </c>
       <c r="KT64" s="6">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>25.2</v>
       </c>
       <c r="KW64" s="31"/>
@@ -45137,27 +45137,27 @@
         <v>0</v>
       </c>
       <c r="BS65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BT65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BU65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BV65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BW65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>19.899999999999999</v>
       </c>
       <c r="BX65" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="DF65" s="71"/>
@@ -45169,27 +45169,27 @@
         <v>0</v>
       </c>
       <c r="DK65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DL65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DM65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DN65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP65" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT65" s="6">
@@ -45246,27 +45246,27 @@
         <v>0</v>
       </c>
       <c r="GM65" s="6">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="GN65" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GO65" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GP65" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ65" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR65" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV65" s="6">
@@ -45314,7 +45314,7 @@
       <c r="IC65" s="31"/>
       <c r="ID65" s="31"/>
       <c r="IE65" s="31"/>
-      <c r="JJ65" s="79"/>
+      <c r="JJ65" s="78"/>
       <c r="JK65" s="63"/>
       <c r="JL65" s="51"/>
       <c r="JM65" s="31"/>
@@ -45377,7 +45377,7 @@
         <v>0.4</v>
       </c>
       <c r="KT65" s="6">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.4</v>
       </c>
       <c r="KW65" s="31"/>
@@ -45532,27 +45532,27 @@
         <v>0</v>
       </c>
       <c r="BS66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(L$55),COLUMN(L$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BT66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(M$55),COLUMN(M$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BU66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(N$55),COLUMN(N$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BV66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(O$55),COLUMN(O$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BW66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(P$55),COLUMN(P$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="BX66" s="6">
-        <f ca="1">IF((ROW()-ROW($BS$61))=(COLUMN()-COLUMN($BS$61)),INDIRECT(ADDRESS(ROW(Q$55),COLUMN(Q$55))),0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>28.1</v>
       </c>
       <c r="BY66" s="26"/>
@@ -45565,27 +45565,27 @@
         <v>0</v>
       </c>
       <c r="DK66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DL66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DM66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DN66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DO66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DP66" s="6">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="DT66" s="6">
@@ -45642,27 +45642,27 @@
         <v>0</v>
       </c>
       <c r="GM66" s="6">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0</v>
       </c>
       <c r="GN66" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GO66" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GP66" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GQ66" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GR66" s="6">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="GV66" s="6">
@@ -45710,7 +45710,7 @@
       <c r="IC66" s="31"/>
       <c r="ID66" s="31"/>
       <c r="IE66" s="31"/>
-      <c r="JJ66" s="79"/>
+      <c r="JJ66" s="78"/>
       <c r="JK66" s="63"/>
       <c r="JL66" s="51"/>
       <c r="JM66" s="31"/>
@@ -45773,7 +45773,7 @@
         <v>5.9</v>
       </c>
       <c r="KT66" s="6">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>5.9</v>
       </c>
       <c r="KW66" s="31"/>
@@ -45801,11 +45801,11 @@
       <c r="J67" s="69"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="73" t="s">
+      <c r="Z67" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="AA67" s="73"/>
-      <c r="AB67" s="73"/>
+      <c r="AA67" s="74"/>
+      <c r="AB67" s="74"/>
       <c r="AD67" s="45" t="s">
         <v>34</v>
       </c>
@@ -46020,23 +46020,23 @@
       <c r="JL67" s="55"/>
       <c r="JM67" s="31"/>
       <c r="JN67" s="31"/>
-      <c r="JO67" s="76"/>
-      <c r="JP67" s="76"/>
-      <c r="JQ67" s="76"/>
-      <c r="JR67" s="76"/>
-      <c r="JS67" s="76"/>
-      <c r="JT67" s="76"/>
+      <c r="JO67" s="73"/>
+      <c r="JP67" s="73"/>
+      <c r="JQ67" s="73"/>
+      <c r="JR67" s="73"/>
+      <c r="JS67" s="73"/>
+      <c r="JT67" s="73"/>
       <c r="JU67" s="31"/>
-      <c r="JX67" s="80" t="s">
+      <c r="JX67" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="JY67" s="80"/>
-      <c r="JZ67" s="80"/>
-      <c r="KA67" s="80"/>
-      <c r="KB67" s="80"/>
-      <c r="KC67" s="80"/>
-      <c r="KD67" s="80"/>
-      <c r="KE67" s="80"/>
+      <c r="JY67" s="79"/>
+      <c r="JZ67" s="79"/>
+      <c r="KA67" s="79"/>
+      <c r="KB67" s="79"/>
+      <c r="KC67" s="79"/>
+      <c r="KD67" s="79"/>
+      <c r="KE67" s="79"/>
       <c r="KF67" s="54"/>
       <c r="KG67" s="54"/>
       <c r="KH67" s="26"/>
@@ -46047,11 +46047,11 @@
       <c r="KM67" s="26"/>
       <c r="KN67" s="26"/>
       <c r="KO67" s="26"/>
-      <c r="KP67" s="73" t="s">
+      <c r="KP67" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="KQ67" s="73"/>
-      <c r="KR67" s="73"/>
+      <c r="KQ67" s="74"/>
+      <c r="KR67" s="74"/>
       <c r="KS67" s="26"/>
       <c r="KT67" s="52" t="s">
         <v>145</v>
@@ -46169,18 +46169,18 @@
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
-      <c r="Z70" s="70" t="s">
+      <c r="Z70" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA70" s="70"/>
-      <c r="AB70" s="70"/>
-      <c r="AH70" s="74" t="s">
+      <c r="AA70" s="76"/>
+      <c r="AB70" s="76"/>
+      <c r="AH70" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AI70" s="74"/>
+      <c r="AI70" s="77"/>
       <c r="AJ70" s="31"/>
-      <c r="AK70" s="74"/>
-      <c r="AL70" s="74"/>
+      <c r="AK70" s="77"/>
+      <c r="AL70" s="77"/>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
       <c r="AO70" s="31"/>
@@ -46268,11 +46268,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="C72" s="4">
         <f>F5</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -46311,7 +46311,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="6">
         <f t="array" ref="Z72:AB73">MMULT(C72:J73, C28:E35)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="AA72" s="6">
         <v>0</v>
@@ -46321,11 +46321,11 @@
       </c>
       <c r="AD72" s="6">
         <f>SUM(Z72:AB72)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="AH72" s="6">
         <f ca="1">IF((ROW()-ROW($AH$72))=(COLUMN()-COLUMN($AH$72)),INDIRECT(ADDRESS(ROW($AD72),COLUMN($AD72))),0)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="AI72" s="6">
         <f ca="1">IF((ROW()-ROW($AH$72))=(COLUMN()-COLUMN($AH$72)),INDIRECT(ADDRESS(ROW($AD72),COLUMN($AD72))),0)</f>
@@ -46506,37 +46506,37 @@
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
       <c r="Y74" s="15"/>
-      <c r="Z74" s="76" t="s">
+      <c r="Z74" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
       <c r="AD74" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AH74" s="76" t="s">
+      <c r="AH74" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AI74" s="76"/>
+      <c r="AI74" s="73"/>
       <c r="AJ74" s="29"/>
-      <c r="AK74" s="76"/>
-      <c r="AL74" s="76"/>
+      <c r="AK74" s="73"/>
+      <c r="AL74" s="73"/>
       <c r="AM74" s="29"/>
       <c r="AN74" s="31"/>
       <c r="AO74" s="31"/>
       <c r="AP74" s="31"/>
       <c r="AQ74" s="31"/>
       <c r="AR74" s="31"/>
-      <c r="AS74" s="76" t="s">
+      <c r="AS74" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="AT74" s="76"/>
-      <c r="AU74" s="76"/>
-      <c r="AV74" s="76"/>
-      <c r="AW74" s="76"/>
-      <c r="AX74" s="76"/>
-      <c r="AY74" s="76"/>
-      <c r="AZ74" s="76"/>
+      <c r="AT74" s="73"/>
+      <c r="AU74" s="73"/>
+      <c r="AV74" s="73"/>
+      <c r="AW74" s="73"/>
+      <c r="AX74" s="73"/>
+      <c r="AY74" s="73"/>
+      <c r="AZ74" s="73"/>
       <c r="ES74" s="31"/>
       <c r="ET74" s="31"/>
       <c r="EU74" s="31"/>
@@ -46575,34 +46575,34 @@
       <c r="B75" s="1"/>
       <c r="C75" s="6">
         <f>SUM(C72:C73)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" ref="D75:J75" si="22">SUM(D72:D73)</f>
+        <f t="shared" ref="D75:J75" si="23">SUM(D72:D73)</f>
         <v>87</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J75" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L75" s="50"/>
@@ -47334,7 +47334,7 @@
       </c>
       <c r="L81" s="6">
         <f t="array" ref="L81:Q88">TRANSPOSE(C61:J66) - L42:Q49</f>
-        <v>-22.4</v>
+        <v>-97</v>
       </c>
       <c r="M81" s="6">
         <v>0</v>
@@ -47352,8 +47352,8 @@
         <v>0</v>
       </c>
       <c r="Z81" s="6">
-        <f t="shared" ref="Z81:Z88" si="23">SUM(L81:Q81)</f>
-        <v>-22.4</v>
+        <f t="shared" ref="Z81:Z88" si="24">SUM(L81:Q81)</f>
+        <v>-97</v>
       </c>
       <c r="AH81" s="6">
         <f t="array" aca="1" ref="AH81:AO88" ca="1">MMULT(AS42:AX49, AS61:AZ66)</f>
@@ -47365,7 +47365,7 @@
       </c>
       <c r="AJ81" s="6">
         <f ca="1"/>
-        <v>1</v>
+        <v>4.3303571428571432</v>
       </c>
       <c r="AK81" s="6">
         <f ca="1"/>
@@ -47397,7 +47397,7 @@
       </c>
       <c r="AU81" s="6">
         <f ca="1"/>
-        <v>-1</v>
+        <v>-4.3303571428571432</v>
       </c>
       <c r="AV81" s="6">
         <f ca="1"/>
@@ -47429,7 +47429,7 @@
       </c>
       <c r="BF81" s="6">
         <f ca="1"/>
-        <v>1.1546391752577319</v>
+        <v>5</v>
       </c>
       <c r="BG81" s="6">
         <f ca="1"/>
@@ -47445,7 +47445,7 @@
       </c>
       <c r="BJ81" s="6">
         <f ca="1"/>
-        <v>56</v>
+        <v>242.50000000000003</v>
       </c>
       <c r="BK81" s="6">
         <f ca="1"/>
@@ -47453,10 +47453,10 @@
       </c>
       <c r="BN81" s="6">
         <f t="array" aca="1" ref="BN81:BN88" ca="1">MMULT(BD81:BK88, Z42:Z49)</f>
-        <v>22.400000000000002</v>
+        <v>97.000000000000014</v>
       </c>
       <c r="BO81" s="7">
-        <f ca="1">BN81-AB42</f>
+        <f t="shared" ref="BO81:BO88" ca="1" si="25">BN81-AB42</f>
         <v>0</v>
       </c>
       <c r="BS81" s="6">
@@ -47484,7 +47484,7 @@
         <v>0</v>
       </c>
       <c r="BZ81" s="7">
-        <f t="shared" ref="BZ81:BZ88" ca="1" si="24">SUM(BS81:BX81)</f>
+        <f t="shared" ref="BZ81:BZ88" ca="1" si="26">SUM(BS81:BX81)</f>
         <v>1</v>
       </c>
       <c r="DF81" s="71" t="s">
@@ -47495,38 +47495,38 @@
       </c>
       <c r="DH81" s="6">
         <f t="array" aca="1" ref="DH81:DH88" ca="1">MMULT($BD$81:$BK$88,DC42:DC49)</f>
-        <v>22.399999999999995</v>
+        <v>97</v>
       </c>
       <c r="DK81" s="6">
-        <f t="shared" ref="DK81:DR88" ca="1" si="25">IF((ROW()-ROW($DK$81))=(COLUMN()-COLUMN($DK$81)),INDIRECT(ADDRESS(ROW($DH81),COLUMN($DH81))),0)</f>
-        <v>22.399999999999995</v>
+        <f t="shared" ref="DK81:DR88" ca="1" si="27">IF((ROW()-ROW($DK$81))=(COLUMN()-COLUMN($DK$81)),INDIRECT(ADDRESS(ROW($DH81),COLUMN($DH81))),0)</f>
+        <v>97</v>
       </c>
       <c r="DL81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR81" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC81" s="71" t="s">
@@ -47537,7 +47537,7 @@
       </c>
       <c r="EE81" s="6">
         <f t="array" aca="1" ref="EE81:EJ88" ca="1">TRANSPOSE(DT61:EA66) - EE42:EJ49</f>
-        <v>-22.399999999999995</v>
+        <v>-96.999999999999986</v>
       </c>
       <c r="EF81" s="6">
         <f ca="1"/>
@@ -47561,42 +47561,42 @@
       </c>
       <c r="EM81" s="6">
         <f ca="1">SUM(EE81:EJ81)</f>
-        <v>-22.399999999999995</v>
+        <v>-96.999999999999986</v>
       </c>
       <c r="EO81" s="6">
         <f ca="1">-EM81</f>
-        <v>22.399999999999995</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="ER81" s="6">
-        <f t="shared" ref="ER81:EY88" ca="1" si="26">IF((ROW()-ROW($ER$81))=(COLUMN()-COLUMN($ER$81)),INDIRECT(ADDRESS(ROW($EO81),COLUMN($EO81))),0)</f>
-        <v>22.399999999999995</v>
+        <f t="shared" ref="ER81:EY88" ca="1" si="28">IF((ROW()-ROW($ER$81))=(COLUMN()-COLUMN($ER$81)),INDIRECT(ADDRESS(ROW($EO81),COLUMN($EO81))),0)</f>
+        <v>96.999999999999986</v>
       </c>
       <c r="ES81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY81" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ81" s="15"/>
@@ -47609,7 +47609,7 @@
       </c>
       <c r="FD81" s="6">
         <f t="array" aca="1" ref="FD81:FK82" ca="1">MMULT($AS$72:$AZ$73, ER81:EY88)</f>
-        <v>22.399999999999995</v>
+        <v>96.999999999999986</v>
       </c>
       <c r="FE81" s="6">
         <f ca="1"/>
@@ -47647,38 +47647,38 @@
       </c>
       <c r="GJ81" s="6">
         <f t="array" aca="1" ref="GJ81:GJ88" ca="1">MMULT($BD$81:$BK$88,GE42:GE49)</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="GM81" s="6">
         <f ca="1">IF((ROW()-ROW($GM$81))=(COLUMN()-COLUMN($GM$81)),INDIRECT(ADDRESS(ROW($GJ81),COLUMN($GJ81))),0)</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="GN81" s="6">
-        <f t="shared" ref="GN81:GT88" ca="1" si="27">IF((ROW()-ROW($GM$81))=(COLUMN()-COLUMN($GM$81)),INDIRECT(ADDRESS(ROW($GJ81),COLUMN($GJ81))),0)</f>
+        <f t="shared" ref="GN81:GT88" ca="1" si="29">IF((ROW()-ROW($GM$81))=(COLUMN()-COLUMN($GM$81)),INDIRECT(ADDRESS(ROW($GJ81),COLUMN($GJ81))),0)</f>
         <v>0</v>
       </c>
       <c r="GO81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT81" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE81" s="71" t="s">
@@ -47689,7 +47689,7 @@
       </c>
       <c r="HG81" s="6">
         <f t="array" aca="1" ref="HG81:HL88" ca="1">TRANSPOSE(GV61:HC66) - HG42:HL49</f>
-        <v>-11.488659793814431</v>
+        <v>-49.75</v>
       </c>
       <c r="HH81" s="6">
         <f ca="1"/>
@@ -47713,42 +47713,42 @@
       </c>
       <c r="HO81" s="6">
         <f ca="1">SUM(HG81:HL81)</f>
-        <v>-11.488659793814431</v>
+        <v>-49.75</v>
       </c>
       <c r="HQ81" s="6">
         <f ca="1">-HO81</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="HT81" s="6">
         <f ca="1">IF((ROW()-ROW($HT$81))=(COLUMN()-COLUMN($HT$81)),INDIRECT(ADDRESS(ROW($HQ81),COLUMN($HQ81))),0)</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="HU81" s="6">
-        <f t="shared" ref="HU81:IA88" ca="1" si="28">IF((ROW()-ROW($HT$81))=(COLUMN()-COLUMN($HT$81)),INDIRECT(ADDRESS(ROW($HQ81),COLUMN($HQ81))),0)</f>
+        <f t="shared" ref="HU81:IA88" ca="1" si="30">IF((ROW()-ROW($HT$81))=(COLUMN()-COLUMN($HT$81)),INDIRECT(ADDRESS(ROW($HQ81),COLUMN($HQ81))),0)</f>
         <v>0</v>
       </c>
       <c r="HV81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA81" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB81" s="15"/>
@@ -47761,7 +47761,7 @@
       </c>
       <c r="IF81" s="6">
         <f t="array" aca="1" ref="IF81:IM82" ca="1">MMULT($AS$72:$AZ$73, HT81:IA88)</f>
-        <v>11.488659793814431</v>
+        <v>49.75</v>
       </c>
       <c r="IG81" s="6">
         <f ca="1"/>
@@ -47791,7 +47791,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="JJ81" s="79"/>
+      <c r="JJ81" s="78"/>
       <c r="JK81" s="63"/>
       <c r="JL81" s="51"/>
       <c r="JM81" s="31"/>
@@ -47814,7 +47814,7 @@
       </c>
       <c r="KI81" s="6">
         <f t="array" aca="1" ref="KI81:KN88" ca="1">TRANSPOSE(JX61:KE66) - KI42:KN49</f>
-        <v>-11.488659793814435</v>
+        <v>-49.750000000000014</v>
       </c>
       <c r="KJ81" s="6">
         <f ca="1"/>
@@ -47838,42 +47838,42 @@
       </c>
       <c r="KQ81" s="6">
         <f ca="1">SUM(KI81:KN81)</f>
-        <v>-11.488659793814435</v>
+        <v>-49.750000000000014</v>
       </c>
       <c r="KS81" s="6">
         <f ca="1">-KQ81</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="KV81" s="6">
         <f ca="1">IF((ROW()-ROW($KV$81))=(COLUMN()-COLUMN($KV$81)),INDIRECT(ADDRESS(ROW($KS81),COLUMN($KS81))),0)</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="KW81" s="6">
-        <f t="shared" ref="KW81:LC88" ca="1" si="29">IF((ROW()-ROW($KV$81))=(COLUMN()-COLUMN($KV$81)),INDIRECT(ADDRESS(ROW($KS81),COLUMN($KS81))),0)</f>
+        <f t="shared" ref="KW81:LC88" ca="1" si="31">IF((ROW()-ROW($KV$81))=(COLUMN()-COLUMN($KV$81)),INDIRECT(ADDRESS(ROW($KS81),COLUMN($KS81))),0)</f>
         <v>0</v>
       </c>
       <c r="KX81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC81" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD81" s="15"/>
@@ -47886,7 +47886,7 @@
       </c>
       <c r="LH81" s="6">
         <f t="array" aca="1" ref="LH81:LO82" ca="1">MMULT($AS$72:$AZ$73, KV81:LC88)</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="LI81" s="6">
         <f ca="1"/>
@@ -47941,7 +47941,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-87</v>
       </c>
       <c r="AH82" s="6">
@@ -48045,7 +48045,7 @@
         <v>87</v>
       </c>
       <c r="BO82" s="7">
-        <f ca="1">BN82-AB43</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS82" s="6">
@@ -48073,7 +48073,7 @@
         <v>0</v>
       </c>
       <c r="BZ82" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1</v>
       </c>
       <c r="DF82" s="71"/>
@@ -48085,35 +48085,35 @@
         <v>0.78583607355985874</v>
       </c>
       <c r="DK82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.78583607355985874</v>
       </c>
       <c r="DM82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR82" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC82" s="71"/>
@@ -48145,7 +48145,7 @@
         <v>0</v>
       </c>
       <c r="EM82" s="6">
-        <f t="shared" ref="EM82:EM88" ca="1" si="30">SUM(EE82:EJ82)</f>
+        <f t="shared" ref="EM82:EM88" ca="1" si="32">SUM(EE82:EJ82)</f>
         <v>-0.78583607355985874</v>
       </c>
       <c r="EO82" s="6">
@@ -48153,35 +48153,35 @@
         <v>0.78583607355985874</v>
       </c>
       <c r="ER82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0.78583607355985874</v>
       </c>
       <c r="ET82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY82" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ82" s="50"/>
@@ -48231,35 +48231,35 @@
         <v>15.638137863841187</v>
       </c>
       <c r="GM82" s="6">
-        <f t="shared" ref="GM82:GM88" ca="1" si="31">IF((ROW()-ROW($GM$81))=(COLUMN()-COLUMN($GM$81)),INDIRECT(ADDRESS(ROW($GJ82),COLUMN($GJ82))),0)</f>
+        <f t="shared" ref="GM82:GM88" ca="1" si="33">IF((ROW()-ROW($GM$81))=(COLUMN()-COLUMN($GM$81)),INDIRECT(ADDRESS(ROW($GJ82),COLUMN($GJ82))),0)</f>
         <v>0</v>
       </c>
       <c r="GN82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>15.638137863841187</v>
       </c>
       <c r="GO82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT82" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE82" s="71"/>
@@ -48291,7 +48291,7 @@
         <v>0</v>
       </c>
       <c r="HO82" s="6">
-        <f t="shared" ref="HO82:HO88" ca="1" si="32">SUM(HG82:HL82)</f>
+        <f t="shared" ref="HO82:HO88" ca="1" si="34">SUM(HG82:HL82)</f>
         <v>-15.638137863841189</v>
       </c>
       <c r="HQ82" s="6">
@@ -48299,35 +48299,35 @@
         <v>15.638137863841189</v>
       </c>
       <c r="HT82" s="6">
-        <f t="shared" ref="HT82:HT88" ca="1" si="33">IF((ROW()-ROW($HT$81))=(COLUMN()-COLUMN($HT$81)),INDIRECT(ADDRESS(ROW($HQ82),COLUMN($HQ82))),0)</f>
+        <f t="shared" ref="HT82:HT88" ca="1" si="35">IF((ROW()-ROW($HT$81))=(COLUMN()-COLUMN($HT$81)),INDIRECT(ADDRESS(ROW($HQ82),COLUMN($HQ82))),0)</f>
         <v>0</v>
       </c>
       <c r="HU82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>15.638137863841189</v>
       </c>
       <c r="HV82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA82" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB82" s="51"/>
@@ -48368,7 +48368,7 @@
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="JJ82" s="79"/>
+      <c r="JJ82" s="78"/>
       <c r="JK82" s="63"/>
       <c r="JL82" s="51"/>
       <c r="JM82" s="31"/>
@@ -48412,7 +48412,7 @@
         <v>0</v>
       </c>
       <c r="KQ82" s="6">
-        <f t="shared" ref="KQ82:KQ88" ca="1" si="34">SUM(KI82:KN82)</f>
+        <f t="shared" ref="KQ82:KQ88" ca="1" si="36">SUM(KI82:KN82)</f>
         <v>-101.85230179028133</v>
       </c>
       <c r="KS82" s="6">
@@ -48420,35 +48420,35 @@
         <v>101.85230179028133</v>
       </c>
       <c r="KV82" s="6">
-        <f t="shared" ref="KV82:KV88" ca="1" si="35">IF((ROW()-ROW($KV$81))=(COLUMN()-COLUMN($KV$81)),INDIRECT(ADDRESS(ROW($KS82),COLUMN($KS82))),0)</f>
+        <f t="shared" ref="KV82:KV88" ca="1" si="37">IF((ROW()-ROW($KV$81))=(COLUMN()-COLUMN($KV$81)),INDIRECT(ADDRESS(ROW($KS82),COLUMN($KS82))),0)</f>
         <v>0</v>
       </c>
       <c r="KW82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>101.85230179028133</v>
       </c>
       <c r="KX82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC82" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD82" s="51"/>
@@ -48514,7 +48514,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH83" s="6">
@@ -48618,7 +48618,7 @@
         <v>22.400000000000002</v>
       </c>
       <c r="BO83" s="7">
-        <f ca="1">BN83-AB44</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS83" s="6">
@@ -48646,7 +48646,7 @@
         <v>0</v>
       </c>
       <c r="BZ83" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="DF83" s="71"/>
@@ -48658,35 +48658,35 @@
         <v>22.399999999999995</v>
       </c>
       <c r="DK83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>22.399999999999995</v>
       </c>
       <c r="DN83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR83" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC83" s="71"/>
@@ -48718,58 +48718,58 @@
         <v>0</v>
       </c>
       <c r="EM83" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>-3.5527136788005009E-15</v>
       </c>
       <c r="EO83" s="6">
         <v>0</v>
       </c>
       <c r="ER83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY83" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ83" s="29"/>
       <c r="FA83" s="29"/>
       <c r="FB83" s="29"/>
       <c r="FC83" s="31"/>
-      <c r="FD83" s="77" t="s">
+      <c r="FD83" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="FE83" s="77"/>
-      <c r="FF83" s="77"/>
-      <c r="FG83" s="77"/>
-      <c r="FH83" s="77"/>
-      <c r="FI83" s="77"/>
-      <c r="FJ83" s="77"/>
-      <c r="FK83" s="77"/>
+      <c r="FE83" s="70"/>
+      <c r="FF83" s="70"/>
+      <c r="FG83" s="70"/>
+      <c r="FH83" s="70"/>
+      <c r="FI83" s="70"/>
+      <c r="FJ83" s="70"/>
+      <c r="FK83" s="70"/>
       <c r="GH83" s="71"/>
       <c r="GI83" s="1" t="s">
         <v>27</v>
@@ -48779,35 +48779,35 @@
         <v>11.488659793814431</v>
       </c>
       <c r="GM83" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>11.488659793814431</v>
       </c>
       <c r="GP83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT83" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE83" s="71"/>
@@ -48839,59 +48839,59 @@
         <v>0</v>
       </c>
       <c r="HO83" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="HQ83" s="6">
         <v>0</v>
       </c>
       <c r="HT83" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA83" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB83" s="29"/>
       <c r="IC83" s="29"/>
       <c r="ID83" s="29"/>
       <c r="IE83" s="31"/>
-      <c r="IF83" s="77" t="s">
+      <c r="IF83" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="IG83" s="77"/>
-      <c r="IH83" s="77"/>
-      <c r="II83" s="77"/>
-      <c r="IJ83" s="77"/>
-      <c r="IK83" s="77"/>
-      <c r="IL83" s="77"/>
-      <c r="IM83" s="77"/>
-      <c r="JJ83" s="79"/>
+      <c r="IG83" s="70"/>
+      <c r="IH83" s="70"/>
+      <c r="II83" s="70"/>
+      <c r="IJ83" s="70"/>
+      <c r="IK83" s="70"/>
+      <c r="IL83" s="70"/>
+      <c r="IM83" s="70"/>
+      <c r="JJ83" s="78"/>
       <c r="JK83" s="63"/>
       <c r="JL83" s="51"/>
       <c r="JM83" s="31"/>
@@ -48935,58 +48935,58 @@
         <v>0</v>
       </c>
       <c r="KQ83" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="KS83" s="6">
         <v>0</v>
       </c>
       <c r="KV83" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC83" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD83" s="29"/>
       <c r="LE83" s="29"/>
       <c r="LF83" s="29"/>
       <c r="LG83" s="31"/>
-      <c r="LH83" s="77" t="s">
+      <c r="LH83" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="LI83" s="77"/>
-      <c r="LJ83" s="77"/>
-      <c r="LK83" s="77"/>
-      <c r="LL83" s="77"/>
-      <c r="LM83" s="77"/>
-      <c r="LN83" s="77"/>
-      <c r="LO83" s="77"/>
+      <c r="LI83" s="70"/>
+      <c r="LJ83" s="70"/>
+      <c r="LK83" s="70"/>
+      <c r="LL83" s="70"/>
+      <c r="LM83" s="70"/>
+      <c r="LN83" s="70"/>
+      <c r="LO83" s="70"/>
     </row>
     <row r="84" spans="1:327">
       <c r="A84" s="71"/>
@@ -49012,7 +49012,7 @@
         <v>-28.1</v>
       </c>
       <c r="Z84" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH84" s="6">
@@ -49116,7 +49116,7 @@
         <v>78.199999999999989</v>
       </c>
       <c r="BO84" s="7">
-        <f ca="1">BN84-AB45</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS84" s="6">
@@ -49144,7 +49144,7 @@
         <v>0.35933503836317143</v>
       </c>
       <c r="BZ84" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="DF84" s="71"/>
@@ -49156,35 +49156,35 @@
         <v>0.70634920634920628</v>
       </c>
       <c r="DK84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.70634920634920628</v>
       </c>
       <c r="DO84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR84" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC84" s="71"/>
@@ -49216,42 +49216,42 @@
         <v>0</v>
       </c>
       <c r="EM84" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="EO84" s="6">
         <v>0</v>
       </c>
       <c r="ER84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY84" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ84" s="31"/>
@@ -49267,35 +49267,35 @@
         <v>14.056349206349203</v>
       </c>
       <c r="GM84" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>14.056349206349203</v>
       </c>
       <c r="GQ84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT84" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE84" s="71"/>
@@ -49327,49 +49327,49 @@
         <v>0</v>
       </c>
       <c r="HO84" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>3.5527136788005009E-15</v>
       </c>
       <c r="HQ84" s="6">
         <v>0</v>
       </c>
       <c r="HT84" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA84" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB84" s="31"/>
       <c r="IC84" s="31"/>
       <c r="ID84" s="31"/>
       <c r="IE84" s="31"/>
-      <c r="JJ84" s="79"/>
+      <c r="JJ84" s="78"/>
       <c r="JK84" s="63"/>
       <c r="JL84" s="51"/>
       <c r="JM84" s="31"/>
@@ -49413,42 +49413,42 @@
         <v>-28.1</v>
       </c>
       <c r="KQ84" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="KS84" s="6">
         <v>0</v>
       </c>
       <c r="KV84" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC84" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD84" s="31"/>
@@ -49457,34 +49457,34 @@
       <c r="LG84" s="31"/>
       <c r="LH84" s="6">
         <f ca="1">SUM(LH81:LH82)</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="LI84" s="6">
-        <f t="shared" ref="LI84:LO84" ca="1" si="36">SUM(LI81:LI82)</f>
+        <f t="shared" ref="LI84:LO84" ca="1" si="38">SUM(LI81:LI82)</f>
         <v>101.85230179028133</v>
       </c>
       <c r="LJ84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="LK84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="LL84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="LM84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="LN84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="LO84" s="6">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -49512,7 +49512,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH85" s="6">
@@ -49616,7 +49616,7 @@
         <v>12.599999999999998</v>
       </c>
       <c r="BO85" s="7">
-        <f ca="1">BN85-AB46</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS85" s="6">
@@ -49644,7 +49644,7 @@
         <v>0</v>
       </c>
       <c r="BZ85" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="DF85" s="71"/>
@@ -49656,35 +49656,35 @@
         <v>0.5</v>
       </c>
       <c r="DK85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.5</v>
       </c>
       <c r="DP85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR85" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC85" s="71"/>
@@ -49716,42 +49716,42 @@
         <v>0</v>
       </c>
       <c r="EM85" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>-5.5511151231257827E-17</v>
       </c>
       <c r="EO85" s="6">
         <v>0</v>
       </c>
       <c r="ER85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY85" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ85" s="31"/>
@@ -49767,35 +49767,35 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="GM85" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>9.9499999999999993</v>
       </c>
       <c r="GR85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT85" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE85" s="71"/>
@@ -49827,49 +49827,49 @@
         <v>0</v>
       </c>
       <c r="HO85" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>-1.7763568394002505E-15</v>
       </c>
       <c r="HQ85" s="6">
         <v>0</v>
       </c>
       <c r="HT85" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA85" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB85" s="31"/>
       <c r="IC85" s="31"/>
       <c r="ID85" s="31"/>
       <c r="IE85" s="31"/>
-      <c r="JJ85" s="79"/>
+      <c r="JJ85" s="78"/>
       <c r="JK85" s="63"/>
       <c r="JL85" s="51"/>
       <c r="JM85" s="31"/>
@@ -49913,58 +49913,58 @@
         <v>0</v>
       </c>
       <c r="KQ85" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>-1.7763568394002505E-15</v>
       </c>
       <c r="KS85" s="6">
         <v>0</v>
       </c>
       <c r="KV85" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC85" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD85" s="31"/>
       <c r="LE85" s="31"/>
       <c r="LF85" s="31"/>
       <c r="LG85" s="31"/>
-      <c r="LH85" s="77" t="s">
+      <c r="LH85" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="LI85" s="77"/>
-      <c r="LJ85" s="77"/>
-      <c r="LK85" s="77"/>
-      <c r="LL85" s="77"/>
-      <c r="LM85" s="77"/>
-      <c r="LN85" s="77"/>
-      <c r="LO85" s="77"/>
+      <c r="LI85" s="70"/>
+      <c r="LJ85" s="70"/>
+      <c r="LK85" s="70"/>
+      <c r="LL85" s="70"/>
+      <c r="LM85" s="70"/>
+      <c r="LN85" s="70"/>
+      <c r="LO85" s="70"/>
     </row>
     <row r="86" spans="1:327">
       <c r="A86" s="71"/>
@@ -49990,7 +49990,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25.2</v>
       </c>
       <c r="AH86" s="6">
@@ -50094,7 +50094,7 @@
         <v>25.2</v>
       </c>
       <c r="BO86" s="7">
-        <f ca="1">BN86-AB47</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS86" s="6">
@@ -50122,7 +50122,7 @@
         <v>0</v>
       </c>
       <c r="BZ86" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DF86" s="71"/>
@@ -50134,35 +50134,35 @@
         <v>0</v>
       </c>
       <c r="DK86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR86" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC86" s="71"/>
@@ -50194,42 +50194,42 @@
         <v>0</v>
       </c>
       <c r="EM86" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="EO86" s="6">
         <v>0</v>
       </c>
       <c r="ER86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY86" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ86" s="31"/>
@@ -50245,35 +50245,35 @@
         <v>0</v>
       </c>
       <c r="GM86" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT86" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE86" s="71"/>
@@ -50305,49 +50305,49 @@
         <v>0</v>
       </c>
       <c r="HO86" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="HQ86" s="6">
         <v>0</v>
       </c>
       <c r="HT86" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA86" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB86" s="31"/>
       <c r="IC86" s="31"/>
       <c r="ID86" s="31"/>
       <c r="IE86" s="31"/>
-      <c r="JJ86" s="79"/>
+      <c r="JJ86" s="78"/>
       <c r="JK86" s="63"/>
       <c r="JL86" s="51"/>
       <c r="JM86" s="31"/>
@@ -50391,42 +50391,42 @@
         <v>0</v>
       </c>
       <c r="KQ86" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>25.2</v>
       </c>
       <c r="KS86" s="6">
         <v>0</v>
       </c>
       <c r="KV86" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC86" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD86" s="31"/>
@@ -50458,7 +50458,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
       <c r="AH87" s="6">
@@ -50562,7 +50562,7 @@
         <v>0.4</v>
       </c>
       <c r="BO87" s="7">
-        <f ca="1">BN87-AB48</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS87" s="6">
@@ -50590,7 +50590,7 @@
         <v>0</v>
       </c>
       <c r="BZ87" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DF87" s="71"/>
@@ -50602,35 +50602,35 @@
         <v>0</v>
       </c>
       <c r="DK87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR87" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC87" s="71"/>
@@ -50662,42 +50662,42 @@
         <v>0</v>
       </c>
       <c r="EM87" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="EO87" s="6">
         <v>0</v>
       </c>
       <c r="ER87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY87" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ87" s="31"/>
@@ -50713,35 +50713,35 @@
         <v>0</v>
       </c>
       <c r="GM87" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT87" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE87" s="71"/>
@@ -50773,49 +50773,49 @@
         <v>0</v>
       </c>
       <c r="HO87" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="HQ87" s="6">
         <v>0</v>
       </c>
       <c r="HT87" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA87" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB87" s="31"/>
       <c r="IC87" s="31"/>
       <c r="ID87" s="31"/>
       <c r="IE87" s="31"/>
-      <c r="JJ87" s="79"/>
+      <c r="JJ87" s="78"/>
       <c r="JK87" s="63"/>
       <c r="JL87" s="51"/>
       <c r="JM87" s="31"/>
@@ -50859,42 +50859,42 @@
         <v>0</v>
       </c>
       <c r="KQ87" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0.4</v>
       </c>
       <c r="KS87" s="6">
         <v>0</v>
       </c>
       <c r="KV87" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC87" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD87" s="31"/>
@@ -50926,7 +50926,7 @@
         <v>5.9</v>
       </c>
       <c r="Z88" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.9</v>
       </c>
       <c r="AH88" s="6">
@@ -51030,7 +51030,7 @@
         <v>5.9</v>
       </c>
       <c r="BO88" s="7">
-        <f ca="1">BN88-AB49</f>
+        <f t="shared" ca="1" si="25"/>
         <v>0</v>
       </c>
       <c r="BS88" s="6">
@@ -51058,7 +51058,7 @@
         <v>0</v>
       </c>
       <c r="BZ88" s="7">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="DF88" s="71"/>
@@ -51070,35 +51070,35 @@
         <v>0</v>
       </c>
       <c r="DK88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DL88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DM88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DN88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DO88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DP88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DQ88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="DR88" s="6">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="EC88" s="71"/>
@@ -51130,42 +51130,42 @@
         <v>0</v>
       </c>
       <c r="EM88" s="6">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="EO88" s="6">
         <v>0</v>
       </c>
       <c r="ER88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ES88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="ET88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EU88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EV88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EW88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EX88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EY88" s="6">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="EZ88" s="31"/>
@@ -51181,35 +51181,35 @@
         <v>0</v>
       </c>
       <c r="GM88" s="6">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="GN88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GO88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GP88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GQ88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GR88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GS88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="GT88" s="6">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="HE88" s="71"/>
@@ -51241,49 +51241,49 @@
         <v>0</v>
       </c>
       <c r="HO88" s="6">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="HQ88" s="6">
         <v>0</v>
       </c>
       <c r="HT88" s="6">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="HU88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HV88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HW88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HX88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HY88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="HZ88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IA88" s="6">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="IB88" s="31"/>
       <c r="IC88" s="31"/>
       <c r="ID88" s="31"/>
       <c r="IE88" s="31"/>
-      <c r="JJ88" s="79"/>
+      <c r="JJ88" s="78"/>
       <c r="JK88" s="63"/>
       <c r="JL88" s="51"/>
       <c r="JM88" s="31"/>
@@ -51327,42 +51327,42 @@
         <v>5.9</v>
       </c>
       <c r="KQ88" s="6">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>5.9</v>
       </c>
       <c r="KS88" s="6">
         <v>0</v>
       </c>
       <c r="KV88" s="6">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="KW88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KX88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KY88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="KZ88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LA88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LB88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LC88" s="6">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="LD88" s="31"/>
@@ -51371,14 +51371,14 @@
       <c r="LG88" s="31"/>
     </row>
     <row r="89" spans="1:327" ht="20">
-      <c r="L89" s="77" t="s">
+      <c r="L89" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
       <c r="Z89" s="45" t="s">
         <v>11</v>
       </c>
@@ -51484,30 +51484,30 @@
       <c r="EB89" s="8"/>
       <c r="EC89" s="8"/>
       <c r="ED89" s="8"/>
-      <c r="EE89" s="77" t="s">
+      <c r="EE89" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="EF89" s="77"/>
-      <c r="EG89" s="77"/>
-      <c r="EH89" s="77"/>
-      <c r="EI89" s="77"/>
-      <c r="EJ89" s="77"/>
+      <c r="EF89" s="70"/>
+      <c r="EG89" s="70"/>
+      <c r="EH89" s="70"/>
+      <c r="EI89" s="70"/>
+      <c r="EJ89" s="70"/>
       <c r="EM89" s="45" t="s">
         <v>116</v>
       </c>
       <c r="EO89" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="ER89" s="77" t="s">
+      <c r="ER89" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="ES89" s="77"/>
-      <c r="ET89" s="77"/>
-      <c r="EU89" s="77"/>
-      <c r="EV89" s="77"/>
-      <c r="EW89" s="77"/>
-      <c r="EX89" s="77"/>
-      <c r="EY89" s="77"/>
+      <c r="ES89" s="70"/>
+      <c r="ET89" s="70"/>
+      <c r="EU89" s="70"/>
+      <c r="EV89" s="70"/>
+      <c r="EW89" s="70"/>
+      <c r="EX89" s="70"/>
+      <c r="EY89" s="70"/>
       <c r="FO89" s="57"/>
       <c r="FP89" s="8"/>
       <c r="FQ89" s="8"/>
@@ -51552,30 +51552,30 @@
       <c r="HD89" s="8"/>
       <c r="HE89" s="8"/>
       <c r="HF89" s="8"/>
-      <c r="HG89" s="77" t="s">
+      <c r="HG89" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="HH89" s="77"/>
-      <c r="HI89" s="77"/>
-      <c r="HJ89" s="77"/>
-      <c r="HK89" s="77"/>
-      <c r="HL89" s="77"/>
+      <c r="HH89" s="70"/>
+      <c r="HI89" s="70"/>
+      <c r="HJ89" s="70"/>
+      <c r="HK89" s="70"/>
+      <c r="HL89" s="70"/>
       <c r="HO89" s="52" t="s">
         <v>127</v>
       </c>
       <c r="HQ89" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="HT89" s="77" t="s">
+      <c r="HT89" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="HU89" s="77"/>
-      <c r="HV89" s="77"/>
-      <c r="HW89" s="77"/>
-      <c r="HX89" s="77"/>
-      <c r="HY89" s="77"/>
-      <c r="HZ89" s="77"/>
-      <c r="IA89" s="77"/>
+      <c r="HU89" s="70"/>
+      <c r="HV89" s="70"/>
+      <c r="HW89" s="70"/>
+      <c r="HX89" s="70"/>
+      <c r="HY89" s="70"/>
+      <c r="HZ89" s="70"/>
+      <c r="IA89" s="70"/>
       <c r="IQ89" s="57"/>
       <c r="IR89" s="8"/>
       <c r="IS89" s="8"/>
@@ -51600,14 +51600,14 @@
       <c r="JL89" s="55"/>
       <c r="JM89" s="31"/>
       <c r="JN89" s="31"/>
-      <c r="JO89" s="76"/>
-      <c r="JP89" s="76"/>
-      <c r="JQ89" s="76"/>
-      <c r="JR89" s="76"/>
-      <c r="JS89" s="76"/>
-      <c r="JT89" s="76"/>
-      <c r="JU89" s="76"/>
-      <c r="JV89" s="76"/>
+      <c r="JO89" s="73"/>
+      <c r="JP89" s="73"/>
+      <c r="JQ89" s="73"/>
+      <c r="JR89" s="73"/>
+      <c r="JS89" s="73"/>
+      <c r="JT89" s="73"/>
+      <c r="JU89" s="73"/>
+      <c r="JV89" s="73"/>
       <c r="JW89" s="29"/>
       <c r="JX89" s="29"/>
       <c r="JY89" s="8"/>
@@ -51620,30 +51620,30 @@
       <c r="KF89" s="8"/>
       <c r="KG89" s="8"/>
       <c r="KH89" s="8"/>
-      <c r="KI89" s="77" t="s">
+      <c r="KI89" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="KJ89" s="77"/>
-      <c r="KK89" s="77"/>
-      <c r="KL89" s="77"/>
-      <c r="KM89" s="77"/>
-      <c r="KN89" s="77"/>
+      <c r="KJ89" s="70"/>
+      <c r="KK89" s="70"/>
+      <c r="KL89" s="70"/>
+      <c r="KM89" s="70"/>
+      <c r="KN89" s="70"/>
       <c r="KQ89" s="52" t="s">
         <v>98</v>
       </c>
       <c r="KS89" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="KV89" s="77" t="s">
+      <c r="KV89" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="KW89" s="77"/>
-      <c r="KX89" s="77"/>
-      <c r="KY89" s="77"/>
-      <c r="KZ89" s="77"/>
-      <c r="LA89" s="77"/>
-      <c r="LB89" s="77"/>
-      <c r="LC89" s="77"/>
+      <c r="KW89" s="70"/>
+      <c r="KX89" s="70"/>
+      <c r="KY89" s="70"/>
+      <c r="KZ89" s="70"/>
+      <c r="LA89" s="70"/>
+      <c r="LB89" s="70"/>
+      <c r="LC89" s="70"/>
     </row>
     <row r="90" spans="1:327" ht="16" customHeight="1">
       <c r="J90" s="71" t="s">
@@ -51654,7 +51654,7 @@
       </c>
       <c r="L90" s="16">
         <f t="array" ref="L90:Q92">MMULT(TRANSPOSE(C28:E35), L81:Q88)</f>
-        <v>-3</v>
+        <v>-77.599999999999994</v>
       </c>
       <c r="M90" s="16">
         <v>-8.7999999999999972</v>
@@ -51679,7 +51679,7 @@
       </c>
       <c r="EE90" s="16">
         <f t="array" aca="1" ref="EE90:EJ92" ca="1">MMULT(TRANSPOSE($C$28:$E$35), EE81:EJ88)</f>
-        <v>-3</v>
+        <v>-77.599999999999994</v>
       </c>
       <c r="EF90" s="16">
         <f ca="1"/>
@@ -51703,7 +51703,7 @@
       </c>
       <c r="EM90" s="6">
         <f ca="1">SUM(EE90:EJ90)</f>
-        <v>-23.185836073559859</v>
+        <v>-97.785836073559835</v>
       </c>
       <c r="HE90" s="71" t="s">
         <v>30</v>
@@ -51713,7 +51713,7 @@
       </c>
       <c r="HG90" s="16">
         <f t="array" aca="1" ref="HG90:HL92" ca="1">MMULT(TRANSPOSE($C$28:$E$35), HG81:HL88)</f>
-        <v>-1.538659793814432</v>
+        <v>-39.799999999999997</v>
       </c>
       <c r="HH90" s="16">
         <f ca="1"/>
@@ -51737,7 +51737,7 @@
       </c>
       <c r="HO90" s="6">
         <f ca="1">SUM(HG90:HL90)</f>
-        <v>-27.126797657655619</v>
+        <v>-65.388137863841195</v>
       </c>
       <c r="KG90" s="71" t="s">
         <v>30</v>
@@ -51747,7 +51747,7 @@
       </c>
       <c r="KI90" s="16">
         <f t="array" aca="1" ref="KI90:KN92" ca="1">MMULT(TRANSPOSE($C$28:$E$35), KI81:KN88)</f>
-        <v>-1.5386597938144337</v>
+        <v>-39.800000000000011</v>
       </c>
       <c r="KJ90" s="16">
         <f ca="1"/>
@@ -51822,7 +51822,7 @@
         <v>0</v>
       </c>
       <c r="EM91" s="6">
-        <f t="shared" ref="EM91:EM92" ca="1" si="37">SUM(EE91:EJ91)</f>
+        <f t="shared" ref="EM91:EM92" ca="1" si="39">SUM(EE91:EJ91)</f>
         <v>0</v>
       </c>
       <c r="HE91" s="71"/>
@@ -51854,7 +51854,7 @@
         <v>0</v>
       </c>
       <c r="HO91" s="6">
-        <f t="shared" ref="HO91:HO92" ca="1" si="38">SUM(HG91:HL91)</f>
+        <f t="shared" ref="HO91:HO92" ca="1" si="40">SUM(HG91:HL91)</f>
         <v>0</v>
       </c>
       <c r="KG91" s="71"/>
@@ -51948,7 +51948,7 @@
         <v>0</v>
       </c>
       <c r="EM92" s="6">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
       <c r="HE92" s="71"/>
@@ -51980,7 +51980,7 @@
         <v>0</v>
       </c>
       <c r="HO92" s="6">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="40"/>
         <v>0</v>
       </c>
       <c r="KG92" s="71"/>
@@ -52013,22 +52013,22 @@
       </c>
     </row>
     <row r="93" spans="1:327" ht="20">
-      <c r="L93" s="77" t="s">
+      <c r="L93" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="77"/>
-      <c r="EE93" s="77" t="s">
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="EE93" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="EF93" s="77"/>
-      <c r="EG93" s="77"/>
-      <c r="EH93" s="77"/>
-      <c r="EI93" s="77"/>
-      <c r="EJ93" s="77"/>
+      <c r="EF93" s="70"/>
+      <c r="EG93" s="70"/>
+      <c r="EH93" s="70"/>
+      <c r="EI93" s="70"/>
+      <c r="EJ93" s="70"/>
       <c r="EM93" s="53" t="s">
         <v>137</v>
       </c>
@@ -52037,25 +52037,25 @@
       <c r="EP93" s="53"/>
       <c r="EQ93" s="53"/>
       <c r="ER93" s="53"/>
-      <c r="HG93" s="77" t="s">
+      <c r="HG93" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="HH93" s="77"/>
-      <c r="HI93" s="77"/>
-      <c r="HJ93" s="77"/>
-      <c r="HK93" s="77"/>
-      <c r="HL93" s="77"/>
+      <c r="HH93" s="70"/>
+      <c r="HI93" s="70"/>
+      <c r="HJ93" s="70"/>
+      <c r="HK93" s="70"/>
+      <c r="HL93" s="70"/>
       <c r="HO93" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="KI93" s="77" t="s">
+      <c r="KI93" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="KJ93" s="77"/>
-      <c r="KK93" s="77"/>
-      <c r="KL93" s="77"/>
-      <c r="KM93" s="77"/>
-      <c r="KN93" s="77"/>
+      <c r="KJ93" s="70"/>
+      <c r="KK93" s="70"/>
+      <c r="KL93" s="70"/>
+      <c r="KM93" s="70"/>
+      <c r="KN93" s="70"/>
     </row>
     <row r="96" spans="1:327" ht="47">
       <c r="A96" s="27" t="s">
@@ -52139,15 +52139,15 @@
       </c>
       <c r="C100" s="6">
         <f t="array" ref="C100:C107">TRANSPOSE(C75:J75)</f>
-        <v>22.4</v>
+        <v>97</v>
       </c>
       <c r="E100" s="6">
-        <f t="shared" ref="E100:E107" si="39">Z81</f>
-        <v>-22.4</v>
+        <f t="shared" ref="E100:E107" si="41">Z81</f>
+        <v>-97</v>
       </c>
       <c r="F100" s="50"/>
       <c r="G100" s="4">
-        <f>Z42</f>
+        <f t="shared" ref="G100:G107" si="42">Z42</f>
         <v>0</v>
       </c>
       <c r="I100" s="7">
@@ -52162,15 +52162,15 @@
       </c>
       <c r="JY100" s="6">
         <f t="array" aca="1" ref="JY100:JY107" ca="1">TRANSPOSE(LH84:LO84)</f>
-        <v>11.488659793814435</v>
+        <v>49.750000000000014</v>
       </c>
       <c r="KA100" s="6">
         <f ca="1">KQ81</f>
-        <v>-11.488659793814435</v>
+        <v>-49.750000000000014</v>
       </c>
       <c r="KB100" s="51"/>
       <c r="KC100" s="4">
-        <f>KP42</f>
+        <f t="shared" ref="KC100:KC107" si="43">KP42</f>
         <v>0</v>
       </c>
       <c r="KE100" s="7">
@@ -52187,16 +52187,16 @@
         <v>87</v>
       </c>
       <c r="E101" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-87</v>
       </c>
       <c r="F101" s="50"/>
       <c r="G101" s="4">
-        <f>Z43</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I101" s="7">
-        <f t="shared" ref="I101:I107" si="40">C101+E101-G101</f>
+        <f t="shared" ref="I101:I107" si="44">C101+E101-G101</f>
         <v>0</v>
       </c>
       <c r="JW101" s="71"/>
@@ -52208,16 +52208,16 @@
         <v>101.85230179028133</v>
       </c>
       <c r="KA101" s="6">
-        <f t="shared" ref="KA101:KA107" ca="1" si="41">KQ82</f>
+        <f t="shared" ref="KA101:KA107" ca="1" si="45">KQ82</f>
         <v>-101.85230179028133</v>
       </c>
       <c r="KB101" s="51"/>
       <c r="KC101" s="4">
-        <f>KP43</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="KE101" s="7">
-        <f t="shared" ref="KE101:KE107" ca="1" si="42">JY101+KA101-KC101</f>
+        <f t="shared" ref="KE101:KE107" ca="1" si="46">JY101+KA101-KC101</f>
         <v>0</v>
       </c>
     </row>
@@ -52230,15 +52230,15 @@
         <v>0</v>
       </c>
       <c r="E102" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G102" s="4">
-        <f>Z44</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I102" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW102" s="71"/>
@@ -52250,15 +52250,15 @@
         <v>0</v>
       </c>
       <c r="KA102" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>1.7763568394002505E-15</v>
       </c>
       <c r="KC102" s="4">
-        <f>KP44</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="KE102" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>1.7763568394002505E-15</v>
       </c>
     </row>
@@ -52274,21 +52274,21 @@
         <v>56</v>
       </c>
       <c r="E103" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F103" s="45" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="4">
-        <f>Z45</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H103" s="48" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW103" s="71"/>
@@ -52303,21 +52303,21 @@
         <v>56</v>
       </c>
       <c r="KA103" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0</v>
       </c>
       <c r="KB103" s="52" t="s">
         <v>9</v>
       </c>
       <c r="KC103" s="4">
-        <f>KP45</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="KD103" s="53" t="s">
         <v>10</v>
       </c>
       <c r="KE103" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -52330,16 +52330,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F104" s="50"/>
       <c r="G104" s="4">
-        <f>Z46</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I104" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW104" s="71"/>
@@ -52351,16 +52351,16 @@
         <v>0</v>
       </c>
       <c r="KA104" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>-1.7763568394002505E-15</v>
       </c>
       <c r="KB104" s="51"/>
       <c r="KC104" s="4">
-        <f>KP46</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="KE104" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>-1.7763568394002505E-15</v>
       </c>
     </row>
@@ -52373,16 +52373,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>25.2</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="4">
-        <f>Z47</f>
+        <f t="shared" si="42"/>
         <v>25.2</v>
       </c>
       <c r="I105" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW105" s="71"/>
@@ -52394,16 +52394,16 @@
         <v>0</v>
       </c>
       <c r="KA105" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>25.2</v>
       </c>
       <c r="KB105" s="51"/>
       <c r="KC105" s="4">
-        <f>KP47</f>
+        <f t="shared" si="43"/>
         <v>25.2</v>
       </c>
       <c r="KE105" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -52416,15 +52416,15 @@
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.4</v>
       </c>
       <c r="G106" s="4">
-        <f>Z48</f>
+        <f t="shared" si="42"/>
         <v>0.4</v>
       </c>
       <c r="I106" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW106" s="71"/>
@@ -52436,15 +52436,15 @@
         <v>0</v>
       </c>
       <c r="KA106" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.4</v>
       </c>
       <c r="KC106" s="4">
-        <f>KP48</f>
+        <f t="shared" si="43"/>
         <v>0.4</v>
       </c>
       <c r="KE106" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -52457,16 +52457,16 @@
         <v>0</v>
       </c>
       <c r="E107" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.9</v>
       </c>
       <c r="F107" s="50"/>
       <c r="G107" s="4">
-        <f>Z49</f>
+        <f t="shared" si="42"/>
         <v>5.9</v>
       </c>
       <c r="I107" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="JW107" s="71"/>
@@ -52478,16 +52478,16 @@
         <v>0</v>
       </c>
       <c r="KA107" s="6">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="45"/>
         <v>5.9</v>
       </c>
       <c r="KB107" s="51"/>
       <c r="KC107" s="4">
-        <f>KP49</f>
+        <f t="shared" si="43"/>
         <v>5.9</v>
       </c>
       <c r="KE107" s="7">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -52631,20 +52631,20 @@
         <v>22</v>
       </c>
       <c r="C112" s="6">
-        <f>Z61</f>
+        <f t="shared" ref="C112:E117" si="47">Z61</f>
         <v>22.4</v>
       </c>
       <c r="D112" s="6">
-        <f>AA61</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E112" s="6">
-        <f>AB61</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G112" s="6">
         <f t="array" ref="G112:I117">TRANSPOSE(L90:Q92)</f>
-        <v>-3</v>
+        <v>-77.599999999999994</v>
       </c>
       <c r="H112" s="6">
         <v>0</v>
@@ -52654,7 +52654,7 @@
       </c>
       <c r="K112" s="6">
         <f t="array" ref="K112:M117">TRANSPOSE(L51:Q53)</f>
-        <v>25.4</v>
+        <v>100</v>
       </c>
       <c r="L112" s="6">
         <v>0</v>
@@ -52667,11 +52667,11 @@
         <v>0</v>
       </c>
       <c r="P112" s="7">
-        <f t="shared" ref="P112:Q117" si="43">D112-H112-L112</f>
+        <f t="shared" ref="P112:Q117" si="48">D112-H112-L112</f>
         <v>0</v>
       </c>
       <c r="Q112" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN112" s="18"/>
@@ -52684,20 +52684,20 @@
         <v>22</v>
       </c>
       <c r="JY112" s="6">
-        <f ca="1">KP61</f>
+        <f t="shared" ref="JY112:KA117" ca="1" si="49">KP61</f>
         <v>11.488659793814435</v>
       </c>
       <c r="JZ112" s="6">
-        <f ca="1">KQ61</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KA112" s="6">
-        <f ca="1">KR61</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KC112" s="6">
         <f t="array" aca="1" ref="KC112:KE117" ca="1">TRANSPOSE(KI90:KN92)</f>
-        <v>-1.5386597938144337</v>
+        <v>-39.800000000000011</v>
       </c>
       <c r="KD112" s="6">
         <f ca="1"/>
@@ -52709,7 +52709,7 @@
       </c>
       <c r="KG112" s="6">
         <f t="array" aca="1" ref="KG112:KI117" ca="1">TRANSPOSE(KI51:KN53)</f>
-        <v>13.027319587628869</v>
+        <v>51.288659793814446</v>
       </c>
       <c r="KH112" s="6">
         <f ca="1"/>
@@ -52724,11 +52724,11 @@
         <v>0</v>
       </c>
       <c r="KL112" s="7">
-        <f t="shared" ref="KL112:KL117" ca="1" si="44">JZ112-KD112-KH112</f>
+        <f t="shared" ref="KL112:KL117" ca="1" si="50">JZ112-KD112-KH112</f>
         <v>0</v>
       </c>
       <c r="KM112" s="7">
-        <f t="shared" ref="KM112:KM117" ca="1" si="45">KA112-KE112-KI112</f>
+        <f t="shared" ref="KM112:KM117" ca="1" si="51">KA112-KE112-KI112</f>
         <v>0</v>
       </c>
     </row>
@@ -52738,15 +52738,15 @@
         <v>24</v>
       </c>
       <c r="C113" s="6">
-        <f>Z62</f>
+        <f t="shared" si="47"/>
         <v>78.2</v>
       </c>
       <c r="D113" s="6">
-        <f>AA62</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E113" s="6">
-        <f>AB62</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G113" s="6">
@@ -52768,15 +52768,15 @@
         <v>0</v>
       </c>
       <c r="O113" s="7">
-        <f t="shared" ref="O113:O117" si="46">C113-G113-K113</f>
+        <f t="shared" ref="O113:O117" si="52">C113-G113-K113</f>
         <v>0</v>
       </c>
       <c r="P113" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q113" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN113" s="18"/>
@@ -52787,15 +52787,15 @@
         <v>24</v>
       </c>
       <c r="JY113" s="6">
-        <f ca="1">KP62</f>
+        <f t="shared" ca="1" si="49"/>
         <v>91.550000000000011</v>
       </c>
       <c r="JZ113" s="6">
-        <f ca="1">KQ62</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KA113" s="6">
-        <f ca="1">KR62</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KC113" s="6">
@@ -52823,15 +52823,15 @@
         <v>0</v>
       </c>
       <c r="KK113" s="7">
-        <f t="shared" ref="KK113:KK117" ca="1" si="47">JY113-KC113-KG113</f>
+        <f t="shared" ref="KK113:KK117" ca="1" si="53">JY113-KC113-KG113</f>
         <v>0</v>
       </c>
       <c r="KL113" s="7">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="KM113" s="7">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -52841,15 +52841,15 @@
         <v>25</v>
       </c>
       <c r="C114" s="6">
-        <f>Z63</f>
+        <f t="shared" si="47"/>
         <v>12.6</v>
       </c>
       <c r="D114" s="6">
-        <f>AA63</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E114" s="6">
-        <f>AB63</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F114" s="45" t="s">
@@ -52880,15 +52880,15 @@
         <v>10</v>
       </c>
       <c r="O114" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P114" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q114" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN114" s="18"/>
@@ -52899,15 +52899,15 @@
         <v>25</v>
       </c>
       <c r="JY114" s="6">
-        <f ca="1">KP63</f>
+        <f t="shared" ca="1" si="49"/>
         <v>22.049999999999997</v>
       </c>
       <c r="JZ114" s="6">
-        <f ca="1">KQ63</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KA114" s="6">
-        <f ca="1">KR63</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KB114" s="52" t="s">
@@ -52944,15 +52944,15 @@
         <v>10</v>
       </c>
       <c r="KK114" s="7">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="KL114" s="7">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="KM114" s="7">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -52962,15 +52962,15 @@
         <v>0</v>
       </c>
       <c r="C115" s="6">
-        <f>Z64</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D115" s="6">
-        <f>AA64</f>
+        <f t="shared" si="47"/>
         <v>25.2</v>
       </c>
       <c r="E115" s="6">
-        <f>AB64</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G115" s="6">
@@ -52992,15 +52992,15 @@
         <v>0</v>
       </c>
       <c r="O115" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P115" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q115" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN115" s="18"/>
@@ -53011,15 +53011,15 @@
         <v>0</v>
       </c>
       <c r="JY115" s="6">
-        <f ca="1">KP64</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="JZ115" s="6">
-        <f ca="1">KQ64</f>
+        <f t="shared" ca="1" si="49"/>
         <v>25.2</v>
       </c>
       <c r="KA115" s="6">
-        <f ca="1">KR64</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KC115" s="6">
@@ -53047,15 +53047,15 @@
         <v>0</v>
       </c>
       <c r="KK115" s="7">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="KL115" s="7">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="KM115" s="7">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -53065,15 +53065,15 @@
         <v>15</v>
       </c>
       <c r="C116" s="6">
-        <f>Z65</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D116" s="6">
-        <f>AA65</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E116" s="6">
-        <f>AB65</f>
+        <f t="shared" si="47"/>
         <v>0.4</v>
       </c>
       <c r="G116" s="6">
@@ -53095,15 +53095,15 @@
         <v>0</v>
       </c>
       <c r="O116" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P116" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q116" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN116" s="18"/>
@@ -53114,15 +53114,15 @@
         <v>15</v>
       </c>
       <c r="JY116" s="6">
-        <f ca="1">KP65</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="JZ116" s="6">
-        <f ca="1">KQ65</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KA116" s="6">
-        <f ca="1">KR65</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0.4</v>
       </c>
       <c r="KC116" s="6">
@@ -53150,15 +53150,15 @@
         <v>0</v>
       </c>
       <c r="KK116" s="7">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="KL116" s="7">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="KM116" s="7">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -53168,15 +53168,15 @@
         <v>16</v>
       </c>
       <c r="C117" s="6">
-        <f>Z66</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D117" s="6">
-        <f>AA66</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E117" s="6">
-        <f>AB66</f>
+        <f t="shared" si="47"/>
         <v>5.9</v>
       </c>
       <c r="G117" s="6">
@@ -53198,15 +53198,15 @@
         <v>0</v>
       </c>
       <c r="O117" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="P117" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q117" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AN117" s="18"/>
@@ -53217,15 +53217,15 @@
         <v>16</v>
       </c>
       <c r="JY117" s="6">
-        <f ca="1">KP66</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="JZ117" s="6">
-        <f ca="1">KQ66</f>
+        <f t="shared" ca="1" si="49"/>
         <v>0</v>
       </c>
       <c r="KA117" s="6">
-        <f ca="1">KR66</f>
+        <f t="shared" ca="1" si="49"/>
         <v>5.9</v>
       </c>
       <c r="KC117" s="6">
@@ -53253,15 +53253,15 @@
         <v>0</v>
       </c>
       <c r="KK117" s="7">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0</v>
       </c>
       <c r="KL117" s="7">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="KM117" s="7">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -53271,17 +53271,17 @@
       </c>
       <c r="D118" s="69"/>
       <c r="E118" s="69"/>
-      <c r="G118" s="77" t="s">
+      <c r="G118" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="77" t="s">
+      <c r="K118" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
       <c r="N118" s="17"/>
       <c r="O118" s="17" t="s">
         <v>41</v>
@@ -53296,17 +53296,17 @@
       </c>
       <c r="JZ118" s="69"/>
       <c r="KA118" s="69"/>
-      <c r="KC118" s="77" t="s">
+      <c r="KC118" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="KD118" s="77"/>
-      <c r="KE118" s="77"/>
+      <c r="KD118" s="70"/>
+      <c r="KE118" s="70"/>
       <c r="KF118" s="17"/>
-      <c r="KG118" s="77" t="s">
+      <c r="KG118" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="KH118" s="77"/>
-      <c r="KI118" s="77"/>
+      <c r="KH118" s="70"/>
+      <c r="KI118" s="70"/>
       <c r="KJ118" s="17"/>
       <c r="KK118" s="17" t="s">
         <v>150</v>
@@ -53341,16 +53341,16 @@
         <v>22</v>
       </c>
       <c r="C123" s="6">
-        <f>AD61</f>
+        <f t="shared" ref="C123:C128" si="54">AD61</f>
         <v>22.4</v>
       </c>
       <c r="D123" s="6">
         <f t="array" ref="D123:D128">TRANSPOSE(L51:Q51)</f>
-        <v>25.4</v>
+        <v>100</v>
       </c>
       <c r="F123" s="6">
         <f>C123/D123</f>
-        <v>0.88188976377952755</v>
+        <v>0.22399999999999998</v>
       </c>
       <c r="JW123" s="71" t="s">
         <v>3</v>
@@ -53359,16 +53359,16 @@
         <v>22</v>
       </c>
       <c r="JY123" s="6">
-        <f ca="1">KT61</f>
+        <f t="shared" ref="JY123:JY128" ca="1" si="55">KT61</f>
         <v>11.488659793814435</v>
       </c>
       <c r="JZ123" s="6">
         <f t="array" aca="1" ref="JZ123:JZ128" ca="1">TRANSPOSE(KI55:KN55)</f>
-        <v>13.027319587628869</v>
+        <v>51.288659793814446</v>
       </c>
       <c r="KB123" s="6">
         <f ca="1">JY123/JZ123</f>
-        <v>0.88188976377952755</v>
+        <v>0.22399999999999998</v>
       </c>
       <c r="KD123" s="7">
         <f ca="1">KB123-F123</f>
@@ -53381,14 +53381,14 @@
         <v>24</v>
       </c>
       <c r="C124" s="6">
-        <f>AD62</f>
+        <f t="shared" si="54"/>
         <v>78.2</v>
       </c>
       <c r="D124" s="6">
         <v>87</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" ref="F124:F128" si="48">C124/D124</f>
+        <f t="shared" ref="F124:F128" si="56">C124/D124</f>
         <v>0.89885057471264374</v>
       </c>
       <c r="JW124" s="71"/>
@@ -53396,7 +53396,7 @@
         <v>24</v>
       </c>
       <c r="JY124" s="6">
-        <f ca="1">KT62</f>
+        <f t="shared" ca="1" si="55"/>
         <v>91.550000000000011</v>
       </c>
       <c r="JZ124" s="6">
@@ -53404,11 +53404,11 @@
         <v>101.85230179028133</v>
       </c>
       <c r="KB124" s="6">
-        <f t="shared" ref="KB124:KB128" ca="1" si="49">JY124/JZ124</f>
+        <f t="shared" ref="KB124:KB128" ca="1" si="57">JY124/JZ124</f>
         <v>0.89885057471264374</v>
       </c>
       <c r="KD124" s="7">
-        <f t="shared" ref="KD124:KD128" ca="1" si="50">KB124-F124</f>
+        <f t="shared" ref="KD124:KD128" ca="1" si="58">KB124-F124</f>
         <v>0</v>
       </c>
     </row>
@@ -53418,14 +53418,14 @@
         <v>25</v>
       </c>
       <c r="C125" s="6">
-        <f>AD63</f>
+        <f t="shared" si="54"/>
         <v>12.6</v>
       </c>
       <c r="D125" s="6">
         <v>17.8</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.7078651685393258</v>
       </c>
       <c r="JW125" s="71"/>
@@ -53433,7 +53433,7 @@
         <v>25</v>
       </c>
       <c r="JY125" s="6">
-        <f ca="1">KT63</f>
+        <f t="shared" ca="1" si="55"/>
         <v>22.049999999999997</v>
       </c>
       <c r="JZ125" s="6">
@@ -53441,11 +53441,11 @@
         <v>31.15</v>
       </c>
       <c r="KB125" s="6">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="57"/>
         <v>0.7078651685393258</v>
       </c>
       <c r="KD125" s="7">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -53455,14 +53455,14 @@
         <v>0</v>
       </c>
       <c r="C126" s="6">
-        <f>AD64</f>
+        <f t="shared" si="54"/>
         <v>25.2</v>
       </c>
       <c r="D126" s="6">
         <v>44.4</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.56756756756756754</v>
       </c>
       <c r="JW126" s="71"/>
@@ -53470,7 +53470,7 @@
         <v>0</v>
       </c>
       <c r="JY126" s="6">
-        <f ca="1">KT64</f>
+        <f t="shared" ca="1" si="55"/>
         <v>25.2</v>
       </c>
       <c r="JZ126" s="6">
@@ -53478,11 +53478,11 @@
         <v>44.4</v>
       </c>
       <c r="KB126" s="6">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="57"/>
         <v>0.56756756756756754</v>
       </c>
       <c r="KD126" s="7">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -53492,14 +53492,14 @@
         <v>15</v>
       </c>
       <c r="C127" s="6">
-        <f>AD65</f>
+        <f t="shared" si="54"/>
         <v>0.4</v>
       </c>
       <c r="D127" s="6">
         <v>19.899999999999999</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>2.0100502512562818E-2</v>
       </c>
       <c r="JW127" s="71"/>
@@ -53507,7 +53507,7 @@
         <v>15</v>
       </c>
       <c r="JY127" s="6">
-        <f ca="1">KT65</f>
+        <f t="shared" ca="1" si="55"/>
         <v>0.4</v>
       </c>
       <c r="JZ127" s="6">
@@ -53515,11 +53515,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="KB127" s="6">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="57"/>
         <v>2.0100502512562818E-2</v>
       </c>
       <c r="KD127" s="7">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -53529,14 +53529,14 @@
         <v>16</v>
       </c>
       <c r="C128" s="6">
-        <f>AD66</f>
+        <f t="shared" si="54"/>
         <v>5.9</v>
       </c>
       <c r="D128" s="6">
         <v>28.1</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0.20996441281138789</v>
       </c>
       <c r="JW128" s="71"/>
@@ -53544,7 +53544,7 @@
         <v>16</v>
       </c>
       <c r="JY128" s="6">
-        <f ca="1">KT66</f>
+        <f t="shared" ca="1" si="55"/>
         <v>5.9</v>
       </c>
       <c r="JZ128" s="6">
@@ -53552,11 +53552,11 @@
         <v>28.1</v>
       </c>
       <c r="KB128" s="6">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="57"/>
         <v>0.20996441281138789</v>
       </c>
       <c r="KD128" s="7">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0</v>
       </c>
     </row>
@@ -53585,133 +53585,28 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="JW98:KE98"/>
-    <mergeCell ref="JW100:JW107"/>
-    <mergeCell ref="JW110:KE110"/>
-    <mergeCell ref="JW112:JW117"/>
-    <mergeCell ref="JY118:KA118"/>
-    <mergeCell ref="KC118:KE118"/>
-    <mergeCell ref="KG118:KI118"/>
-    <mergeCell ref="JW123:JW128"/>
-    <mergeCell ref="JJ81:JJ88"/>
-    <mergeCell ref="KG81:KG88"/>
-    <mergeCell ref="LF81:LF82"/>
-    <mergeCell ref="LH83:LO83"/>
-    <mergeCell ref="JO89:JV89"/>
-    <mergeCell ref="KI89:KN89"/>
-    <mergeCell ref="KV89:LC89"/>
-    <mergeCell ref="KG90:KG92"/>
-    <mergeCell ref="KI93:KN93"/>
-    <mergeCell ref="LH85:LO85"/>
-    <mergeCell ref="KY59:LF59"/>
-    <mergeCell ref="KP59:KR59"/>
-    <mergeCell ref="JJ61:JJ66"/>
-    <mergeCell ref="KY62:LF62"/>
-    <mergeCell ref="JO67:JT67"/>
-    <mergeCell ref="JX67:KE67"/>
-    <mergeCell ref="JO79:JV79"/>
-    <mergeCell ref="KI79:KN79"/>
-    <mergeCell ref="KV79:LC79"/>
-    <mergeCell ref="LH79:LO79"/>
-    <mergeCell ref="JV61:JV66"/>
-    <mergeCell ref="KP67:KR67"/>
-    <mergeCell ref="JL40:JM40"/>
-    <mergeCell ref="KI40:KN40"/>
-    <mergeCell ref="IU42:IU49"/>
-    <mergeCell ref="JJ42:JJ49"/>
-    <mergeCell ref="IW50:IX50"/>
-    <mergeCell ref="IZ50:JE50"/>
-    <mergeCell ref="KI50:KN50"/>
-    <mergeCell ref="JO59:JT59"/>
-    <mergeCell ref="JX59:KE59"/>
-    <mergeCell ref="KG42:KG49"/>
-    <mergeCell ref="KG51:KG53"/>
-    <mergeCell ref="KI54:KN54"/>
-    <mergeCell ref="KI56:KN56"/>
-    <mergeCell ref="ID81:ID82"/>
-    <mergeCell ref="IF83:IM83"/>
-    <mergeCell ref="GM89:GT89"/>
-    <mergeCell ref="HG89:HL89"/>
-    <mergeCell ref="HT89:IA89"/>
-    <mergeCell ref="HE90:HE92"/>
-    <mergeCell ref="HG93:HL93"/>
-    <mergeCell ref="IW40:IX40"/>
-    <mergeCell ref="IZ40:JE40"/>
-    <mergeCell ref="GJ40:GO40"/>
-    <mergeCell ref="GJ50:GO50"/>
-    <mergeCell ref="HW59:ID59"/>
-    <mergeCell ref="GM79:GT79"/>
-    <mergeCell ref="HG79:HL79"/>
-    <mergeCell ref="HT79:IA79"/>
-    <mergeCell ref="IF79:IM79"/>
-    <mergeCell ref="HW62:ID62"/>
-    <mergeCell ref="CV40:DA40"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="FU40:FV40"/>
-    <mergeCell ref="FX40:GC40"/>
-    <mergeCell ref="HG40:HL40"/>
-    <mergeCell ref="FS42:FS49"/>
-    <mergeCell ref="FU50:FV50"/>
-    <mergeCell ref="FX50:GC50"/>
-    <mergeCell ref="HG50:HL50"/>
-    <mergeCell ref="DH40:DM40"/>
-    <mergeCell ref="DH50:DM50"/>
-    <mergeCell ref="GM67:GR67"/>
-    <mergeCell ref="GV67:HC67"/>
-    <mergeCell ref="CQ42:CQ49"/>
-    <mergeCell ref="DF42:DF49"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="AK74:AL74"/>
-    <mergeCell ref="AS74:AZ74"/>
-    <mergeCell ref="DT59:EA59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AH59:AM59"/>
-    <mergeCell ref="GM59:GR59"/>
-    <mergeCell ref="GV59:HC59"/>
-    <mergeCell ref="EE50:EJ50"/>
-    <mergeCell ref="AS70:AZ70"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="GH61:GH66"/>
-    <mergeCell ref="AS59:AZ59"/>
-    <mergeCell ref="BD59:BK59"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AS50:AX50"/>
-    <mergeCell ref="BD50:BI50"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="BS50:BX50"/>
-    <mergeCell ref="BZ50:CG50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="AK70:AL70"/>
-    <mergeCell ref="EU59:FB59"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="DF61:DF66"/>
-    <mergeCell ref="EU62:FB62"/>
-    <mergeCell ref="DK59:DP59"/>
-    <mergeCell ref="BS59:BX59"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="BL38:CJ38"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AS40:AX40"/>
-    <mergeCell ref="BD40:BI40"/>
-    <mergeCell ref="BS40:BX40"/>
-    <mergeCell ref="BZ40:CG40"/>
-    <mergeCell ref="CI40:CJ40"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="GH81:GH88"/>
+    <mergeCell ref="HE81:HE88"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="ER89:EY89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="EC90:EC92"/>
+    <mergeCell ref="L93:Q93"/>
+    <mergeCell ref="EE93:EJ93"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="AH89:AO89"/>
+    <mergeCell ref="AS89:AZ89"/>
+    <mergeCell ref="BD89:BK89"/>
+    <mergeCell ref="DK89:DR89"/>
+    <mergeCell ref="EE89:EJ89"/>
+    <mergeCell ref="BS89:BX89"/>
     <mergeCell ref="CS40:CT40"/>
     <mergeCell ref="EE40:EJ40"/>
     <mergeCell ref="C76:J76"/>
@@ -53736,28 +53631,133 @@
     <mergeCell ref="BS79:BX79"/>
     <mergeCell ref="DK67:DP67"/>
     <mergeCell ref="DT67:EA67"/>
-    <mergeCell ref="GH81:GH88"/>
-    <mergeCell ref="HE81:HE88"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="ER89:EY89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="EC90:EC92"/>
-    <mergeCell ref="L93:Q93"/>
-    <mergeCell ref="EE93:EJ93"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="AH89:AO89"/>
-    <mergeCell ref="AS89:AZ89"/>
-    <mergeCell ref="BD89:BK89"/>
-    <mergeCell ref="DK89:DR89"/>
-    <mergeCell ref="EE89:EJ89"/>
-    <mergeCell ref="BS89:BX89"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="BL38:CJ38"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AS40:AX40"/>
+    <mergeCell ref="BD40:BI40"/>
+    <mergeCell ref="BS40:BX40"/>
+    <mergeCell ref="BZ40:CG40"/>
+    <mergeCell ref="CI40:CJ40"/>
+    <mergeCell ref="GH61:GH66"/>
+    <mergeCell ref="AS59:AZ59"/>
+    <mergeCell ref="BD59:BK59"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AS50:AX50"/>
+    <mergeCell ref="BD50:BI50"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="BS50:BX50"/>
+    <mergeCell ref="BZ50:CG50"/>
+    <mergeCell ref="EU59:FB59"/>
+    <mergeCell ref="DF61:DF66"/>
+    <mergeCell ref="EU62:FB62"/>
+    <mergeCell ref="DK59:DP59"/>
+    <mergeCell ref="BS59:BX59"/>
+    <mergeCell ref="CQ42:CQ49"/>
+    <mergeCell ref="DF42:DF49"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AK74:AL74"/>
+    <mergeCell ref="AS74:AZ74"/>
+    <mergeCell ref="DT59:EA59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AH59:AM59"/>
+    <mergeCell ref="AS70:AZ70"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="AK70:AL70"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="CV40:DA40"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="FU40:FV40"/>
+    <mergeCell ref="FX40:GC40"/>
+    <mergeCell ref="HG40:HL40"/>
+    <mergeCell ref="FS42:FS49"/>
+    <mergeCell ref="FU50:FV50"/>
+    <mergeCell ref="FX50:GC50"/>
+    <mergeCell ref="HG50:HL50"/>
+    <mergeCell ref="DH40:DM40"/>
+    <mergeCell ref="DH50:DM50"/>
+    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="ID81:ID82"/>
+    <mergeCell ref="IF83:IM83"/>
+    <mergeCell ref="GM89:GT89"/>
+    <mergeCell ref="HG89:HL89"/>
+    <mergeCell ref="HT89:IA89"/>
+    <mergeCell ref="HE90:HE92"/>
+    <mergeCell ref="HG93:HL93"/>
+    <mergeCell ref="IW40:IX40"/>
+    <mergeCell ref="IZ40:JE40"/>
+    <mergeCell ref="GJ40:GO40"/>
+    <mergeCell ref="GJ50:GO50"/>
+    <mergeCell ref="HW59:ID59"/>
+    <mergeCell ref="GM79:GT79"/>
+    <mergeCell ref="HG79:HL79"/>
+    <mergeCell ref="HT79:IA79"/>
+    <mergeCell ref="IF79:IM79"/>
+    <mergeCell ref="HW62:ID62"/>
+    <mergeCell ref="GM67:GR67"/>
+    <mergeCell ref="GV67:HC67"/>
+    <mergeCell ref="GM59:GR59"/>
+    <mergeCell ref="GV59:HC59"/>
+    <mergeCell ref="JL40:JM40"/>
+    <mergeCell ref="KI40:KN40"/>
+    <mergeCell ref="IU42:IU49"/>
+    <mergeCell ref="JJ42:JJ49"/>
+    <mergeCell ref="IW50:IX50"/>
+    <mergeCell ref="IZ50:JE50"/>
+    <mergeCell ref="KI50:KN50"/>
+    <mergeCell ref="JO59:JT59"/>
+    <mergeCell ref="JX59:KE59"/>
+    <mergeCell ref="KG42:KG49"/>
+    <mergeCell ref="KG51:KG53"/>
+    <mergeCell ref="KI54:KN54"/>
+    <mergeCell ref="KI56:KN56"/>
+    <mergeCell ref="JJ61:JJ66"/>
+    <mergeCell ref="KY62:LF62"/>
+    <mergeCell ref="JO67:JT67"/>
+    <mergeCell ref="JX67:KE67"/>
+    <mergeCell ref="JO79:JV79"/>
+    <mergeCell ref="KI79:KN79"/>
+    <mergeCell ref="KV79:LC79"/>
+    <mergeCell ref="LH79:LO79"/>
+    <mergeCell ref="JV61:JV66"/>
+    <mergeCell ref="KP67:KR67"/>
+    <mergeCell ref="LF81:LF82"/>
+    <mergeCell ref="LH83:LO83"/>
+    <mergeCell ref="JO89:JV89"/>
+    <mergeCell ref="KI89:KN89"/>
+    <mergeCell ref="KV89:LC89"/>
+    <mergeCell ref="KG90:KG92"/>
+    <mergeCell ref="KI93:KN93"/>
+    <mergeCell ref="LH85:LO85"/>
+    <mergeCell ref="KY59:LF59"/>
+    <mergeCell ref="KP59:KR59"/>
+    <mergeCell ref="JW98:KE98"/>
+    <mergeCell ref="JW100:JW107"/>
+    <mergeCell ref="JW110:KE110"/>
+    <mergeCell ref="JW112:JW117"/>
+    <mergeCell ref="JY118:KA118"/>
+    <mergeCell ref="KC118:KE118"/>
+    <mergeCell ref="KG118:KI118"/>
+    <mergeCell ref="JW123:JW128"/>
+    <mergeCell ref="JJ81:JJ88"/>
+    <mergeCell ref="KG81:KG88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53770,8 +53770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB1CE6-E3EC-7B4E-8832-2A8872C682BA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -53837,8 +53837,8 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <f>'Perfect substitution'!F5</f>
-        <v>22.4</v>
+        <f>'Perfect substitution'!C72</f>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
         <v>176</v>
@@ -53903,8 +53903,8 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <f>-'Perfect substitution'!F5</f>
-        <v>-22.4</v>
+        <f>-PSUT!L42</f>
+        <v>-97</v>
       </c>
       <c r="J4" t="s">
         <v>176</v>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233B7BC-7BFF-9344-B83F-C45E11F3D6BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A39AC02-0FAA-C344-A179-FC0EFD04C3AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="6640" windowWidth="26200" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20680" yWindow="440" windowWidth="26200" windowHeight="17560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Perfect substitution" sheetId="9" r:id="rId3"/>
     <sheet name="PerfectSubstitutionRaw" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -189,7 +189,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Gives fraction of total production of products (in rows) consumed by each industry (in rows). Rows should sum to 1 or zero.</t>
+          <t>Gives fraction of total production of products (in rows) consumed by each industry (in rows). Rows should sum to zero when all of the Product is consumed by final demand. Rows should sum to 1 when all of the Product is consumed in the intermediate industries. Rows should sum to something between 0 and 1 when some product is used by final demand and some product is used by intermediate industries.</t>
         </r>
       </text>
     </comment>
@@ -6859,7 +6859,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6868,28 +6868,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30459,8 +30459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338BDA73-949D-6141-997A-6445BD9150B1}">
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BT50" sqref="BT50:BY50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30640,11 +30640,11 @@
     </row>
     <row r="26" spans="1:93">
       <c r="B26" s="10"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -30913,11 +30913,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18">
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -33051,14 +33051,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20">
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
     </row>
     <row r="55" spans="1:93">
       <c r="L55" s="6">
@@ -33098,11 +33098,11 @@
     </row>
     <row r="60" spans="1:93">
       <c r="B60" s="1"/>
-      <c r="Z60" s="76" t="s">
+      <c r="Z60" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
+      <c r="AA60" s="70"/>
+      <c r="AB60" s="70"/>
       <c r="AI60" s="69" t="s">
         <v>3</v>
       </c>
@@ -34238,11 +34238,11 @@
       <c r="J68" s="69"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="74" t="s">
+      <c r="Z68" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="74"/>
-      <c r="AB68" s="74"/>
+      <c r="AA68" s="73"/>
+      <c r="AB68" s="73"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -34448,17 +34448,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="76" t="s">
+      <c r="Z73" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="76"/>
-      <c r="AI73" s="77" t="s">
+      <c r="AA73" s="70"/>
+      <c r="AI73" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="77"/>
+      <c r="AJ73" s="74"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="77"/>
-      <c r="AM73" s="77"/>
+      <c r="AL73" s="74"/>
+      <c r="AM73" s="74"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -34782,29 +34782,29 @@
       <c r="AC77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="73" t="s">
+      <c r="AI77" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="73"/>
+      <c r="AJ77" s="76"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="73"/>
-      <c r="AM77" s="73"/>
+      <c r="AL77" s="76"/>
+      <c r="AM77" s="76"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="73" t="s">
+      <c r="AT77" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="73"/>
-      <c r="AV77" s="73"/>
-      <c r="AW77" s="73"/>
-      <c r="AX77" s="73"/>
-      <c r="AY77" s="73"/>
-      <c r="AZ77" s="73"/>
-      <c r="BA77" s="73"/>
+      <c r="AU77" s="76"/>
+      <c r="AV77" s="76"/>
+      <c r="AW77" s="76"/>
+      <c r="AX77" s="76"/>
+      <c r="AY77" s="76"/>
+      <c r="AZ77" s="76"/>
+      <c r="BA77" s="76"/>
     </row>
     <row r="78" spans="1:78">
       <c r="B78" s="1"/>
@@ -34904,16 +34904,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1">
-      <c r="C81" s="70" t="s">
+      <c r="C81" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
       <c r="AI81" s="69" t="s">
         <v>4</v>
       </c>
@@ -36329,14 +36329,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19">
-      <c r="L91" s="70" t="s">
+      <c r="L91" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-      <c r="Q91" s="70"/>
+      <c r="M91" s="77"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -36489,14 +36489,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20">
-      <c r="L95" s="70" t="s">
+      <c r="L95" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
+      <c r="M95" s="77"/>
+      <c r="N95" s="77"/>
+      <c r="O95" s="77"/>
+      <c r="P95" s="77"/>
+      <c r="Q95" s="77"/>
     </row>
     <row r="98" spans="1:40" ht="47">
       <c r="A98" s="27" t="s">
@@ -37117,16 +37117,16 @@
       </c>
       <c r="D120" s="69"/>
       <c r="E120" s="69"/>
-      <c r="G120" s="70" t="s">
+      <c r="G120" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="70"/>
-      <c r="I120" s="70"/>
-      <c r="K120" s="70" t="s">
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="K120" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="70"/>
-      <c r="M120" s="70"/>
+      <c r="L120" s="77"/>
+      <c r="M120" s="77"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -37550,6 +37550,65 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -37562,65 +37621,6 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -38236,11 +38236,11 @@
     </row>
     <row r="26" spans="1:278">
       <c r="B26" s="10"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="CQ26" t="s">
@@ -38499,11 +38499,11 @@
       <c r="CJ35" s="31"/>
     </row>
     <row r="36" spans="1:302" ht="18">
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="BL36" s="31"/>
@@ -38558,31 +38558,31 @@
       <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:302">
-      <c r="BL38" s="73"/>
-      <c r="BM38" s="73"/>
-      <c r="BN38" s="73"/>
-      <c r="BO38" s="73"/>
-      <c r="BP38" s="73"/>
-      <c r="BQ38" s="73"/>
-      <c r="BR38" s="73"/>
-      <c r="BS38" s="73"/>
-      <c r="BT38" s="73"/>
-      <c r="BU38" s="73"/>
-      <c r="BV38" s="73"/>
-      <c r="BW38" s="73"/>
-      <c r="BX38" s="73"/>
-      <c r="BY38" s="73"/>
-      <c r="BZ38" s="73"/>
-      <c r="CA38" s="73"/>
-      <c r="CB38" s="73"/>
-      <c r="CC38" s="73"/>
-      <c r="CD38" s="73"/>
-      <c r="CE38" s="73"/>
-      <c r="CF38" s="73"/>
-      <c r="CG38" s="73"/>
-      <c r="CH38" s="73"/>
-      <c r="CI38" s="73"/>
-      <c r="CJ38" s="73"/>
+      <c r="BL38" s="76"/>
+      <c r="BM38" s="76"/>
+      <c r="BN38" s="76"/>
+      <c r="BO38" s="76"/>
+      <c r="BP38" s="76"/>
+      <c r="BQ38" s="76"/>
+      <c r="BR38" s="76"/>
+      <c r="BS38" s="76"/>
+      <c r="BT38" s="76"/>
+      <c r="BU38" s="76"/>
+      <c r="BV38" s="76"/>
+      <c r="BW38" s="76"/>
+      <c r="BX38" s="76"/>
+      <c r="BY38" s="76"/>
+      <c r="BZ38" s="76"/>
+      <c r="CA38" s="76"/>
+      <c r="CB38" s="76"/>
+      <c r="CC38" s="76"/>
+      <c r="CD38" s="76"/>
+      <c r="CE38" s="76"/>
+      <c r="CF38" s="76"/>
+      <c r="CG38" s="76"/>
+      <c r="CH38" s="76"/>
+      <c r="CI38" s="76"/>
+      <c r="CJ38" s="76"/>
     </row>
     <row r="40" spans="1:302">
       <c r="C40" s="69" t="s">
@@ -38728,8 +38728,8 @@
       <c r="JC40" s="69"/>
       <c r="JD40" s="69"/>
       <c r="JE40" s="69"/>
-      <c r="JL40" s="73"/>
-      <c r="JM40" s="73"/>
+      <c r="JL40" s="76"/>
+      <c r="JM40" s="76"/>
       <c r="KI40" s="69" t="s">
         <v>3</v>
       </c>
@@ -42413,14 +42413,14 @@
       <c r="EB50" s="58"/>
       <c r="EC50" s="58"/>
       <c r="ED50" s="58"/>
-      <c r="EE50" s="80" t="s">
+      <c r="EE50" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="EF50" s="80"/>
-      <c r="EG50" s="80"/>
-      <c r="EH50" s="80"/>
-      <c r="EI50" s="80"/>
-      <c r="EJ50" s="80"/>
+      <c r="EF50" s="79"/>
+      <c r="EG50" s="79"/>
+      <c r="EH50" s="79"/>
+      <c r="EI50" s="79"/>
+      <c r="EJ50" s="79"/>
       <c r="EK50" s="58"/>
       <c r="EL50" s="58"/>
       <c r="EM50" s="58"/>
@@ -42462,14 +42462,14 @@
       <c r="HD50" s="58"/>
       <c r="HE50" s="58"/>
       <c r="HF50" s="58"/>
-      <c r="HG50" s="80" t="s">
+      <c r="HG50" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="HH50" s="80"/>
-      <c r="HI50" s="80"/>
-      <c r="HJ50" s="80"/>
-      <c r="HK50" s="80"/>
-      <c r="HL50" s="80"/>
+      <c r="HH50" s="79"/>
+      <c r="HI50" s="79"/>
+      <c r="HJ50" s="79"/>
+      <c r="HK50" s="79"/>
+      <c r="HL50" s="79"/>
       <c r="HM50" s="58"/>
       <c r="HN50" s="58"/>
       <c r="HO50" s="58"/>
@@ -42482,15 +42482,15 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
       <c r="IV50" s="31"/>
-      <c r="IW50" s="73"/>
-      <c r="IX50" s="73"/>
+      <c r="IW50" s="76"/>
+      <c r="IX50" s="76"/>
       <c r="IY50" s="31"/>
-      <c r="IZ50" s="80"/>
-      <c r="JA50" s="80"/>
-      <c r="JB50" s="80"/>
-      <c r="JC50" s="80"/>
-      <c r="JD50" s="80"/>
-      <c r="JE50" s="80"/>
+      <c r="IZ50" s="79"/>
+      <c r="JA50" s="79"/>
+      <c r="JB50" s="79"/>
+      <c r="JC50" s="79"/>
+      <c r="JD50" s="79"/>
+      <c r="JE50" s="79"/>
       <c r="JF50" s="31"/>
       <c r="JG50" s="55"/>
       <c r="JH50" s="31"/>
@@ -42504,14 +42504,14 @@
       <c r="KF50" s="58"/>
       <c r="KG50" s="58"/>
       <c r="KH50" s="58"/>
-      <c r="KI50" s="80" t="s">
+      <c r="KI50" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="KJ50" s="80"/>
-      <c r="KK50" s="80"/>
-      <c r="KL50" s="80"/>
-      <c r="KM50" s="80"/>
-      <c r="KN50" s="80"/>
+      <c r="KJ50" s="79"/>
+      <c r="KK50" s="79"/>
+      <c r="KL50" s="79"/>
+      <c r="KM50" s="79"/>
+      <c r="KN50" s="79"/>
       <c r="KO50" s="58"/>
       <c r="KP50" s="59" t="s">
         <v>12</v>
@@ -42826,14 +42826,14 @@
     </row>
     <row r="54" spans="1:319" ht="20">
       <c r="B54" s="1"/>
-      <c r="L54" s="74" t="s">
+      <c r="L54" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -42861,14 +42861,14 @@
       <c r="JJ54" s="31"/>
       <c r="JK54" s="31"/>
       <c r="JL54" s="31"/>
-      <c r="KI54" s="74" t="s">
+      <c r="KI54" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="KJ54" s="74"/>
-      <c r="KK54" s="74"/>
-      <c r="KL54" s="74"/>
-      <c r="KM54" s="74"/>
-      <c r="KN54" s="74"/>
+      <c r="KJ54" s="73"/>
+      <c r="KK54" s="73"/>
+      <c r="KL54" s="73"/>
+      <c r="KM54" s="73"/>
+      <c r="KN54" s="73"/>
     </row>
     <row r="55" spans="1:319">
       <c r="B55" s="1"/>
@@ -42998,11 +42998,11 @@
     </row>
     <row r="59" spans="1:319">
       <c r="B59" s="1"/>
-      <c r="Z59" s="76" t="s">
+      <c r="Z59" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
+      <c r="AA59" s="70"/>
+      <c r="AB59" s="70"/>
       <c r="AH59" s="69" t="s">
         <v>3</v>
       </c>
@@ -43061,14 +43061,14 @@
       <c r="EC59" s="45"/>
       <c r="ES59" s="31"/>
       <c r="ET59" s="31"/>
-      <c r="EU59" s="73"/>
-      <c r="EV59" s="73"/>
-      <c r="EW59" s="73"/>
-      <c r="EX59" s="73"/>
-      <c r="EY59" s="73"/>
-      <c r="EZ59" s="73"/>
-      <c r="FA59" s="73"/>
-      <c r="FB59" s="73"/>
+      <c r="EU59" s="76"/>
+      <c r="EV59" s="76"/>
+      <c r="EW59" s="76"/>
+      <c r="EX59" s="76"/>
+      <c r="EY59" s="76"/>
+      <c r="EZ59" s="76"/>
+      <c r="FA59" s="76"/>
+      <c r="FB59" s="76"/>
       <c r="FC59" s="31"/>
       <c r="GM59" s="69" t="s">
         <v>3</v>
@@ -43092,26 +43092,26 @@
       <c r="HE59" s="52"/>
       <c r="HU59" s="31"/>
       <c r="HV59" s="31"/>
-      <c r="HW59" s="73"/>
-      <c r="HX59" s="73"/>
-      <c r="HY59" s="73"/>
-      <c r="HZ59" s="73"/>
-      <c r="IA59" s="73"/>
-      <c r="IB59" s="73"/>
-      <c r="IC59" s="73"/>
-      <c r="ID59" s="73"/>
+      <c r="HW59" s="76"/>
+      <c r="HX59" s="76"/>
+      <c r="HY59" s="76"/>
+      <c r="HZ59" s="76"/>
+      <c r="IA59" s="76"/>
+      <c r="IB59" s="76"/>
+      <c r="IC59" s="76"/>
+      <c r="ID59" s="76"/>
       <c r="IE59" s="31"/>
       <c r="JJ59" s="31"/>
       <c r="JK59" s="31"/>
       <c r="JL59" s="31"/>
       <c r="JM59" s="31"/>
       <c r="JN59" s="31"/>
-      <c r="JO59" s="73"/>
-      <c r="JP59" s="73"/>
-      <c r="JQ59" s="73"/>
-      <c r="JR59" s="73"/>
-      <c r="JS59" s="73"/>
-      <c r="JT59" s="73"/>
+      <c r="JO59" s="76"/>
+      <c r="JP59" s="76"/>
+      <c r="JQ59" s="76"/>
+      <c r="JR59" s="76"/>
+      <c r="JS59" s="76"/>
+      <c r="JT59" s="76"/>
       <c r="JU59" s="31"/>
       <c r="JX59" s="69" t="s">
         <v>4</v>
@@ -43125,21 +43125,21 @@
       <c r="KE59" s="69"/>
       <c r="KF59" s="52"/>
       <c r="KG59" s="52"/>
-      <c r="KP59" s="76" t="s">
+      <c r="KP59" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="KQ59" s="76"/>
-      <c r="KR59" s="76"/>
+      <c r="KQ59" s="70"/>
+      <c r="KR59" s="70"/>
       <c r="KW59" s="31"/>
       <c r="KX59" s="31"/>
-      <c r="KY59" s="73"/>
-      <c r="KZ59" s="73"/>
-      <c r="LA59" s="73"/>
-      <c r="LB59" s="73"/>
-      <c r="LC59" s="73"/>
-      <c r="LD59" s="73"/>
-      <c r="LE59" s="73"/>
-      <c r="LF59" s="73"/>
+      <c r="KY59" s="76"/>
+      <c r="KZ59" s="76"/>
+      <c r="LA59" s="76"/>
+      <c r="LB59" s="76"/>
+      <c r="LC59" s="76"/>
+      <c r="LD59" s="76"/>
+      <c r="LE59" s="76"/>
+      <c r="LF59" s="76"/>
       <c r="LG59" s="31"/>
     </row>
     <row r="60" spans="1:319" ht="51" customHeight="1">
@@ -44043,14 +44043,14 @@
       <c r="EC62" s="50"/>
       <c r="ES62" s="31"/>
       <c r="ET62" s="31"/>
-      <c r="EU62" s="74"/>
-      <c r="EV62" s="74"/>
-      <c r="EW62" s="74"/>
-      <c r="EX62" s="74"/>
-      <c r="EY62" s="74"/>
-      <c r="EZ62" s="74"/>
-      <c r="FA62" s="74"/>
-      <c r="FB62" s="74"/>
+      <c r="EU62" s="73"/>
+      <c r="EV62" s="73"/>
+      <c r="EW62" s="73"/>
+      <c r="EX62" s="73"/>
+      <c r="EY62" s="73"/>
+      <c r="EZ62" s="73"/>
+      <c r="FA62" s="73"/>
+      <c r="FB62" s="73"/>
       <c r="FC62" s="31"/>
       <c r="GH62" s="71"/>
       <c r="GI62" s="1" t="s">
@@ -44120,14 +44120,14 @@
       <c r="HE62" s="51"/>
       <c r="HU62" s="31"/>
       <c r="HV62" s="31"/>
-      <c r="HW62" s="74"/>
-      <c r="HX62" s="74"/>
-      <c r="HY62" s="74"/>
-      <c r="HZ62" s="74"/>
-      <c r="IA62" s="74"/>
-      <c r="IB62" s="74"/>
-      <c r="IC62" s="74"/>
-      <c r="ID62" s="74"/>
+      <c r="HW62" s="73"/>
+      <c r="HX62" s="73"/>
+      <c r="HY62" s="73"/>
+      <c r="HZ62" s="73"/>
+      <c r="IA62" s="73"/>
+      <c r="IB62" s="73"/>
+      <c r="IC62" s="73"/>
+      <c r="ID62" s="73"/>
       <c r="IE62" s="31"/>
       <c r="JJ62" s="78"/>
       <c r="JK62" s="63"/>
@@ -44197,14 +44197,14 @@
       </c>
       <c r="KW62" s="31"/>
       <c r="KX62" s="31"/>
-      <c r="KY62" s="74"/>
-      <c r="KZ62" s="74"/>
-      <c r="LA62" s="74"/>
-      <c r="LB62" s="74"/>
-      <c r="LC62" s="74"/>
-      <c r="LD62" s="74"/>
-      <c r="LE62" s="74"/>
-      <c r="LF62" s="74"/>
+      <c r="KY62" s="73"/>
+      <c r="KZ62" s="73"/>
+      <c r="LA62" s="73"/>
+      <c r="LB62" s="73"/>
+      <c r="LC62" s="73"/>
+      <c r="LD62" s="73"/>
+      <c r="LE62" s="73"/>
+      <c r="LF62" s="73"/>
       <c r="LG62" s="31"/>
     </row>
     <row r="63" spans="1:319">
@@ -45801,11 +45801,11 @@
       <c r="J67" s="69"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="74" t="s">
+      <c r="Z67" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="AA67" s="74"/>
-      <c r="AB67" s="74"/>
+      <c r="AA67" s="73"/>
+      <c r="AB67" s="73"/>
       <c r="AD67" s="45" t="s">
         <v>34</v>
       </c>
@@ -46020,23 +46020,23 @@
       <c r="JL67" s="55"/>
       <c r="JM67" s="31"/>
       <c r="JN67" s="31"/>
-      <c r="JO67" s="73"/>
-      <c r="JP67" s="73"/>
-      <c r="JQ67" s="73"/>
-      <c r="JR67" s="73"/>
-      <c r="JS67" s="73"/>
-      <c r="JT67" s="73"/>
+      <c r="JO67" s="76"/>
+      <c r="JP67" s="76"/>
+      <c r="JQ67" s="76"/>
+      <c r="JR67" s="76"/>
+      <c r="JS67" s="76"/>
+      <c r="JT67" s="76"/>
       <c r="JU67" s="31"/>
-      <c r="JX67" s="79" t="s">
+      <c r="JX67" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="JY67" s="79"/>
-      <c r="JZ67" s="79"/>
-      <c r="KA67" s="79"/>
-      <c r="KB67" s="79"/>
-      <c r="KC67" s="79"/>
-      <c r="KD67" s="79"/>
-      <c r="KE67" s="79"/>
+      <c r="JY67" s="80"/>
+      <c r="JZ67" s="80"/>
+      <c r="KA67" s="80"/>
+      <c r="KB67" s="80"/>
+      <c r="KC67" s="80"/>
+      <c r="KD67" s="80"/>
+      <c r="KE67" s="80"/>
       <c r="KF67" s="54"/>
       <c r="KG67" s="54"/>
       <c r="KH67" s="26"/>
@@ -46047,11 +46047,11 @@
       <c r="KM67" s="26"/>
       <c r="KN67" s="26"/>
       <c r="KO67" s="26"/>
-      <c r="KP67" s="74" t="s">
+      <c r="KP67" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="KQ67" s="74"/>
-      <c r="KR67" s="74"/>
+      <c r="KQ67" s="73"/>
+      <c r="KR67" s="73"/>
       <c r="KS67" s="26"/>
       <c r="KT67" s="52" t="s">
         <v>145</v>
@@ -46169,18 +46169,18 @@
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
-      <c r="Z70" s="76" t="s">
+      <c r="Z70" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AA70" s="76"/>
-      <c r="AB70" s="76"/>
-      <c r="AH70" s="77" t="s">
+      <c r="AA70" s="70"/>
+      <c r="AB70" s="70"/>
+      <c r="AH70" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="AI70" s="77"/>
+      <c r="AI70" s="74"/>
       <c r="AJ70" s="31"/>
-      <c r="AK70" s="77"/>
-      <c r="AL70" s="77"/>
+      <c r="AK70" s="74"/>
+      <c r="AL70" s="74"/>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
       <c r="AO70" s="31"/>
@@ -46506,37 +46506,37 @@
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
       <c r="Y74" s="15"/>
-      <c r="Z74" s="73" t="s">
+      <c r="Z74" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="AA74" s="73"/>
-      <c r="AB74" s="73"/>
+      <c r="AA74" s="76"/>
+      <c r="AB74" s="76"/>
       <c r="AD74" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AH74" s="73" t="s">
+      <c r="AH74" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AI74" s="73"/>
+      <c r="AI74" s="76"/>
       <c r="AJ74" s="29"/>
-      <c r="AK74" s="73"/>
-      <c r="AL74" s="73"/>
+      <c r="AK74" s="76"/>
+      <c r="AL74" s="76"/>
       <c r="AM74" s="29"/>
       <c r="AN74" s="31"/>
       <c r="AO74" s="31"/>
       <c r="AP74" s="31"/>
       <c r="AQ74" s="31"/>
       <c r="AR74" s="31"/>
-      <c r="AS74" s="73" t="s">
+      <c r="AS74" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="AT74" s="73"/>
-      <c r="AU74" s="73"/>
-      <c r="AV74" s="73"/>
-      <c r="AW74" s="73"/>
-      <c r="AX74" s="73"/>
-      <c r="AY74" s="73"/>
-      <c r="AZ74" s="73"/>
+      <c r="AT74" s="76"/>
+      <c r="AU74" s="76"/>
+      <c r="AV74" s="76"/>
+      <c r="AW74" s="76"/>
+      <c r="AX74" s="76"/>
+      <c r="AY74" s="76"/>
+      <c r="AZ74" s="76"/>
       <c r="ES74" s="31"/>
       <c r="ET74" s="31"/>
       <c r="EU74" s="31"/>
@@ -48760,16 +48760,16 @@
       <c r="FA83" s="29"/>
       <c r="FB83" s="29"/>
       <c r="FC83" s="31"/>
-      <c r="FD83" s="70" t="s">
+      <c r="FD83" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="FE83" s="70"/>
-      <c r="FF83" s="70"/>
-      <c r="FG83" s="70"/>
-      <c r="FH83" s="70"/>
-      <c r="FI83" s="70"/>
-      <c r="FJ83" s="70"/>
-      <c r="FK83" s="70"/>
+      <c r="FE83" s="77"/>
+      <c r="FF83" s="77"/>
+      <c r="FG83" s="77"/>
+      <c r="FH83" s="77"/>
+      <c r="FI83" s="77"/>
+      <c r="FJ83" s="77"/>
+      <c r="FK83" s="77"/>
       <c r="GH83" s="71"/>
       <c r="GI83" s="1" t="s">
         <v>27</v>
@@ -48881,16 +48881,16 @@
       <c r="IC83" s="29"/>
       <c r="ID83" s="29"/>
       <c r="IE83" s="31"/>
-      <c r="IF83" s="70" t="s">
+      <c r="IF83" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="IG83" s="70"/>
-      <c r="IH83" s="70"/>
-      <c r="II83" s="70"/>
-      <c r="IJ83" s="70"/>
-      <c r="IK83" s="70"/>
-      <c r="IL83" s="70"/>
-      <c r="IM83" s="70"/>
+      <c r="IG83" s="77"/>
+      <c r="IH83" s="77"/>
+      <c r="II83" s="77"/>
+      <c r="IJ83" s="77"/>
+      <c r="IK83" s="77"/>
+      <c r="IL83" s="77"/>
+      <c r="IM83" s="77"/>
       <c r="JJ83" s="78"/>
       <c r="JK83" s="63"/>
       <c r="JL83" s="51"/>
@@ -48977,16 +48977,16 @@
       <c r="LE83" s="29"/>
       <c r="LF83" s="29"/>
       <c r="LG83" s="31"/>
-      <c r="LH83" s="70" t="s">
+      <c r="LH83" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="LI83" s="70"/>
-      <c r="LJ83" s="70"/>
-      <c r="LK83" s="70"/>
-      <c r="LL83" s="70"/>
-      <c r="LM83" s="70"/>
-      <c r="LN83" s="70"/>
-      <c r="LO83" s="70"/>
+      <c r="LI83" s="77"/>
+      <c r="LJ83" s="77"/>
+      <c r="LK83" s="77"/>
+      <c r="LL83" s="77"/>
+      <c r="LM83" s="77"/>
+      <c r="LN83" s="77"/>
+      <c r="LO83" s="77"/>
     </row>
     <row r="84" spans="1:327">
       <c r="A84" s="71"/>
@@ -49955,16 +49955,16 @@
       <c r="LE85" s="31"/>
       <c r="LF85" s="31"/>
       <c r="LG85" s="31"/>
-      <c r="LH85" s="70" t="s">
+      <c r="LH85" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="LI85" s="70"/>
-      <c r="LJ85" s="70"/>
-      <c r="LK85" s="70"/>
-      <c r="LL85" s="70"/>
-      <c r="LM85" s="70"/>
-      <c r="LN85" s="70"/>
-      <c r="LO85" s="70"/>
+      <c r="LI85" s="77"/>
+      <c r="LJ85" s="77"/>
+      <c r="LK85" s="77"/>
+      <c r="LL85" s="77"/>
+      <c r="LM85" s="77"/>
+      <c r="LN85" s="77"/>
+      <c r="LO85" s="77"/>
     </row>
     <row r="86" spans="1:327">
       <c r="A86" s="71"/>
@@ -51371,14 +51371,14 @@
       <c r="LG88" s="31"/>
     </row>
     <row r="89" spans="1:327" ht="20">
-      <c r="L89" s="70" t="s">
+      <c r="L89" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="70"/>
-      <c r="N89" s="70"/>
-      <c r="O89" s="70"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="70"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
       <c r="Z89" s="45" t="s">
         <v>11</v>
       </c>
@@ -51484,30 +51484,30 @@
       <c r="EB89" s="8"/>
       <c r="EC89" s="8"/>
       <c r="ED89" s="8"/>
-      <c r="EE89" s="70" t="s">
+      <c r="EE89" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="EF89" s="70"/>
-      <c r="EG89" s="70"/>
-      <c r="EH89" s="70"/>
-      <c r="EI89" s="70"/>
-      <c r="EJ89" s="70"/>
+      <c r="EF89" s="77"/>
+      <c r="EG89" s="77"/>
+      <c r="EH89" s="77"/>
+      <c r="EI89" s="77"/>
+      <c r="EJ89" s="77"/>
       <c r="EM89" s="45" t="s">
         <v>116</v>
       </c>
       <c r="EO89" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="ER89" s="70" t="s">
+      <c r="ER89" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="ES89" s="70"/>
-      <c r="ET89" s="70"/>
-      <c r="EU89" s="70"/>
-      <c r="EV89" s="70"/>
-      <c r="EW89" s="70"/>
-      <c r="EX89" s="70"/>
-      <c r="EY89" s="70"/>
+      <c r="ES89" s="77"/>
+      <c r="ET89" s="77"/>
+      <c r="EU89" s="77"/>
+      <c r="EV89" s="77"/>
+      <c r="EW89" s="77"/>
+      <c r="EX89" s="77"/>
+      <c r="EY89" s="77"/>
       <c r="FO89" s="57"/>
       <c r="FP89" s="8"/>
       <c r="FQ89" s="8"/>
@@ -51552,30 +51552,30 @@
       <c r="HD89" s="8"/>
       <c r="HE89" s="8"/>
       <c r="HF89" s="8"/>
-      <c r="HG89" s="70" t="s">
+      <c r="HG89" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="HH89" s="70"/>
-      <c r="HI89" s="70"/>
-      <c r="HJ89" s="70"/>
-      <c r="HK89" s="70"/>
-      <c r="HL89" s="70"/>
+      <c r="HH89" s="77"/>
+      <c r="HI89" s="77"/>
+      <c r="HJ89" s="77"/>
+      <c r="HK89" s="77"/>
+      <c r="HL89" s="77"/>
       <c r="HO89" s="52" t="s">
         <v>127</v>
       </c>
       <c r="HQ89" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="HT89" s="70" t="s">
+      <c r="HT89" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="HU89" s="70"/>
-      <c r="HV89" s="70"/>
-      <c r="HW89" s="70"/>
-      <c r="HX89" s="70"/>
-      <c r="HY89" s="70"/>
-      <c r="HZ89" s="70"/>
-      <c r="IA89" s="70"/>
+      <c r="HU89" s="77"/>
+      <c r="HV89" s="77"/>
+      <c r="HW89" s="77"/>
+      <c r="HX89" s="77"/>
+      <c r="HY89" s="77"/>
+      <c r="HZ89" s="77"/>
+      <c r="IA89" s="77"/>
       <c r="IQ89" s="57"/>
       <c r="IR89" s="8"/>
       <c r="IS89" s="8"/>
@@ -51600,14 +51600,14 @@
       <c r="JL89" s="55"/>
       <c r="JM89" s="31"/>
       <c r="JN89" s="31"/>
-      <c r="JO89" s="73"/>
-      <c r="JP89" s="73"/>
-      <c r="JQ89" s="73"/>
-      <c r="JR89" s="73"/>
-      <c r="JS89" s="73"/>
-      <c r="JT89" s="73"/>
-      <c r="JU89" s="73"/>
-      <c r="JV89" s="73"/>
+      <c r="JO89" s="76"/>
+      <c r="JP89" s="76"/>
+      <c r="JQ89" s="76"/>
+      <c r="JR89" s="76"/>
+      <c r="JS89" s="76"/>
+      <c r="JT89" s="76"/>
+      <c r="JU89" s="76"/>
+      <c r="JV89" s="76"/>
       <c r="JW89" s="29"/>
       <c r="JX89" s="29"/>
       <c r="JY89" s="8"/>
@@ -51620,30 +51620,30 @@
       <c r="KF89" s="8"/>
       <c r="KG89" s="8"/>
       <c r="KH89" s="8"/>
-      <c r="KI89" s="70" t="s">
+      <c r="KI89" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="KJ89" s="70"/>
-      <c r="KK89" s="70"/>
-      <c r="KL89" s="70"/>
-      <c r="KM89" s="70"/>
-      <c r="KN89" s="70"/>
+      <c r="KJ89" s="77"/>
+      <c r="KK89" s="77"/>
+      <c r="KL89" s="77"/>
+      <c r="KM89" s="77"/>
+      <c r="KN89" s="77"/>
       <c r="KQ89" s="52" t="s">
         <v>98</v>
       </c>
       <c r="KS89" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="KV89" s="70" t="s">
+      <c r="KV89" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="KW89" s="70"/>
-      <c r="KX89" s="70"/>
-      <c r="KY89" s="70"/>
-      <c r="KZ89" s="70"/>
-      <c r="LA89" s="70"/>
-      <c r="LB89" s="70"/>
-      <c r="LC89" s="70"/>
+      <c r="KW89" s="77"/>
+      <c r="KX89" s="77"/>
+      <c r="KY89" s="77"/>
+      <c r="KZ89" s="77"/>
+      <c r="LA89" s="77"/>
+      <c r="LB89" s="77"/>
+      <c r="LC89" s="77"/>
     </row>
     <row r="90" spans="1:327" ht="16" customHeight="1">
       <c r="J90" s="71" t="s">
@@ -52013,22 +52013,22 @@
       </c>
     </row>
     <row r="93" spans="1:327" ht="20">
-      <c r="L93" s="70" t="s">
+      <c r="L93" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="M93" s="70"/>
-      <c r="N93" s="70"/>
-      <c r="O93" s="70"/>
-      <c r="P93" s="70"/>
-      <c r="Q93" s="70"/>
-      <c r="EE93" s="70" t="s">
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="EE93" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="EF93" s="70"/>
-      <c r="EG93" s="70"/>
-      <c r="EH93" s="70"/>
-      <c r="EI93" s="70"/>
-      <c r="EJ93" s="70"/>
+      <c r="EF93" s="77"/>
+      <c r="EG93" s="77"/>
+      <c r="EH93" s="77"/>
+      <c r="EI93" s="77"/>
+      <c r="EJ93" s="77"/>
       <c r="EM93" s="53" t="s">
         <v>137</v>
       </c>
@@ -52037,25 +52037,25 @@
       <c r="EP93" s="53"/>
       <c r="EQ93" s="53"/>
       <c r="ER93" s="53"/>
-      <c r="HG93" s="70" t="s">
+      <c r="HG93" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="HH93" s="70"/>
-      <c r="HI93" s="70"/>
-      <c r="HJ93" s="70"/>
-      <c r="HK93" s="70"/>
-      <c r="HL93" s="70"/>
+      <c r="HH93" s="77"/>
+      <c r="HI93" s="77"/>
+      <c r="HJ93" s="77"/>
+      <c r="HK93" s="77"/>
+      <c r="HL93" s="77"/>
       <c r="HO93" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="KI93" s="70" t="s">
+      <c r="KI93" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="KJ93" s="70"/>
-      <c r="KK93" s="70"/>
-      <c r="KL93" s="70"/>
-      <c r="KM93" s="70"/>
-      <c r="KN93" s="70"/>
+      <c r="KJ93" s="77"/>
+      <c r="KK93" s="77"/>
+      <c r="KL93" s="77"/>
+      <c r="KM93" s="77"/>
+      <c r="KN93" s="77"/>
     </row>
     <row r="96" spans="1:327" ht="47">
       <c r="A96" s="27" t="s">
@@ -53271,17 +53271,17 @@
       </c>
       <c r="D118" s="69"/>
       <c r="E118" s="69"/>
-      <c r="G118" s="70" t="s">
+      <c r="G118" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="70" t="s">
+      <c r="K118" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L118" s="70"/>
-      <c r="M118" s="70"/>
+      <c r="L118" s="77"/>
+      <c r="M118" s="77"/>
       <c r="N118" s="17"/>
       <c r="O118" s="17" t="s">
         <v>41</v>
@@ -53296,17 +53296,17 @@
       </c>
       <c r="JZ118" s="69"/>
       <c r="KA118" s="69"/>
-      <c r="KC118" s="70" t="s">
+      <c r="KC118" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="KD118" s="70"/>
-      <c r="KE118" s="70"/>
+      <c r="KD118" s="77"/>
+      <c r="KE118" s="77"/>
       <c r="KF118" s="17"/>
-      <c r="KG118" s="70" t="s">
+      <c r="KG118" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="KH118" s="70"/>
-      <c r="KI118" s="70"/>
+      <c r="KH118" s="77"/>
+      <c r="KI118" s="77"/>
       <c r="KJ118" s="17"/>
       <c r="KK118" s="17" t="s">
         <v>150</v>
@@ -53585,28 +53585,133 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="GH81:GH88"/>
-    <mergeCell ref="HE81:HE88"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="ER89:EY89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="EC90:EC92"/>
-    <mergeCell ref="L93:Q93"/>
-    <mergeCell ref="EE93:EJ93"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="AH89:AO89"/>
-    <mergeCell ref="AS89:AZ89"/>
-    <mergeCell ref="BD89:BK89"/>
-    <mergeCell ref="DK89:DR89"/>
-    <mergeCell ref="EE89:EJ89"/>
-    <mergeCell ref="BS89:BX89"/>
+    <mergeCell ref="JW98:KE98"/>
+    <mergeCell ref="JW100:JW107"/>
+    <mergeCell ref="JW110:KE110"/>
+    <mergeCell ref="JW112:JW117"/>
+    <mergeCell ref="JY118:KA118"/>
+    <mergeCell ref="KC118:KE118"/>
+    <mergeCell ref="KG118:KI118"/>
+    <mergeCell ref="JW123:JW128"/>
+    <mergeCell ref="JJ81:JJ88"/>
+    <mergeCell ref="KG81:KG88"/>
+    <mergeCell ref="LF81:LF82"/>
+    <mergeCell ref="LH83:LO83"/>
+    <mergeCell ref="JO89:JV89"/>
+    <mergeCell ref="KI89:KN89"/>
+    <mergeCell ref="KV89:LC89"/>
+    <mergeCell ref="KG90:KG92"/>
+    <mergeCell ref="KI93:KN93"/>
+    <mergeCell ref="LH85:LO85"/>
+    <mergeCell ref="KY59:LF59"/>
+    <mergeCell ref="KP59:KR59"/>
+    <mergeCell ref="JJ61:JJ66"/>
+    <mergeCell ref="KY62:LF62"/>
+    <mergeCell ref="JO67:JT67"/>
+    <mergeCell ref="JX67:KE67"/>
+    <mergeCell ref="JO79:JV79"/>
+    <mergeCell ref="KI79:KN79"/>
+    <mergeCell ref="KV79:LC79"/>
+    <mergeCell ref="LH79:LO79"/>
+    <mergeCell ref="JV61:JV66"/>
+    <mergeCell ref="KP67:KR67"/>
+    <mergeCell ref="JL40:JM40"/>
+    <mergeCell ref="KI40:KN40"/>
+    <mergeCell ref="IU42:IU49"/>
+    <mergeCell ref="JJ42:JJ49"/>
+    <mergeCell ref="IW50:IX50"/>
+    <mergeCell ref="IZ50:JE50"/>
+    <mergeCell ref="KI50:KN50"/>
+    <mergeCell ref="JO59:JT59"/>
+    <mergeCell ref="JX59:KE59"/>
+    <mergeCell ref="KG42:KG49"/>
+    <mergeCell ref="KG51:KG53"/>
+    <mergeCell ref="KI54:KN54"/>
+    <mergeCell ref="KI56:KN56"/>
+    <mergeCell ref="ID81:ID82"/>
+    <mergeCell ref="IF83:IM83"/>
+    <mergeCell ref="GM89:GT89"/>
+    <mergeCell ref="HG89:HL89"/>
+    <mergeCell ref="HT89:IA89"/>
+    <mergeCell ref="HE90:HE92"/>
+    <mergeCell ref="HG93:HL93"/>
+    <mergeCell ref="IW40:IX40"/>
+    <mergeCell ref="IZ40:JE40"/>
+    <mergeCell ref="GJ40:GO40"/>
+    <mergeCell ref="GJ50:GO50"/>
+    <mergeCell ref="HW59:ID59"/>
+    <mergeCell ref="GM79:GT79"/>
+    <mergeCell ref="HG79:HL79"/>
+    <mergeCell ref="HT79:IA79"/>
+    <mergeCell ref="IF79:IM79"/>
+    <mergeCell ref="HW62:ID62"/>
+    <mergeCell ref="GM67:GR67"/>
+    <mergeCell ref="GV67:HC67"/>
+    <mergeCell ref="GM59:GR59"/>
+    <mergeCell ref="GV59:HC59"/>
+    <mergeCell ref="CV40:DA40"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="FU40:FV40"/>
+    <mergeCell ref="FX40:GC40"/>
+    <mergeCell ref="HG40:HL40"/>
+    <mergeCell ref="FS42:FS49"/>
+    <mergeCell ref="FU50:FV50"/>
+    <mergeCell ref="FX50:GC50"/>
+    <mergeCell ref="HG50:HL50"/>
+    <mergeCell ref="DH40:DM40"/>
+    <mergeCell ref="DH50:DM50"/>
+    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="CQ42:CQ49"/>
+    <mergeCell ref="DF42:DF49"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AH74:AI74"/>
+    <mergeCell ref="AK74:AL74"/>
+    <mergeCell ref="AS74:AZ74"/>
+    <mergeCell ref="DT59:EA59"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AH59:AM59"/>
+    <mergeCell ref="AS70:AZ70"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="AK70:AL70"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="L71:Q71"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="GH61:GH66"/>
+    <mergeCell ref="AS59:AZ59"/>
+    <mergeCell ref="BD59:BK59"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AS50:AX50"/>
+    <mergeCell ref="BD50:BI50"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="BS50:BX50"/>
+    <mergeCell ref="BZ50:CG50"/>
+    <mergeCell ref="EU59:FB59"/>
+    <mergeCell ref="DF61:DF66"/>
+    <mergeCell ref="EU62:FB62"/>
+    <mergeCell ref="DK59:DP59"/>
+    <mergeCell ref="BS59:BX59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="BL38:CJ38"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AS40:AX40"/>
+    <mergeCell ref="BD40:BI40"/>
+    <mergeCell ref="BS40:BX40"/>
+    <mergeCell ref="BZ40:CG40"/>
+    <mergeCell ref="CI40:CJ40"/>
     <mergeCell ref="CS40:CT40"/>
     <mergeCell ref="EE40:EJ40"/>
     <mergeCell ref="C76:J76"/>
@@ -53631,133 +53736,28 @@
     <mergeCell ref="BS79:BX79"/>
     <mergeCell ref="DK67:DP67"/>
     <mergeCell ref="DT67:EA67"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="BL38:CJ38"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AS40:AX40"/>
-    <mergeCell ref="BD40:BI40"/>
-    <mergeCell ref="BS40:BX40"/>
-    <mergeCell ref="BZ40:CG40"/>
-    <mergeCell ref="CI40:CJ40"/>
-    <mergeCell ref="GH61:GH66"/>
-    <mergeCell ref="AS59:AZ59"/>
-    <mergeCell ref="BD59:BK59"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AS50:AX50"/>
-    <mergeCell ref="BD50:BI50"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="BS50:BX50"/>
-    <mergeCell ref="BZ50:CG50"/>
-    <mergeCell ref="EU59:FB59"/>
-    <mergeCell ref="DF61:DF66"/>
-    <mergeCell ref="EU62:FB62"/>
-    <mergeCell ref="DK59:DP59"/>
-    <mergeCell ref="BS59:BX59"/>
-    <mergeCell ref="CQ42:CQ49"/>
-    <mergeCell ref="DF42:DF49"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AH74:AI74"/>
-    <mergeCell ref="AK74:AL74"/>
-    <mergeCell ref="AS74:AZ74"/>
-    <mergeCell ref="DT59:EA59"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AH59:AM59"/>
-    <mergeCell ref="AS70:AZ70"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="AK70:AL70"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="L71:Q71"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="CV40:DA40"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="FU40:FV40"/>
-    <mergeCell ref="FX40:GC40"/>
-    <mergeCell ref="HG40:HL40"/>
-    <mergeCell ref="FS42:FS49"/>
-    <mergeCell ref="FU50:FV50"/>
-    <mergeCell ref="FX50:GC50"/>
-    <mergeCell ref="HG50:HL50"/>
-    <mergeCell ref="DH40:DM40"/>
-    <mergeCell ref="DH50:DM50"/>
-    <mergeCell ref="EE50:EJ50"/>
-    <mergeCell ref="ID81:ID82"/>
-    <mergeCell ref="IF83:IM83"/>
-    <mergeCell ref="GM89:GT89"/>
-    <mergeCell ref="HG89:HL89"/>
-    <mergeCell ref="HT89:IA89"/>
-    <mergeCell ref="HE90:HE92"/>
-    <mergeCell ref="HG93:HL93"/>
-    <mergeCell ref="IW40:IX40"/>
-    <mergeCell ref="IZ40:JE40"/>
-    <mergeCell ref="GJ40:GO40"/>
-    <mergeCell ref="GJ50:GO50"/>
-    <mergeCell ref="HW59:ID59"/>
-    <mergeCell ref="GM79:GT79"/>
-    <mergeCell ref="HG79:HL79"/>
-    <mergeCell ref="HT79:IA79"/>
-    <mergeCell ref="IF79:IM79"/>
-    <mergeCell ref="HW62:ID62"/>
-    <mergeCell ref="GM67:GR67"/>
-    <mergeCell ref="GV67:HC67"/>
-    <mergeCell ref="GM59:GR59"/>
-    <mergeCell ref="GV59:HC59"/>
-    <mergeCell ref="JL40:JM40"/>
-    <mergeCell ref="KI40:KN40"/>
-    <mergeCell ref="IU42:IU49"/>
-    <mergeCell ref="JJ42:JJ49"/>
-    <mergeCell ref="IW50:IX50"/>
-    <mergeCell ref="IZ50:JE50"/>
-    <mergeCell ref="KI50:KN50"/>
-    <mergeCell ref="JO59:JT59"/>
-    <mergeCell ref="JX59:KE59"/>
-    <mergeCell ref="KG42:KG49"/>
-    <mergeCell ref="KG51:KG53"/>
-    <mergeCell ref="KI54:KN54"/>
-    <mergeCell ref="KI56:KN56"/>
-    <mergeCell ref="JJ61:JJ66"/>
-    <mergeCell ref="KY62:LF62"/>
-    <mergeCell ref="JO67:JT67"/>
-    <mergeCell ref="JX67:KE67"/>
-    <mergeCell ref="JO79:JV79"/>
-    <mergeCell ref="KI79:KN79"/>
-    <mergeCell ref="KV79:LC79"/>
-    <mergeCell ref="LH79:LO79"/>
-    <mergeCell ref="JV61:JV66"/>
-    <mergeCell ref="KP67:KR67"/>
-    <mergeCell ref="LF81:LF82"/>
-    <mergeCell ref="LH83:LO83"/>
-    <mergeCell ref="JO89:JV89"/>
-    <mergeCell ref="KI89:KN89"/>
-    <mergeCell ref="KV89:LC89"/>
-    <mergeCell ref="KG90:KG92"/>
-    <mergeCell ref="KI93:KN93"/>
-    <mergeCell ref="LH85:LO85"/>
-    <mergeCell ref="KY59:LF59"/>
-    <mergeCell ref="KP59:KR59"/>
-    <mergeCell ref="JW98:KE98"/>
-    <mergeCell ref="JW100:JW107"/>
-    <mergeCell ref="JW110:KE110"/>
-    <mergeCell ref="JW112:JW117"/>
-    <mergeCell ref="JY118:KA118"/>
-    <mergeCell ref="KC118:KE118"/>
-    <mergeCell ref="KG118:KI118"/>
-    <mergeCell ref="JW123:JW128"/>
-    <mergeCell ref="JJ81:JJ88"/>
-    <mergeCell ref="KG81:KG88"/>
+    <mergeCell ref="GH81:GH88"/>
+    <mergeCell ref="HE81:HE88"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="ER89:EY89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="EC90:EC92"/>
+    <mergeCell ref="L93:Q93"/>
+    <mergeCell ref="EE93:EJ93"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="AH89:AO89"/>
+    <mergeCell ref="AS89:AZ89"/>
+    <mergeCell ref="BD89:BK89"/>
+    <mergeCell ref="DK89:DR89"/>
+    <mergeCell ref="EE89:EJ89"/>
+    <mergeCell ref="BS89:BX89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53770,7 +53770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB1CE6-E3EC-7B4E-8832-2A8872C682BA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A39AC02-0FAA-C344-A179-FC0EFD04C3AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61524CCD-45FA-FF45-A47A-92231EF698CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="440" windowWidth="26200" windowHeight="17560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20680" yWindow="460" windowWidth="26200" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,16 @@
     <sheet name="PerfectSubstitutionRaw" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5323,9 +5333,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>EX.ktoe</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -5333,9 +5340,6 @@
   </si>
   <si>
     <t>Total primary energy supply</t>
-  </si>
-  <si>
-    <t>E.ktoe</t>
   </si>
   <si>
     <t>Resources - Rens</t>
@@ -5354,9 +5358,6 @@
   </si>
   <si>
     <t>Consumption</t>
-  </si>
-  <si>
-    <t>services</t>
   </si>
   <si>
     <t>Commercial and public services</t>
@@ -5992,6 +5993,15 @@
       </rPr>
       <t>f_hat</t>
     </r>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E.dot</t>
   </si>
 </sst>
 </file>
@@ -6859,7 +6869,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6868,28 +6878,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -30459,7 +30469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338BDA73-949D-6141-997A-6445BD9150B1}">
   <dimension ref="A1:CO144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AW56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AW56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BT50" sqref="BT50:BY50"/>
     </sheetView>
   </sheetViews>
@@ -30640,11 +30650,11 @@
     </row>
     <row r="26" spans="1:93">
       <c r="B26" s="10"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
@@ -30913,11 +30923,11 @@
       <c r="CO35" s="31"/>
     </row>
     <row r="36" spans="1:93" ht="18">
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="BM36" s="31"/>
@@ -31135,7 +31145,7 @@
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>58</v>
@@ -31243,7 +31253,7 @@
         <v>18</v>
       </c>
       <c r="CJ41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="CK41" s="2" t="s">
         <v>58</v>
@@ -33051,14 +33061,14 @@
       <c r="AA53" s="15"/>
     </row>
     <row r="54" spans="1:93" ht="20">
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
     </row>
     <row r="55" spans="1:93">
       <c r="L55" s="6">
@@ -33098,11 +33108,11 @@
     </row>
     <row r="60" spans="1:93">
       <c r="B60" s="1"/>
-      <c r="Z60" s="70" t="s">
+      <c r="Z60" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
       <c r="AI60" s="69" t="s">
         <v>3</v>
       </c>
@@ -34238,11 +34248,11 @@
       <c r="J68" s="69"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="73" t="s">
+      <c r="Z68" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="AA68" s="73"/>
-      <c r="AB68" s="73"/>
+      <c r="AA68" s="74"/>
+      <c r="AB68" s="74"/>
       <c r="AD68" s="34" t="s">
         <v>71</v>
       </c>
@@ -34448,17 +34458,17 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="70" t="s">
+      <c r="Z73" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA73" s="70"/>
-      <c r="AI73" s="74" t="s">
+      <c r="AA73" s="76"/>
+      <c r="AI73" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AJ73" s="74"/>
+      <c r="AJ73" s="77"/>
       <c r="AK73" s="31"/>
-      <c r="AL73" s="74"/>
-      <c r="AM73" s="74"/>
+      <c r="AL73" s="77"/>
+      <c r="AM73" s="77"/>
       <c r="AN73" s="31"/>
       <c r="AO73" s="31"/>
       <c r="AP73" s="31"/>
@@ -34782,29 +34792,29 @@
       <c r="AC77" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AI77" s="76" t="s">
+      <c r="AI77" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AJ77" s="76"/>
+      <c r="AJ77" s="73"/>
       <c r="AK77" s="29"/>
-      <c r="AL77" s="76"/>
-      <c r="AM77" s="76"/>
+      <c r="AL77" s="73"/>
+      <c r="AM77" s="73"/>
       <c r="AN77" s="29"/>
       <c r="AO77" s="31"/>
       <c r="AP77" s="31"/>
       <c r="AQ77" s="31"/>
       <c r="AR77" s="31"/>
       <c r="AS77" s="31"/>
-      <c r="AT77" s="76" t="s">
+      <c r="AT77" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="AU77" s="76"/>
-      <c r="AV77" s="76"/>
-      <c r="AW77" s="76"/>
-      <c r="AX77" s="76"/>
-      <c r="AY77" s="76"/>
-      <c r="AZ77" s="76"/>
-      <c r="BA77" s="76"/>
+      <c r="AU77" s="73"/>
+      <c r="AV77" s="73"/>
+      <c r="AW77" s="73"/>
+      <c r="AX77" s="73"/>
+      <c r="AY77" s="73"/>
+      <c r="AZ77" s="73"/>
+      <c r="BA77" s="73"/>
     </row>
     <row r="78" spans="1:78">
       <c r="B78" s="1"/>
@@ -34904,16 +34914,16 @@
       </c>
     </row>
     <row r="81" spans="1:93" ht="16" customHeight="1">
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="70"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="70"/>
       <c r="AI81" s="69" t="s">
         <v>4</v>
       </c>
@@ -36329,14 +36339,14 @@
       </c>
     </row>
     <row r="91" spans="1:93" ht="19">
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="70"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="70"/>
+      <c r="Q91" s="70"/>
       <c r="Z91" s="41" t="s">
         <v>11</v>
       </c>
@@ -36489,14 +36499,14 @@
       <c r="AA94" s="17"/>
     </row>
     <row r="95" spans="1:93" ht="20">
-      <c r="L95" s="77" t="s">
+      <c r="L95" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
     </row>
     <row r="98" spans="1:40" ht="47">
       <c r="A98" s="27" t="s">
@@ -37117,16 +37127,16 @@
       </c>
       <c r="D120" s="69"/>
       <c r="E120" s="69"/>
-      <c r="G120" s="77" t="s">
+      <c r="G120" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="K120" s="77" t="s">
+      <c r="H120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="K120" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L120" s="77"/>
-      <c r="M120" s="77"/>
+      <c r="L120" s="70"/>
+      <c r="M120" s="70"/>
       <c r="N120" s="17"/>
       <c r="O120" s="17" t="s">
         <v>41</v>
@@ -37550,65 +37560,6 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="C143:H143"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="C135:H135"/>
-    <mergeCell ref="A137:A142"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="BE81:BL81"/>
-    <mergeCell ref="BT81:BY81"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="L91:Q91"/>
-    <mergeCell ref="AI91:AP91"/>
-    <mergeCell ref="AT91:BA91"/>
-    <mergeCell ref="BE91:BL91"/>
-    <mergeCell ref="BT91:BY91"/>
-    <mergeCell ref="C81:J81"/>
-    <mergeCell ref="AI81:AP81"/>
-    <mergeCell ref="AT81:BA81"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="L95:Q95"/>
-    <mergeCell ref="A100:I100"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AL77:AM77"/>
-    <mergeCell ref="AT77:BA77"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AI68:AN68"/>
-    <mergeCell ref="AT68:BA68"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AL73:AM73"/>
-    <mergeCell ref="AT73:BA73"/>
-    <mergeCell ref="BE68:BL68"/>
-    <mergeCell ref="BT68:BY68"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AI60:AN60"/>
-    <mergeCell ref="AT60:BA60"/>
-    <mergeCell ref="BE60:BL60"/>
-    <mergeCell ref="BT60:BY60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="BE50:BJ50"/>
-    <mergeCell ref="BT50:BY50"/>
-    <mergeCell ref="CA50:CH50"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="L54:Q54"/>
-    <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="AT50:AY50"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="U42:U49"/>
-    <mergeCell ref="L50:Q50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="AI50:AP50"/>
     <mergeCell ref="CJ40:CK40"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A28:A35"/>
@@ -37621,6 +37572,65 @@
     <mergeCell ref="BE40:BJ40"/>
     <mergeCell ref="BT40:BY40"/>
     <mergeCell ref="CA40:CH40"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="U42:U49"/>
+    <mergeCell ref="L50:Q50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="BE50:BJ50"/>
+    <mergeCell ref="BT50:BY50"/>
+    <mergeCell ref="CA50:CH50"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="L56:Q56"/>
+    <mergeCell ref="AT50:AY50"/>
+    <mergeCell ref="BT68:BY68"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AI60:AN60"/>
+    <mergeCell ref="AT60:BA60"/>
+    <mergeCell ref="BE60:BL60"/>
+    <mergeCell ref="BT60:BY60"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AI73:AJ73"/>
+    <mergeCell ref="AL73:AM73"/>
+    <mergeCell ref="AT73:BA73"/>
+    <mergeCell ref="BE68:BL68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AI68:AN68"/>
+    <mergeCell ref="AT68:BA68"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="AI77:AJ77"/>
+    <mergeCell ref="AL77:AM77"/>
+    <mergeCell ref="AT77:BA77"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="L95:Q95"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="BE81:BL81"/>
+    <mergeCell ref="BT81:BY81"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="L91:Q91"/>
+    <mergeCell ref="AI91:AP91"/>
+    <mergeCell ref="AT91:BA91"/>
+    <mergeCell ref="BE91:BL91"/>
+    <mergeCell ref="BT91:BY91"/>
+    <mergeCell ref="C81:J81"/>
+    <mergeCell ref="AI81:AP81"/>
+    <mergeCell ref="AT81:BA81"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="C143:H143"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="C135:H135"/>
+    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A114:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -38236,11 +38246,11 @@
     </row>
     <row r="26" spans="1:278">
       <c r="B26" s="10"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="CQ26" t="s">
@@ -38499,11 +38509,11 @@
       <c r="CJ35" s="31"/>
     </row>
     <row r="36" spans="1:302" ht="18">
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="BL36" s="31"/>
@@ -38558,31 +38568,31 @@
       <c r="CJ37" s="51"/>
     </row>
     <row r="38" spans="1:302">
-      <c r="BL38" s="76"/>
-      <c r="BM38" s="76"/>
-      <c r="BN38" s="76"/>
-      <c r="BO38" s="76"/>
-      <c r="BP38" s="76"/>
-      <c r="BQ38" s="76"/>
-      <c r="BR38" s="76"/>
-      <c r="BS38" s="76"/>
-      <c r="BT38" s="76"/>
-      <c r="BU38" s="76"/>
-      <c r="BV38" s="76"/>
-      <c r="BW38" s="76"/>
-      <c r="BX38" s="76"/>
-      <c r="BY38" s="76"/>
-      <c r="BZ38" s="76"/>
-      <c r="CA38" s="76"/>
-      <c r="CB38" s="76"/>
-      <c r="CC38" s="76"/>
-      <c r="CD38" s="76"/>
-      <c r="CE38" s="76"/>
-      <c r="CF38" s="76"/>
-      <c r="CG38" s="76"/>
-      <c r="CH38" s="76"/>
-      <c r="CI38" s="76"/>
-      <c r="CJ38" s="76"/>
+      <c r="BL38" s="73"/>
+      <c r="BM38" s="73"/>
+      <c r="BN38" s="73"/>
+      <c r="BO38" s="73"/>
+      <c r="BP38" s="73"/>
+      <c r="BQ38" s="73"/>
+      <c r="BR38" s="73"/>
+      <c r="BS38" s="73"/>
+      <c r="BT38" s="73"/>
+      <c r="BU38" s="73"/>
+      <c r="BV38" s="73"/>
+      <c r="BW38" s="73"/>
+      <c r="BX38" s="73"/>
+      <c r="BY38" s="73"/>
+      <c r="BZ38" s="73"/>
+      <c r="CA38" s="73"/>
+      <c r="CB38" s="73"/>
+      <c r="CC38" s="73"/>
+      <c r="CD38" s="73"/>
+      <c r="CE38" s="73"/>
+      <c r="CF38" s="73"/>
+      <c r="CG38" s="73"/>
+      <c r="CH38" s="73"/>
+      <c r="CI38" s="73"/>
+      <c r="CJ38" s="73"/>
     </row>
     <row r="40" spans="1:302">
       <c r="C40" s="69" t="s">
@@ -38728,8 +38738,8 @@
       <c r="JC40" s="69"/>
       <c r="JD40" s="69"/>
       <c r="JE40" s="69"/>
-      <c r="JL40" s="76"/>
-      <c r="JM40" s="76"/>
+      <c r="JL40" s="73"/>
+      <c r="JM40" s="73"/>
       <c r="KI40" s="69" t="s">
         <v>3</v>
       </c>
@@ -38784,7 +38794,7 @@
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>58</v>
@@ -38892,7 +38902,7 @@
         <v>18</v>
       </c>
       <c r="CI41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="CJ41" s="2" t="s">
         <v>58</v>
@@ -38901,7 +38911,7 @@
       <c r="CL41" s="2"/>
       <c r="CR41" s="28"/>
       <c r="CS41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="CT41" s="2" t="s">
         <v>58</v>
@@ -38962,7 +38972,7 @@
       </c>
       <c r="FT41" s="28"/>
       <c r="FU41" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="FV41" s="2" t="s">
         <v>58</v>
@@ -42357,7 +42367,7 @@
       <c r="BH50" s="69"/>
       <c r="BI50" s="69"/>
       <c r="BS50" s="72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="BT50" s="72"/>
       <c r="BU50" s="72"/>
@@ -42389,7 +42399,7 @@
       </c>
       <c r="CT50" s="69"/>
       <c r="CV50" s="72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="CW50" s="72"/>
       <c r="CX50" s="72"/>
@@ -42397,11 +42407,11 @@
       <c r="CZ50" s="72"/>
       <c r="DA50" s="72"/>
       <c r="DC50" s="52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="DF50" s="31"/>
       <c r="DH50" s="69" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="DI50" s="69"/>
       <c r="DJ50" s="69"/>
@@ -42413,14 +42423,14 @@
       <c r="EB50" s="58"/>
       <c r="EC50" s="58"/>
       <c r="ED50" s="58"/>
-      <c r="EE50" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="EF50" s="79"/>
-      <c r="EG50" s="79"/>
-      <c r="EH50" s="79"/>
-      <c r="EI50" s="79"/>
-      <c r="EJ50" s="79"/>
+      <c r="EE50" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="EF50" s="80"/>
+      <c r="EG50" s="80"/>
+      <c r="EH50" s="80"/>
+      <c r="EI50" s="80"/>
+      <c r="EJ50" s="80"/>
       <c r="EK50" s="58"/>
       <c r="EL50" s="58"/>
       <c r="EM50" s="58"/>
@@ -42437,7 +42447,7 @@
       </c>
       <c r="FV50" s="69"/>
       <c r="FX50" s="72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="FY50" s="72"/>
       <c r="FZ50" s="72"/>
@@ -42445,12 +42455,12 @@
       <c r="GB50" s="72"/>
       <c r="GC50" s="72"/>
       <c r="GE50" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="GH50" s="29"/>
       <c r="GI50" s="29"/>
       <c r="GJ50" s="69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="GK50" s="69"/>
       <c r="GL50" s="69"/>
@@ -42462,14 +42472,14 @@
       <c r="HD50" s="58"/>
       <c r="HE50" s="58"/>
       <c r="HF50" s="58"/>
-      <c r="HG50" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="HH50" s="79"/>
-      <c r="HI50" s="79"/>
-      <c r="HJ50" s="79"/>
-      <c r="HK50" s="79"/>
-      <c r="HL50" s="79"/>
+      <c r="HG50" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="HH50" s="80"/>
+      <c r="HI50" s="80"/>
+      <c r="HJ50" s="80"/>
+      <c r="HK50" s="80"/>
+      <c r="HL50" s="80"/>
       <c r="HM50" s="58"/>
       <c r="HN50" s="58"/>
       <c r="HO50" s="58"/>
@@ -42482,15 +42492,15 @@
       <c r="IS50" s="8"/>
       <c r="IT50" s="8"/>
       <c r="IV50" s="31"/>
-      <c r="IW50" s="76"/>
-      <c r="IX50" s="76"/>
+      <c r="IW50" s="73"/>
+      <c r="IX50" s="73"/>
       <c r="IY50" s="31"/>
-      <c r="IZ50" s="79"/>
-      <c r="JA50" s="79"/>
-      <c r="JB50" s="79"/>
-      <c r="JC50" s="79"/>
-      <c r="JD50" s="79"/>
-      <c r="JE50" s="79"/>
+      <c r="IZ50" s="80"/>
+      <c r="JA50" s="80"/>
+      <c r="JB50" s="80"/>
+      <c r="JC50" s="80"/>
+      <c r="JD50" s="80"/>
+      <c r="JE50" s="80"/>
       <c r="JF50" s="31"/>
       <c r="JG50" s="55"/>
       <c r="JH50" s="31"/>
@@ -42504,14 +42514,14 @@
       <c r="KF50" s="58"/>
       <c r="KG50" s="58"/>
       <c r="KH50" s="58"/>
-      <c r="KI50" s="79" t="s">
+      <c r="KI50" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="KJ50" s="79"/>
-      <c r="KK50" s="79"/>
-      <c r="KL50" s="79"/>
-      <c r="KM50" s="79"/>
-      <c r="KN50" s="79"/>
+      <c r="KJ50" s="80"/>
+      <c r="KK50" s="80"/>
+      <c r="KL50" s="80"/>
+      <c r="KM50" s="80"/>
+      <c r="KN50" s="80"/>
       <c r="KO50" s="58"/>
       <c r="KP50" s="59" t="s">
         <v>12</v>
@@ -42826,14 +42836,14 @@
     </row>
     <row r="54" spans="1:319" ht="20">
       <c r="B54" s="1"/>
-      <c r="L54" s="73" t="s">
+      <c r="L54" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -42861,14 +42871,14 @@
       <c r="JJ54" s="31"/>
       <c r="JK54" s="31"/>
       <c r="JL54" s="31"/>
-      <c r="KI54" s="73" t="s">
+      <c r="KI54" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="KJ54" s="73"/>
-      <c r="KK54" s="73"/>
-      <c r="KL54" s="73"/>
-      <c r="KM54" s="73"/>
-      <c r="KN54" s="73"/>
+      <c r="KJ54" s="74"/>
+      <c r="KK54" s="74"/>
+      <c r="KL54" s="74"/>
+      <c r="KM54" s="74"/>
+      <c r="KN54" s="74"/>
     </row>
     <row r="55" spans="1:319">
       <c r="B55" s="1"/>
@@ -42998,11 +43008,11 @@
     </row>
     <row r="59" spans="1:319">
       <c r="B59" s="1"/>
-      <c r="Z59" s="70" t="s">
+      <c r="Z59" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA59" s="70"/>
-      <c r="AB59" s="70"/>
+      <c r="AA59" s="76"/>
+      <c r="AB59" s="76"/>
       <c r="AH59" s="69" t="s">
         <v>3</v>
       </c>
@@ -43061,14 +43071,14 @@
       <c r="EC59" s="45"/>
       <c r="ES59" s="31"/>
       <c r="ET59" s="31"/>
-      <c r="EU59" s="76"/>
-      <c r="EV59" s="76"/>
-      <c r="EW59" s="76"/>
-      <c r="EX59" s="76"/>
-      <c r="EY59" s="76"/>
-      <c r="EZ59" s="76"/>
-      <c r="FA59" s="76"/>
-      <c r="FB59" s="76"/>
+      <c r="EU59" s="73"/>
+      <c r="EV59" s="73"/>
+      <c r="EW59" s="73"/>
+      <c r="EX59" s="73"/>
+      <c r="EY59" s="73"/>
+      <c r="EZ59" s="73"/>
+      <c r="FA59" s="73"/>
+      <c r="FB59" s="73"/>
       <c r="FC59" s="31"/>
       <c r="GM59" s="69" t="s">
         <v>3</v>
@@ -43092,26 +43102,26 @@
       <c r="HE59" s="52"/>
       <c r="HU59" s="31"/>
       <c r="HV59" s="31"/>
-      <c r="HW59" s="76"/>
-      <c r="HX59" s="76"/>
-      <c r="HY59" s="76"/>
-      <c r="HZ59" s="76"/>
-      <c r="IA59" s="76"/>
-      <c r="IB59" s="76"/>
-      <c r="IC59" s="76"/>
-      <c r="ID59" s="76"/>
+      <c r="HW59" s="73"/>
+      <c r="HX59" s="73"/>
+      <c r="HY59" s="73"/>
+      <c r="HZ59" s="73"/>
+      <c r="IA59" s="73"/>
+      <c r="IB59" s="73"/>
+      <c r="IC59" s="73"/>
+      <c r="ID59" s="73"/>
       <c r="IE59" s="31"/>
       <c r="JJ59" s="31"/>
       <c r="JK59" s="31"/>
       <c r="JL59" s="31"/>
       <c r="JM59" s="31"/>
       <c r="JN59" s="31"/>
-      <c r="JO59" s="76"/>
-      <c r="JP59" s="76"/>
-      <c r="JQ59" s="76"/>
-      <c r="JR59" s="76"/>
-      <c r="JS59" s="76"/>
-      <c r="JT59" s="76"/>
+      <c r="JO59" s="73"/>
+      <c r="JP59" s="73"/>
+      <c r="JQ59" s="73"/>
+      <c r="JR59" s="73"/>
+      <c r="JS59" s="73"/>
+      <c r="JT59" s="73"/>
       <c r="JU59" s="31"/>
       <c r="JX59" s="69" t="s">
         <v>4</v>
@@ -43125,21 +43135,21 @@
       <c r="KE59" s="69"/>
       <c r="KF59" s="52"/>
       <c r="KG59" s="52"/>
-      <c r="KP59" s="70" t="s">
+      <c r="KP59" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="KQ59" s="70"/>
-      <c r="KR59" s="70"/>
+      <c r="KQ59" s="76"/>
+      <c r="KR59" s="76"/>
       <c r="KW59" s="31"/>
       <c r="KX59" s="31"/>
-      <c r="KY59" s="76"/>
-      <c r="KZ59" s="76"/>
-      <c r="LA59" s="76"/>
-      <c r="LB59" s="76"/>
-      <c r="LC59" s="76"/>
-      <c r="LD59" s="76"/>
-      <c r="LE59" s="76"/>
-      <c r="LF59" s="76"/>
+      <c r="KY59" s="73"/>
+      <c r="KZ59" s="73"/>
+      <c r="LA59" s="73"/>
+      <c r="LB59" s="73"/>
+      <c r="LC59" s="73"/>
+      <c r="LD59" s="73"/>
+      <c r="LE59" s="73"/>
+      <c r="LF59" s="73"/>
       <c r="LG59" s="31"/>
     </row>
     <row r="60" spans="1:319" ht="51" customHeight="1">
@@ -44043,14 +44053,14 @@
       <c r="EC62" s="50"/>
       <c r="ES62" s="31"/>
       <c r="ET62" s="31"/>
-      <c r="EU62" s="73"/>
-      <c r="EV62" s="73"/>
-      <c r="EW62" s="73"/>
-      <c r="EX62" s="73"/>
-      <c r="EY62" s="73"/>
-      <c r="EZ62" s="73"/>
-      <c r="FA62" s="73"/>
-      <c r="FB62" s="73"/>
+      <c r="EU62" s="74"/>
+      <c r="EV62" s="74"/>
+      <c r="EW62" s="74"/>
+      <c r="EX62" s="74"/>
+      <c r="EY62" s="74"/>
+      <c r="EZ62" s="74"/>
+      <c r="FA62" s="74"/>
+      <c r="FB62" s="74"/>
       <c r="FC62" s="31"/>
       <c r="GH62" s="71"/>
       <c r="GI62" s="1" t="s">
@@ -44120,14 +44130,14 @@
       <c r="HE62" s="51"/>
       <c r="HU62" s="31"/>
       <c r="HV62" s="31"/>
-      <c r="HW62" s="73"/>
-      <c r="HX62" s="73"/>
-      <c r="HY62" s="73"/>
-      <c r="HZ62" s="73"/>
-      <c r="IA62" s="73"/>
-      <c r="IB62" s="73"/>
-      <c r="IC62" s="73"/>
-      <c r="ID62" s="73"/>
+      <c r="HW62" s="74"/>
+      <c r="HX62" s="74"/>
+      <c r="HY62" s="74"/>
+      <c r="HZ62" s="74"/>
+      <c r="IA62" s="74"/>
+      <c r="IB62" s="74"/>
+      <c r="IC62" s="74"/>
+      <c r="ID62" s="74"/>
       <c r="IE62" s="31"/>
       <c r="JJ62" s="78"/>
       <c r="JK62" s="63"/>
@@ -44197,14 +44207,14 @@
       </c>
       <c r="KW62" s="31"/>
       <c r="KX62" s="31"/>
-      <c r="KY62" s="73"/>
-      <c r="KZ62" s="73"/>
-      <c r="LA62" s="73"/>
-      <c r="LB62" s="73"/>
-      <c r="LC62" s="73"/>
-      <c r="LD62" s="73"/>
-      <c r="LE62" s="73"/>
-      <c r="LF62" s="73"/>
+      <c r="KY62" s="74"/>
+      <c r="KZ62" s="74"/>
+      <c r="LA62" s="74"/>
+      <c r="LB62" s="74"/>
+      <c r="LC62" s="74"/>
+      <c r="LD62" s="74"/>
+      <c r="LE62" s="74"/>
+      <c r="LF62" s="74"/>
       <c r="LG62" s="31"/>
     </row>
     <row r="63" spans="1:319">
@@ -45801,11 +45811,11 @@
       <c r="J67" s="69"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="73" t="s">
+      <c r="Z67" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="AA67" s="73"/>
-      <c r="AB67" s="73"/>
+      <c r="AA67" s="74"/>
+      <c r="AB67" s="74"/>
       <c r="AD67" s="45" t="s">
         <v>34</v>
       </c>
@@ -46020,23 +46030,23 @@
       <c r="JL67" s="55"/>
       <c r="JM67" s="31"/>
       <c r="JN67" s="31"/>
-      <c r="JO67" s="76"/>
-      <c r="JP67" s="76"/>
-      <c r="JQ67" s="76"/>
-      <c r="JR67" s="76"/>
-      <c r="JS67" s="76"/>
-      <c r="JT67" s="76"/>
+      <c r="JO67" s="73"/>
+      <c r="JP67" s="73"/>
+      <c r="JQ67" s="73"/>
+      <c r="JR67" s="73"/>
+      <c r="JS67" s="73"/>
+      <c r="JT67" s="73"/>
       <c r="JU67" s="31"/>
-      <c r="JX67" s="80" t="s">
+      <c r="JX67" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="JY67" s="80"/>
-      <c r="JZ67" s="80"/>
-      <c r="KA67" s="80"/>
-      <c r="KB67" s="80"/>
-      <c r="KC67" s="80"/>
-      <c r="KD67" s="80"/>
-      <c r="KE67" s="80"/>
+      <c r="JY67" s="79"/>
+      <c r="JZ67" s="79"/>
+      <c r="KA67" s="79"/>
+      <c r="KB67" s="79"/>
+      <c r="KC67" s="79"/>
+      <c r="KD67" s="79"/>
+      <c r="KE67" s="79"/>
       <c r="KF67" s="54"/>
       <c r="KG67" s="54"/>
       <c r="KH67" s="26"/>
@@ -46047,11 +46057,11 @@
       <c r="KM67" s="26"/>
       <c r="KN67" s="26"/>
       <c r="KO67" s="26"/>
-      <c r="KP67" s="73" t="s">
+      <c r="KP67" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="KQ67" s="73"/>
-      <c r="KR67" s="73"/>
+      <c r="KQ67" s="74"/>
+      <c r="KR67" s="74"/>
       <c r="KS67" s="26"/>
       <c r="KT67" s="52" t="s">
         <v>145</v>
@@ -46169,18 +46179,18 @@
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
-      <c r="Z70" s="70" t="s">
+      <c r="Z70" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AA70" s="70"/>
-      <c r="AB70" s="70"/>
-      <c r="AH70" s="74" t="s">
+      <c r="AA70" s="76"/>
+      <c r="AB70" s="76"/>
+      <c r="AH70" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="AI70" s="74"/>
+      <c r="AI70" s="77"/>
       <c r="AJ70" s="31"/>
-      <c r="AK70" s="74"/>
-      <c r="AL70" s="74"/>
+      <c r="AK70" s="77"/>
+      <c r="AL70" s="77"/>
       <c r="AM70" s="31"/>
       <c r="AN70" s="31"/>
       <c r="AO70" s="31"/>
@@ -46268,7 +46278,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4">
         <f>F5</f>
@@ -46506,37 +46516,37 @@
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
       <c r="Y74" s="15"/>
-      <c r="Z74" s="76" t="s">
+      <c r="Z74" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
       <c r="AD74" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AH74" s="76" t="s">
+      <c r="AH74" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AI74" s="76"/>
+      <c r="AI74" s="73"/>
       <c r="AJ74" s="29"/>
-      <c r="AK74" s="76"/>
-      <c r="AL74" s="76"/>
+      <c r="AK74" s="73"/>
+      <c r="AL74" s="73"/>
       <c r="AM74" s="29"/>
       <c r="AN74" s="31"/>
       <c r="AO74" s="31"/>
       <c r="AP74" s="31"/>
       <c r="AQ74" s="31"/>
       <c r="AR74" s="31"/>
-      <c r="AS74" s="76" t="s">
+      <c r="AS74" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="AT74" s="76"/>
-      <c r="AU74" s="76"/>
-      <c r="AV74" s="76"/>
-      <c r="AW74" s="76"/>
-      <c r="AX74" s="76"/>
-      <c r="AY74" s="76"/>
-      <c r="AZ74" s="76"/>
+      <c r="AT74" s="73"/>
+      <c r="AU74" s="73"/>
+      <c r="AV74" s="73"/>
+      <c r="AW74" s="73"/>
+      <c r="AX74" s="73"/>
+      <c r="AY74" s="73"/>
+      <c r="AZ74" s="73"/>
       <c r="ES74" s="31"/>
       <c r="ET74" s="31"/>
       <c r="EU74" s="31"/>
@@ -48760,16 +48770,16 @@
       <c r="FA83" s="29"/>
       <c r="FB83" s="29"/>
       <c r="FC83" s="31"/>
-      <c r="FD83" s="77" t="s">
+      <c r="FD83" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="FE83" s="77"/>
-      <c r="FF83" s="77"/>
-      <c r="FG83" s="77"/>
-      <c r="FH83" s="77"/>
-      <c r="FI83" s="77"/>
-      <c r="FJ83" s="77"/>
-      <c r="FK83" s="77"/>
+      <c r="FE83" s="70"/>
+      <c r="FF83" s="70"/>
+      <c r="FG83" s="70"/>
+      <c r="FH83" s="70"/>
+      <c r="FI83" s="70"/>
+      <c r="FJ83" s="70"/>
+      <c r="FK83" s="70"/>
       <c r="GH83" s="71"/>
       <c r="GI83" s="1" t="s">
         <v>27</v>
@@ -48881,16 +48891,16 @@
       <c r="IC83" s="29"/>
       <c r="ID83" s="29"/>
       <c r="IE83" s="31"/>
-      <c r="IF83" s="77" t="s">
+      <c r="IF83" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="IG83" s="77"/>
-      <c r="IH83" s="77"/>
-      <c r="II83" s="77"/>
-      <c r="IJ83" s="77"/>
-      <c r="IK83" s="77"/>
-      <c r="IL83" s="77"/>
-      <c r="IM83" s="77"/>
+      <c r="IG83" s="70"/>
+      <c r="IH83" s="70"/>
+      <c r="II83" s="70"/>
+      <c r="IJ83" s="70"/>
+      <c r="IK83" s="70"/>
+      <c r="IL83" s="70"/>
+      <c r="IM83" s="70"/>
       <c r="JJ83" s="78"/>
       <c r="JK83" s="63"/>
       <c r="JL83" s="51"/>
@@ -48977,16 +48987,16 @@
       <c r="LE83" s="29"/>
       <c r="LF83" s="29"/>
       <c r="LG83" s="31"/>
-      <c r="LH83" s="77" t="s">
+      <c r="LH83" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="LI83" s="77"/>
-      <c r="LJ83" s="77"/>
-      <c r="LK83" s="77"/>
-      <c r="LL83" s="77"/>
-      <c r="LM83" s="77"/>
-      <c r="LN83" s="77"/>
-      <c r="LO83" s="77"/>
+      <c r="LI83" s="70"/>
+      <c r="LJ83" s="70"/>
+      <c r="LK83" s="70"/>
+      <c r="LL83" s="70"/>
+      <c r="LM83" s="70"/>
+      <c r="LN83" s="70"/>
+      <c r="LO83" s="70"/>
     </row>
     <row r="84" spans="1:327">
       <c r="A84" s="71"/>
@@ -49955,16 +49965,16 @@
       <c r="LE85" s="31"/>
       <c r="LF85" s="31"/>
       <c r="LG85" s="31"/>
-      <c r="LH85" s="77" t="s">
+      <c r="LH85" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="LI85" s="77"/>
-      <c r="LJ85" s="77"/>
-      <c r="LK85" s="77"/>
-      <c r="LL85" s="77"/>
-      <c r="LM85" s="77"/>
-      <c r="LN85" s="77"/>
-      <c r="LO85" s="77"/>
+      <c r="LI85" s="70"/>
+      <c r="LJ85" s="70"/>
+      <c r="LK85" s="70"/>
+      <c r="LL85" s="70"/>
+      <c r="LM85" s="70"/>
+      <c r="LN85" s="70"/>
+      <c r="LO85" s="70"/>
     </row>
     <row r="86" spans="1:327">
       <c r="A86" s="71"/>
@@ -51371,14 +51381,14 @@
       <c r="LG88" s="31"/>
     </row>
     <row r="89" spans="1:327" ht="20">
-      <c r="L89" s="77" t="s">
+      <c r="L89" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
+      <c r="M89" s="70"/>
+      <c r="N89" s="70"/>
+      <c r="O89" s="70"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="70"/>
       <c r="Z89" s="45" t="s">
         <v>11</v>
       </c>
@@ -51484,30 +51494,30 @@
       <c r="EB89" s="8"/>
       <c r="EC89" s="8"/>
       <c r="ED89" s="8"/>
-      <c r="EE89" s="77" t="s">
+      <c r="EE89" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="EF89" s="77"/>
-      <c r="EG89" s="77"/>
-      <c r="EH89" s="77"/>
-      <c r="EI89" s="77"/>
-      <c r="EJ89" s="77"/>
+      <c r="EF89" s="70"/>
+      <c r="EG89" s="70"/>
+      <c r="EH89" s="70"/>
+      <c r="EI89" s="70"/>
+      <c r="EJ89" s="70"/>
       <c r="EM89" s="45" t="s">
         <v>116</v>
       </c>
       <c r="EO89" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="ER89" s="77" t="s">
+      <c r="ER89" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="ES89" s="77"/>
-      <c r="ET89" s="77"/>
-      <c r="EU89" s="77"/>
-      <c r="EV89" s="77"/>
-      <c r="EW89" s="77"/>
-      <c r="EX89" s="77"/>
-      <c r="EY89" s="77"/>
+      <c r="ES89" s="70"/>
+      <c r="ET89" s="70"/>
+      <c r="EU89" s="70"/>
+      <c r="EV89" s="70"/>
+      <c r="EW89" s="70"/>
+      <c r="EX89" s="70"/>
+      <c r="EY89" s="70"/>
       <c r="FO89" s="57"/>
       <c r="FP89" s="8"/>
       <c r="FQ89" s="8"/>
@@ -51552,30 +51562,30 @@
       <c r="HD89" s="8"/>
       <c r="HE89" s="8"/>
       <c r="HF89" s="8"/>
-      <c r="HG89" s="77" t="s">
+      <c r="HG89" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="HH89" s="77"/>
-      <c r="HI89" s="77"/>
-      <c r="HJ89" s="77"/>
-      <c r="HK89" s="77"/>
-      <c r="HL89" s="77"/>
+      <c r="HH89" s="70"/>
+      <c r="HI89" s="70"/>
+      <c r="HJ89" s="70"/>
+      <c r="HK89" s="70"/>
+      <c r="HL89" s="70"/>
       <c r="HO89" s="52" t="s">
         <v>127</v>
       </c>
       <c r="HQ89" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="HT89" s="77" t="s">
+      <c r="HT89" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="HU89" s="77"/>
-      <c r="HV89" s="77"/>
-      <c r="HW89" s="77"/>
-      <c r="HX89" s="77"/>
-      <c r="HY89" s="77"/>
-      <c r="HZ89" s="77"/>
-      <c r="IA89" s="77"/>
+      <c r="HU89" s="70"/>
+      <c r="HV89" s="70"/>
+      <c r="HW89" s="70"/>
+      <c r="HX89" s="70"/>
+      <c r="HY89" s="70"/>
+      <c r="HZ89" s="70"/>
+      <c r="IA89" s="70"/>
       <c r="IQ89" s="57"/>
       <c r="IR89" s="8"/>
       <c r="IS89" s="8"/>
@@ -51600,14 +51610,14 @@
       <c r="JL89" s="55"/>
       <c r="JM89" s="31"/>
       <c r="JN89" s="31"/>
-      <c r="JO89" s="76"/>
-      <c r="JP89" s="76"/>
-      <c r="JQ89" s="76"/>
-      <c r="JR89" s="76"/>
-      <c r="JS89" s="76"/>
-      <c r="JT89" s="76"/>
-      <c r="JU89" s="76"/>
-      <c r="JV89" s="76"/>
+      <c r="JO89" s="73"/>
+      <c r="JP89" s="73"/>
+      <c r="JQ89" s="73"/>
+      <c r="JR89" s="73"/>
+      <c r="JS89" s="73"/>
+      <c r="JT89" s="73"/>
+      <c r="JU89" s="73"/>
+      <c r="JV89" s="73"/>
       <c r="JW89" s="29"/>
       <c r="JX89" s="29"/>
       <c r="JY89" s="8"/>
@@ -51620,30 +51630,30 @@
       <c r="KF89" s="8"/>
       <c r="KG89" s="8"/>
       <c r="KH89" s="8"/>
-      <c r="KI89" s="77" t="s">
+      <c r="KI89" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="KJ89" s="77"/>
-      <c r="KK89" s="77"/>
-      <c r="KL89" s="77"/>
-      <c r="KM89" s="77"/>
-      <c r="KN89" s="77"/>
+      <c r="KJ89" s="70"/>
+      <c r="KK89" s="70"/>
+      <c r="KL89" s="70"/>
+      <c r="KM89" s="70"/>
+      <c r="KN89" s="70"/>
       <c r="KQ89" s="52" t="s">
         <v>98</v>
       </c>
       <c r="KS89" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="KV89" s="77" t="s">
+      <c r="KV89" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="KW89" s="77"/>
-      <c r="KX89" s="77"/>
-      <c r="KY89" s="77"/>
-      <c r="KZ89" s="77"/>
-      <c r="LA89" s="77"/>
-      <c r="LB89" s="77"/>
-      <c r="LC89" s="77"/>
+      <c r="KW89" s="70"/>
+      <c r="KX89" s="70"/>
+      <c r="KY89" s="70"/>
+      <c r="KZ89" s="70"/>
+      <c r="LA89" s="70"/>
+      <c r="LB89" s="70"/>
+      <c r="LC89" s="70"/>
     </row>
     <row r="90" spans="1:327" ht="16" customHeight="1">
       <c r="J90" s="71" t="s">
@@ -52013,22 +52023,22 @@
       </c>
     </row>
     <row r="93" spans="1:327" ht="20">
-      <c r="L93" s="77" t="s">
+      <c r="L93" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="77"/>
-      <c r="EE93" s="77" t="s">
+      <c r="M93" s="70"/>
+      <c r="N93" s="70"/>
+      <c r="O93" s="70"/>
+      <c r="P93" s="70"/>
+      <c r="Q93" s="70"/>
+      <c r="EE93" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="EF93" s="77"/>
-      <c r="EG93" s="77"/>
-      <c r="EH93" s="77"/>
-      <c r="EI93" s="77"/>
-      <c r="EJ93" s="77"/>
+      <c r="EF93" s="70"/>
+      <c r="EG93" s="70"/>
+      <c r="EH93" s="70"/>
+      <c r="EI93" s="70"/>
+      <c r="EJ93" s="70"/>
       <c r="EM93" s="53" t="s">
         <v>137</v>
       </c>
@@ -52037,25 +52047,25 @@
       <c r="EP93" s="53"/>
       <c r="EQ93" s="53"/>
       <c r="ER93" s="53"/>
-      <c r="HG93" s="77" t="s">
+      <c r="HG93" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="HH93" s="77"/>
-      <c r="HI93" s="77"/>
-      <c r="HJ93" s="77"/>
-      <c r="HK93" s="77"/>
-      <c r="HL93" s="77"/>
+      <c r="HH93" s="70"/>
+      <c r="HI93" s="70"/>
+      <c r="HJ93" s="70"/>
+      <c r="HK93" s="70"/>
+      <c r="HL93" s="70"/>
       <c r="HO93" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="KI93" s="77" t="s">
+      <c r="KI93" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="KJ93" s="77"/>
-      <c r="KK93" s="77"/>
-      <c r="KL93" s="77"/>
-      <c r="KM93" s="77"/>
-      <c r="KN93" s="77"/>
+      <c r="KJ93" s="70"/>
+      <c r="KK93" s="70"/>
+      <c r="KL93" s="70"/>
+      <c r="KM93" s="70"/>
+      <c r="KN93" s="70"/>
     </row>
     <row r="96" spans="1:327" ht="47">
       <c r="A96" s="27" t="s">
@@ -53271,17 +53281,17 @@
       </c>
       <c r="D118" s="69"/>
       <c r="E118" s="69"/>
-      <c r="G118" s="77" t="s">
+      <c r="G118" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
       <c r="J118" s="17"/>
-      <c r="K118" s="77" t="s">
+      <c r="K118" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="L118" s="77"/>
-      <c r="M118" s="77"/>
+      <c r="L118" s="70"/>
+      <c r="M118" s="70"/>
       <c r="N118" s="17"/>
       <c r="O118" s="17" t="s">
         <v>41</v>
@@ -53296,17 +53306,17 @@
       </c>
       <c r="JZ118" s="69"/>
       <c r="KA118" s="69"/>
-      <c r="KC118" s="77" t="s">
+      <c r="KC118" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="KD118" s="77"/>
-      <c r="KE118" s="77"/>
+      <c r="KD118" s="70"/>
+      <c r="KE118" s="70"/>
       <c r="KF118" s="17"/>
-      <c r="KG118" s="77" t="s">
+      <c r="KG118" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="KH118" s="77"/>
-      <c r="KI118" s="77"/>
+      <c r="KH118" s="70"/>
+      <c r="KI118" s="70"/>
       <c r="KJ118" s="17"/>
       <c r="KK118" s="17" t="s">
         <v>150</v>
@@ -53585,82 +53595,79 @@
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="JW98:KE98"/>
-    <mergeCell ref="JW100:JW107"/>
-    <mergeCell ref="JW110:KE110"/>
-    <mergeCell ref="JW112:JW117"/>
-    <mergeCell ref="JY118:KA118"/>
-    <mergeCell ref="KC118:KE118"/>
-    <mergeCell ref="KG118:KI118"/>
-    <mergeCell ref="JW123:JW128"/>
-    <mergeCell ref="JJ81:JJ88"/>
-    <mergeCell ref="KG81:KG88"/>
-    <mergeCell ref="LF81:LF82"/>
-    <mergeCell ref="LH83:LO83"/>
-    <mergeCell ref="JO89:JV89"/>
-    <mergeCell ref="KI89:KN89"/>
-    <mergeCell ref="KV89:LC89"/>
-    <mergeCell ref="KG90:KG92"/>
-    <mergeCell ref="KI93:KN93"/>
-    <mergeCell ref="LH85:LO85"/>
-    <mergeCell ref="KY59:LF59"/>
-    <mergeCell ref="KP59:KR59"/>
-    <mergeCell ref="JJ61:JJ66"/>
-    <mergeCell ref="KY62:LF62"/>
-    <mergeCell ref="JO67:JT67"/>
-    <mergeCell ref="JX67:KE67"/>
-    <mergeCell ref="JO79:JV79"/>
-    <mergeCell ref="KI79:KN79"/>
-    <mergeCell ref="KV79:LC79"/>
-    <mergeCell ref="LH79:LO79"/>
-    <mergeCell ref="JV61:JV66"/>
-    <mergeCell ref="KP67:KR67"/>
-    <mergeCell ref="JL40:JM40"/>
-    <mergeCell ref="KI40:KN40"/>
-    <mergeCell ref="IU42:IU49"/>
-    <mergeCell ref="JJ42:JJ49"/>
-    <mergeCell ref="IW50:IX50"/>
-    <mergeCell ref="IZ50:JE50"/>
-    <mergeCell ref="KI50:KN50"/>
-    <mergeCell ref="JO59:JT59"/>
-    <mergeCell ref="JX59:KE59"/>
-    <mergeCell ref="KG42:KG49"/>
-    <mergeCell ref="KG51:KG53"/>
-    <mergeCell ref="KI54:KN54"/>
-    <mergeCell ref="KI56:KN56"/>
-    <mergeCell ref="ID81:ID82"/>
-    <mergeCell ref="IF83:IM83"/>
-    <mergeCell ref="GM89:GT89"/>
-    <mergeCell ref="HG89:HL89"/>
-    <mergeCell ref="HT89:IA89"/>
-    <mergeCell ref="HE90:HE92"/>
-    <mergeCell ref="HG93:HL93"/>
-    <mergeCell ref="IW40:IX40"/>
-    <mergeCell ref="IZ40:JE40"/>
-    <mergeCell ref="GJ40:GO40"/>
-    <mergeCell ref="GJ50:GO50"/>
-    <mergeCell ref="HW59:ID59"/>
-    <mergeCell ref="GM79:GT79"/>
-    <mergeCell ref="HG79:HL79"/>
-    <mergeCell ref="HT79:IA79"/>
-    <mergeCell ref="IF79:IM79"/>
-    <mergeCell ref="HW62:ID62"/>
-    <mergeCell ref="GM67:GR67"/>
-    <mergeCell ref="GV67:HC67"/>
-    <mergeCell ref="GM59:GR59"/>
-    <mergeCell ref="GV59:HC59"/>
-    <mergeCell ref="CV40:DA40"/>
-    <mergeCell ref="CV50:DA50"/>
-    <mergeCell ref="FU40:FV40"/>
-    <mergeCell ref="FX40:GC40"/>
-    <mergeCell ref="HG40:HL40"/>
-    <mergeCell ref="FS42:FS49"/>
-    <mergeCell ref="FU50:FV50"/>
-    <mergeCell ref="FX50:GC50"/>
-    <mergeCell ref="HG50:HL50"/>
-    <mergeCell ref="DH40:DM40"/>
-    <mergeCell ref="DH50:DM50"/>
-    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="GH81:GH88"/>
+    <mergeCell ref="HE81:HE88"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="ER89:EY89"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="EC90:EC92"/>
+    <mergeCell ref="L93:Q93"/>
+    <mergeCell ref="EE93:EJ93"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="L89:Q89"/>
+    <mergeCell ref="AH89:AO89"/>
+    <mergeCell ref="AS89:AZ89"/>
+    <mergeCell ref="BD89:BK89"/>
+    <mergeCell ref="DK89:DR89"/>
+    <mergeCell ref="EE89:EJ89"/>
+    <mergeCell ref="BS89:BX89"/>
+    <mergeCell ref="CS40:CT40"/>
+    <mergeCell ref="EE40:EJ40"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="BS67:BX67"/>
+    <mergeCell ref="EE79:EJ79"/>
+    <mergeCell ref="ER79:EY79"/>
+    <mergeCell ref="FD79:FK79"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="DF81:DF88"/>
+    <mergeCell ref="EC81:EC88"/>
+    <mergeCell ref="FB81:FB82"/>
+    <mergeCell ref="FD83:FK83"/>
+    <mergeCell ref="AH79:AO79"/>
+    <mergeCell ref="AS79:AZ79"/>
+    <mergeCell ref="BD79:BK79"/>
+    <mergeCell ref="DK79:DR79"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AH67:AM67"/>
+    <mergeCell ref="AS67:AZ67"/>
+    <mergeCell ref="BD67:BK67"/>
+    <mergeCell ref="BS79:BX79"/>
+    <mergeCell ref="DK67:DP67"/>
+    <mergeCell ref="DT67:EA67"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="BL38:CJ38"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="L40:Q40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AS40:AX40"/>
+    <mergeCell ref="BD40:BI40"/>
+    <mergeCell ref="BS40:BX40"/>
+    <mergeCell ref="BZ40:CG40"/>
+    <mergeCell ref="CI40:CJ40"/>
+    <mergeCell ref="GH61:GH66"/>
+    <mergeCell ref="AS59:AZ59"/>
+    <mergeCell ref="BD59:BK59"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AS50:AX50"/>
+    <mergeCell ref="BD50:BI50"/>
+    <mergeCell ref="CS50:CT50"/>
+    <mergeCell ref="BS50:BX50"/>
+    <mergeCell ref="BZ50:CG50"/>
+    <mergeCell ref="EU59:FB59"/>
+    <mergeCell ref="DF61:DF66"/>
+    <mergeCell ref="EU62:FB62"/>
+    <mergeCell ref="DK59:DP59"/>
+    <mergeCell ref="BS59:BX59"/>
     <mergeCell ref="CQ42:CQ49"/>
     <mergeCell ref="DF42:DF49"/>
     <mergeCell ref="A72:A73"/>
@@ -53685,79 +53692,82 @@
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="L71:Q71"/>
     <mergeCell ref="L56:Q56"/>
-    <mergeCell ref="GH61:GH66"/>
-    <mergeCell ref="AS59:AZ59"/>
-    <mergeCell ref="BD59:BK59"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AS50:AX50"/>
-    <mergeCell ref="BD50:BI50"/>
-    <mergeCell ref="CS50:CT50"/>
-    <mergeCell ref="BS50:BX50"/>
-    <mergeCell ref="BZ50:CG50"/>
-    <mergeCell ref="EU59:FB59"/>
-    <mergeCell ref="DF61:DF66"/>
-    <mergeCell ref="EU62:FB62"/>
-    <mergeCell ref="DK59:DP59"/>
-    <mergeCell ref="BS59:BX59"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="BL38:CJ38"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="L40:Q40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AS40:AX40"/>
-    <mergeCell ref="BD40:BI40"/>
-    <mergeCell ref="BS40:BX40"/>
-    <mergeCell ref="BZ40:CG40"/>
-    <mergeCell ref="CI40:CJ40"/>
-    <mergeCell ref="CS40:CT40"/>
-    <mergeCell ref="EE40:EJ40"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="BS67:BX67"/>
-    <mergeCell ref="EE79:EJ79"/>
-    <mergeCell ref="ER79:EY79"/>
-    <mergeCell ref="FD79:FK79"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="DF81:DF88"/>
-    <mergeCell ref="EC81:EC88"/>
-    <mergeCell ref="FB81:FB82"/>
-    <mergeCell ref="FD83:FK83"/>
-    <mergeCell ref="AH79:AO79"/>
-    <mergeCell ref="AS79:AZ79"/>
-    <mergeCell ref="BD79:BK79"/>
-    <mergeCell ref="DK79:DR79"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AH67:AM67"/>
-    <mergeCell ref="AS67:AZ67"/>
-    <mergeCell ref="BD67:BK67"/>
-    <mergeCell ref="BS79:BX79"/>
-    <mergeCell ref="DK67:DP67"/>
-    <mergeCell ref="DT67:EA67"/>
-    <mergeCell ref="GH81:GH88"/>
-    <mergeCell ref="HE81:HE88"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="ER89:EY89"/>
-    <mergeCell ref="J90:J92"/>
-    <mergeCell ref="EC90:EC92"/>
-    <mergeCell ref="L93:Q93"/>
-    <mergeCell ref="EE93:EJ93"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="L89:Q89"/>
-    <mergeCell ref="AH89:AO89"/>
-    <mergeCell ref="AS89:AZ89"/>
-    <mergeCell ref="BD89:BK89"/>
-    <mergeCell ref="DK89:DR89"/>
-    <mergeCell ref="EE89:EJ89"/>
-    <mergeCell ref="BS89:BX89"/>
+    <mergeCell ref="CV40:DA40"/>
+    <mergeCell ref="CV50:DA50"/>
+    <mergeCell ref="FU40:FV40"/>
+    <mergeCell ref="FX40:GC40"/>
+    <mergeCell ref="HG40:HL40"/>
+    <mergeCell ref="FS42:FS49"/>
+    <mergeCell ref="FU50:FV50"/>
+    <mergeCell ref="FX50:GC50"/>
+    <mergeCell ref="HG50:HL50"/>
+    <mergeCell ref="DH40:DM40"/>
+    <mergeCell ref="DH50:DM50"/>
+    <mergeCell ref="EE50:EJ50"/>
+    <mergeCell ref="ID81:ID82"/>
+    <mergeCell ref="IF83:IM83"/>
+    <mergeCell ref="GM89:GT89"/>
+    <mergeCell ref="HG89:HL89"/>
+    <mergeCell ref="HT89:IA89"/>
+    <mergeCell ref="HE90:HE92"/>
+    <mergeCell ref="HG93:HL93"/>
+    <mergeCell ref="IW40:IX40"/>
+    <mergeCell ref="IZ40:JE40"/>
+    <mergeCell ref="GJ40:GO40"/>
+    <mergeCell ref="GJ50:GO50"/>
+    <mergeCell ref="HW59:ID59"/>
+    <mergeCell ref="GM79:GT79"/>
+    <mergeCell ref="HG79:HL79"/>
+    <mergeCell ref="HT79:IA79"/>
+    <mergeCell ref="IF79:IM79"/>
+    <mergeCell ref="HW62:ID62"/>
+    <mergeCell ref="GM67:GR67"/>
+    <mergeCell ref="GV67:HC67"/>
+    <mergeCell ref="GM59:GR59"/>
+    <mergeCell ref="GV59:HC59"/>
+    <mergeCell ref="JL40:JM40"/>
+    <mergeCell ref="KI40:KN40"/>
+    <mergeCell ref="IU42:IU49"/>
+    <mergeCell ref="JJ42:JJ49"/>
+    <mergeCell ref="IW50:IX50"/>
+    <mergeCell ref="IZ50:JE50"/>
+    <mergeCell ref="KI50:KN50"/>
+    <mergeCell ref="JO59:JT59"/>
+    <mergeCell ref="JX59:KE59"/>
+    <mergeCell ref="KG42:KG49"/>
+    <mergeCell ref="KG51:KG53"/>
+    <mergeCell ref="KI54:KN54"/>
+    <mergeCell ref="KI56:KN56"/>
+    <mergeCell ref="JJ61:JJ66"/>
+    <mergeCell ref="KY62:LF62"/>
+    <mergeCell ref="JO67:JT67"/>
+    <mergeCell ref="JX67:KE67"/>
+    <mergeCell ref="JO79:JV79"/>
+    <mergeCell ref="KI79:KN79"/>
+    <mergeCell ref="KV79:LC79"/>
+    <mergeCell ref="LH79:LO79"/>
+    <mergeCell ref="JV61:JV66"/>
+    <mergeCell ref="KP67:KR67"/>
+    <mergeCell ref="LF81:LF82"/>
+    <mergeCell ref="LH83:LO83"/>
+    <mergeCell ref="JO89:JV89"/>
+    <mergeCell ref="KI89:KN89"/>
+    <mergeCell ref="KV89:LC89"/>
+    <mergeCell ref="KG90:KG92"/>
+    <mergeCell ref="KI93:KN93"/>
+    <mergeCell ref="LH85:LO85"/>
+    <mergeCell ref="KY59:LF59"/>
+    <mergeCell ref="KP59:KR59"/>
+    <mergeCell ref="JW98:KE98"/>
+    <mergeCell ref="JW100:JW107"/>
+    <mergeCell ref="JW110:KE110"/>
+    <mergeCell ref="JW112:JW117"/>
+    <mergeCell ref="JY118:KA118"/>
+    <mergeCell ref="KC118:KE118"/>
+    <mergeCell ref="KG118:KI118"/>
+    <mergeCell ref="JW123:JW128"/>
+    <mergeCell ref="JJ81:JJ88"/>
+    <mergeCell ref="KG81:KG88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -53770,8 +53780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81DB1CE6-E3EC-7B4E-8832-2A8872C682BA}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -53805,33 +53815,33 @@
         <v>169</v>
       </c>
       <c r="I1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" t="s">
         <v>170</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>2000</v>
       </c>
       <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" t="s">
         <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" t="s">
-        <v>175</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -53841,27 +53851,27 @@
         <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>2000</v>
       </c>
       <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
         <v>172</v>
       </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -53874,27 +53884,27 @@
         <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -53907,27 +53917,27 @@
         <v>-97</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -53940,27 +53950,27 @@
         <v>-3</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>2000</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -53973,27 +53983,27 @@
         <v>22.4</v>
       </c>
       <c r="J6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -54006,27 +54016,27 @@
         <v>-87</v>
       </c>
       <c r="J7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -54039,27 +54049,27 @@
         <v>78.2</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>2000</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
@@ -54072,27 +54082,27 @@
         <v>-17.8</v>
       </c>
       <c r="J9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>2000</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -54105,27 +54115,27 @@
         <v>12.6</v>
       </c>
       <c r="J10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>2000</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -54138,27 +54148,27 @@
         <v>-28.1</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>2000</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -54176,22 +54186,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>2000</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -54204,27 +54214,27 @@
         <v>-19.399999999999999</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>2000</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -54237,27 +54247,27 @@
         <v>-0.5</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>2000</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -54275,22 +54285,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>2000</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
@@ -54303,27 +54313,27 @@
         <v>-12.1</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17">
         <v>2000</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -54336,27 +54346,27 @@
         <v>-32.299999999999997</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>2000</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
@@ -54369,30 +54379,30 @@
         <v>25.2</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>2000</v>
       </c>
       <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
         <v>180</v>
       </c>
-      <c r="D19" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -54407,25 +54417,25 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>2000</v>
       </c>
       <c r="C20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" t="s">
         <v>180</v>
       </c>
-      <c r="D20" t="s">
-        <v>183</v>
-      </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -54440,25 +54450,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <v>2000</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
@@ -54468,7 +54478,7 @@
         <v>25.2</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
+++ b/inst/extdata/PerfectSubstitutionraw/UTEI_Sankey_Simple_ECC_Perfect_Sub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/Recca/inst/extdata/PerfectSubstitutionraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61524CCD-45FA-FF45-A47A-92231EF698CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DA20C-DB24-914E-988F-511420BD33C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20680" yWindow="460" windowWidth="26200" windowHeight="17560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53781,7 +53781,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
